--- a/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
+++ b/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kaklise\src\Pyomo\pyomo\pyomo\contrib\parmest\examples\reactor_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6913FB67-EC25-4089-9883-2922FE1B9C09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75AD1F6A-0151-499E-A6B2-C0DFA5AFA1F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="4" xr2:uid="{F4583B33-02F6-4597-8CFF-96E722889F82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F4583B33-02F6-4597-8CFF-96E722889F82}"/>
   </bookViews>
   <sheets>
     <sheet name="design-values" sheetId="1" r:id="rId1"/>
@@ -1146,61 +1146,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0544402052376616</c:v>
+                  <c:v>1.0571902089786094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1019696341209633</c:v>
+                  <c:v>1.1083808875645038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1580390360172585</c:v>
+                  <c:v>1.1597251336567553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2070522759649751</c:v>
+                  <c:v>1.2093323440558059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.253512050280446</c:v>
+                  <c:v>1.2572121088192627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3019523352806841</c:v>
+                  <c:v>1.3093315132919989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3505701555188221</c:v>
+                  <c:v>1.3590775792971943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4011709485486836</c:v>
+                  <c:v>1.401924522690237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4546672468842172</c:v>
+                  <c:v>1.4575930031989033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5036721009472747</c:v>
+                  <c:v>1.5058167556392896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5519876856996895</c:v>
+                  <c:v>1.5590748461413337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6093498086728029</c:v>
+                  <c:v>1.6082964096718932</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6523699485715404</c:v>
+                  <c:v>1.6510800579363214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7004706959506171</c:v>
+                  <c:v>1.7099234994126153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.750185076621805</c:v>
+                  <c:v>1.7565566282062535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.800180059323613</c:v>
+                  <c:v>1.8031676025889536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8579944644076267</c:v>
+                  <c:v>1.8521292983435773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9042629010751571</c:v>
+                  <c:v>1.9098704617576747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9514421255603338</c:v>
+                  <c:v>1.9528684865920864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,61 +1212,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3322.1772259276322</c:v>
+                  <c:v>3579.3739866128653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3331.0254086383188</c:v>
+                  <c:v>3758.7640752655329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3469.3752097709707</c:v>
+                  <c:v>3335.8511734323515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3392.3333336202572</c:v>
+                  <c:v>3435.4265669415845</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3817.3651396598548</c:v>
+                  <c:v>4122.3892311615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4277.8724347502639</c:v>
+                  <c:v>3718.0554554381361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4216.8386775299232</c:v>
+                  <c:v>3747.1462833955752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3969.3561540024994</c:v>
+                  <c:v>3899.2352656979779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4198.0031049664149</c:v>
+                  <c:v>3998.5346722248432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4143.3219596972194</c:v>
+                  <c:v>4032.8513640933625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4209.7248874505904</c:v>
+                  <c:v>4202.3782428492095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4071.57170444747</c:v>
+                  <c:v>4120.4996882703626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4442.4502898185719</c:v>
+                  <c:v>4375.6524830465496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4289.2110160443317</c:v>
+                  <c:v>4407.3847478586986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4341.5484578840933</c:v>
+                  <c:v>4493.8574580386112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4313.7556178495142</c:v>
+                  <c:v>4486.208431966802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4625.8962452289461</c:v>
+                  <c:v>4469.4726604248644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4506.8961622618226</c:v>
+                  <c:v>4593.9135054642356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4580.2629924589783</c:v>
+                  <c:v>4657.2404247086088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,61 +1311,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0544402052376616</c:v>
+                  <c:v>1.0571902089786094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1019696341209633</c:v>
+                  <c:v>1.1083808875645038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1580390360172585</c:v>
+                  <c:v>1.1597251336567553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2070522759649751</c:v>
+                  <c:v>1.2093323440558059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.253512050280446</c:v>
+                  <c:v>1.2572121088192627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3019523352806841</c:v>
+                  <c:v>1.3093315132919989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3505701555188221</c:v>
+                  <c:v>1.3590775792971943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4011709485486836</c:v>
+                  <c:v>1.401924522690237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4546672468842172</c:v>
+                  <c:v>1.4575930031989033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5036721009472747</c:v>
+                  <c:v>1.5058167556392896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5519876856996895</c:v>
+                  <c:v>1.5590748461413337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6093498086728029</c:v>
+                  <c:v>1.6082964096718932</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6523699485715404</c:v>
+                  <c:v>1.6510800579363214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7004706959506171</c:v>
+                  <c:v>1.7099234994126153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.750185076621805</c:v>
+                  <c:v>1.7565566282062535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.800180059323613</c:v>
+                  <c:v>1.8031676025889536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8579944644076267</c:v>
+                  <c:v>1.8521292983435773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9042629010751571</c:v>
+                  <c:v>1.9098704617576747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9514421255603338</c:v>
+                  <c:v>1.9528684865920864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,61 +1377,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1082.354411963001</c:v>
+                  <c:v>1118.997323450154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1143.4375676983104</c:v>
+                  <c:v>1154.0276571388654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024.1279657045218</c:v>
+                  <c:v>997.18408563514765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1071.8971318104009</c:v>
+                  <c:v>1078.3131257666851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1133.5813873746354</c:v>
+                  <c:v>1112.0684924848242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1135.5232442331037</c:v>
+                  <c:v>1091.6848815991777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1064.3078977536354</c:v>
+                  <c:v>1079.1129332881985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1009.9946914706472</c:v>
+                  <c:v>1074.4084535176355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1005.4394881244056</c:v>
+                  <c:v>1011.5210056978408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1091.3181780105506</c:v>
+                  <c:v>1013.4013283405393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1074.4279118324962</c:v>
+                  <c:v>1095.5992059654532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1085.4856664114241</c:v>
+                  <c:v>1131.7492053350861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>994.45603072791096</c:v>
+                  <c:v>1120.0907975468817</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>992.04031347502109</c:v>
+                  <c:v>1159.4586484128022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1041.9721100416975</c:v>
+                  <c:v>1098.6478136619733</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1022.2025935876112</c:v>
+                  <c:v>1026.6558248859917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1019.3239462355024</c:v>
+                  <c:v>1081.2685672351242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>953.05337950017713</c:v>
+                  <c:v>1035.2535771248934</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1025.9638568458072</c:v>
+                  <c:v>1053.4229295859191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,61 +1476,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0544402052376616</c:v>
+                  <c:v>1.0571902089786094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1019696341209633</c:v>
+                  <c:v>1.1083808875645038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1580390360172585</c:v>
+                  <c:v>1.1597251336567553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2070522759649751</c:v>
+                  <c:v>1.2093323440558059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.253512050280446</c:v>
+                  <c:v>1.2572121088192627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3019523352806841</c:v>
+                  <c:v>1.3093315132919989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3505701555188221</c:v>
+                  <c:v>1.3590775792971943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4011709485486836</c:v>
+                  <c:v>1.401924522690237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4546672468842172</c:v>
+                  <c:v>1.4575930031989033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5036721009472747</c:v>
+                  <c:v>1.5058167556392896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5519876856996895</c:v>
+                  <c:v>1.5590748461413337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6093498086728029</c:v>
+                  <c:v>1.6082964096718932</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6523699485715404</c:v>
+                  <c:v>1.6510800579363214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7004706959506171</c:v>
+                  <c:v>1.7099234994126153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.750185076621805</c:v>
+                  <c:v>1.7565566282062535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.800180059323613</c:v>
+                  <c:v>1.8031676025889536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8579944644076267</c:v>
+                  <c:v>1.8521292983435773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9042629010751571</c:v>
+                  <c:v>1.9098704617576747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9514421255603338</c:v>
+                  <c:v>1.9528684865920864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,61 +1542,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1615.3405094882012</c:v>
+                  <c:v>1756.4088201403545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1750.357208003373</c:v>
+                  <c:v>1531.332360125012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413.2088404025433</c:v>
+                  <c:v>1431.9019991227321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1373.419847225143</c:v>
+                  <c:v>1370.2736592230797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1565.8803108667755</c:v>
+                  <c:v>1417.8504182144854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1348.027590988373</c:v>
+                  <c:v>1228.8175502124093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1383.4247532681716</c:v>
+                  <c:v>1324.7851080524983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1308.0442975512008</c:v>
+                  <c:v>1231.3226871390423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1276.6591855298311</c:v>
+                  <c:v>1235.8622582035205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1113.9253910716045</c:v>
+                  <c:v>1306.9175399631656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1268.8556370022536</c:v>
+                  <c:v>1029.1664991939551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1247.147176552704</c:v>
+                  <c:v>1215.6432457992012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1043.7254496775265</c:v>
+                  <c:v>1166.8920710995214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>928.53385516797516</c:v>
+                  <c:v>1160.5872892530426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>926.96602151265529</c:v>
+                  <c:v>1126.4671022545961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1106.9956170917944</c:v>
+                  <c:v>857.03447234128805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1045.3401533499309</c:v>
+                  <c:v>1056.9578081263958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>989.71058195471517</c:v>
+                  <c:v>900.47125086085657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>778.83658807934432</c:v>
+                  <c:v>868.24425102597786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,61 +1641,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0544402052376616</c:v>
+                  <c:v>1.0571902089786094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1019696341209633</c:v>
+                  <c:v>1.1083808875645038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1580390360172585</c:v>
+                  <c:v>1.1597251336567553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2070522759649751</c:v>
+                  <c:v>1.2093323440558059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.253512050280446</c:v>
+                  <c:v>1.2572121088192627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3019523352806841</c:v>
+                  <c:v>1.3093315132919989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3505701555188221</c:v>
+                  <c:v>1.3590775792971943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4011709485486836</c:v>
+                  <c:v>1.401924522690237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4546672468842172</c:v>
+                  <c:v>1.4575930031989033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5036721009472747</c:v>
+                  <c:v>1.5058167556392896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5519876856996895</c:v>
+                  <c:v>1.5590748461413337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6093498086728029</c:v>
+                  <c:v>1.6082964096718932</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6523699485715404</c:v>
+                  <c:v>1.6510800579363214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7004706959506171</c:v>
+                  <c:v>1.7099234994126153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.750185076621805</c:v>
+                  <c:v>1.7565566282062535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.800180059323613</c:v>
+                  <c:v>1.8031676025889536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8579944644076267</c:v>
+                  <c:v>1.8521292983435773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9042629010751571</c:v>
+                  <c:v>1.9098704617576747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9514421255603338</c:v>
+                  <c:v>1.9528684865920864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,61 +1707,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2020.5512855231018</c:v>
+                  <c:v>1921.5649046406595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1944.7623076684531</c:v>
+                  <c:v>1701.8053245673295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1870.4704236916987</c:v>
+                  <c:v>1828.4520410610119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.949381916862</c:v>
+                  <c:v>1912.8683912666424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1764.2133470351191</c:v>
+                  <c:v>1810.8457734947997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1696.244835942819</c:v>
+                  <c:v>1882.2843948550233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1768.9790124586216</c:v>
+                  <c:v>1771.3969893375356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1829.6931361870732</c:v>
+                  <c:v>1798.212900924204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1874.3594576896583</c:v>
+                  <c:v>1662.5606792115636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1787.6121560751449</c:v>
+                  <c:v>1987.8753857358406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1851.3058746726379</c:v>
+                  <c:v>1796.7318070426431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1719.293053266817</c:v>
+                  <c:v>1729.9959166163799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1820.9833234335003</c:v>
+                  <c:v>1999.012781912709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1683.8248969010103</c:v>
+                  <c:v>1919.4604236319385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1903.5158039864584</c:v>
+                  <c:v>1860.5295381651526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1895.1895217319072</c:v>
+                  <c:v>1746.9745117337607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1805.9413216988667</c:v>
+                  <c:v>1764.9466015112514</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1703.2647363619508</c:v>
+                  <c:v>1776.6219759878149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1783.2267435035469</c:v>
+                  <c:v>1709.9292568817104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,61 +2154,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3322.1772259276322</c:v>
+                  <c:v>3579.3739866128653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3601.303272457244</c:v>
+                  <c:v>3519.8668797244777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3710.7889385554745</c:v>
+                  <c:v>3801.1838906107155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3909.3577425270746</c:v>
+                  <c:v>3566.3423970174986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3817.3503675070915</c:v>
+                  <c:v>3879.953286367966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3847.3766926967</c:v>
+                  <c:v>3652.9527982786558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3976.3222021358361</c:v>
+                  <c:v>3661.8729246267135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3932.4695681822304</c:v>
+                  <c:v>4172.9141849826847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3880.5464051643667</c:v>
+                  <c:v>4057.1995576635709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4160.3124472654172</c:v>
+                  <c:v>3940.6238074776734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4137.7549636686472</c:v>
+                  <c:v>4292.4806449976013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4219.2184143694431</c:v>
+                  <c:v>4254.6885684928247</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4179.624846414833</c:v>
+                  <c:v>4247.5441458770565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4260.9168053376789</c:v>
+                  <c:v>4373.8007926058672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4276.6784238836317</c:v>
+                  <c:v>4490.9232842778147</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4360.3413741706408</c:v>
+                  <c:v>4320.2976401702581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4338.0879333300909</c:v>
+                  <c:v>4426.8766718409552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4488.4861512700727</c:v>
+                  <c:v>4517.4691793955617</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4492.5992185346495</c:v>
+                  <c:v>4591.7966595477747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,61 +2319,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3668.2105487003091</c:v>
+                  <c:v>3434.2987147162034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3809.4730834625316</c:v>
+                  <c:v>3556.767485711769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3695.1117091535443</c:v>
+                  <c:v>3640.4871341803437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3617.8580244436776</c:v>
+                  <c:v>3718.7487086610718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4185.5458846487581</c:v>
+                  <c:v>3700.3894236275369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3652.9707488504773</c:v>
+                  <c:v>4182.253599815368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3786.1492087922902</c:v>
+                  <c:v>3697.1913870467611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3906.0579149000137</c:v>
+                  <c:v>3972.5857159822717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4109.9792836134093</c:v>
+                  <c:v>3912.73988345005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3962.4876368542332</c:v>
+                  <c:v>4006.605234965396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4131.4842897369408</c:v>
+                  <c:v>4239.9033976473784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4211.7847211477265</c:v>
+                  <c:v>4201.0506620127417</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3973.6470296308689</c:v>
+                  <c:v>4172.5566875656477</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4045.9833230293511</c:v>
+                  <c:v>4430.8719613354597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4318.3800651019901</c:v>
+                  <c:v>4456.0337463869546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4364.5789764563706</c:v>
+                  <c:v>4219.4072498255355</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4587.1248949733108</c:v>
+                  <c:v>4534.1546640882752</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4402.1160707773552</c:v>
+                  <c:v>4491.6709039868447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4745.9233960428583</c:v>
+                  <c:v>4428.305847632033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,61 +2484,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3729.3065892973236</c:v>
+                  <c:v>3684.7851083721466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3893.4499281630328</c:v>
+                  <c:v>3457.6374486609616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3472.0349130154473</c:v>
+                  <c:v>3977.621658556387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3450.8249467603227</c:v>
+                  <c:v>3881.2043938245115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3766.5469572212205</c:v>
+                  <c:v>3563.4999783211847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3955.9518794913301</c:v>
+                  <c:v>3576.4523686911025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3925.1605392113415</c:v>
+                  <c:v>3864.2768592871125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3854.506458822892</c:v>
+                  <c:v>3729.2633521460971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4305.9729605072152</c:v>
+                  <c:v>4588.7793180282151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4023.6551937024633</c:v>
+                  <c:v>4210.1608468893046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4061.3399945094266</c:v>
+                  <c:v>4092.3160091988698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4225.6512912409889</c:v>
+                  <c:v>3854.5066627631713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3990.1965516709488</c:v>
+                  <c:v>4397.9052224782545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4452.6903751953523</c:v>
+                  <c:v>4210.5548173285588</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4626.3465254500661</c:v>
+                  <c:v>4194.9770610276828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4593.0888527672432</c:v>
+                  <c:v>4287.981186175838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4317.9734447334422</c:v>
+                  <c:v>4104.5943631574855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4580.5935327339348</c:v>
+                  <c:v>4421.4589137096355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4532.8712818013801</c:v>
+                  <c:v>4499.5916767878043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,61 +2649,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1082.354411963001</c:v>
+                  <c:v>1118.997323450154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1143.4375676983104</c:v>
+                  <c:v>1154.0276571388654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024.1279657045218</c:v>
+                  <c:v>997.18408563514765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1071.8971318104009</c:v>
+                  <c:v>1078.3131257666851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1133.5813873746354</c:v>
+                  <c:v>1112.0684924848242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1135.5232442331037</c:v>
+                  <c:v>1091.6848815991777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1064.3078977536354</c:v>
+                  <c:v>1079.1129332881985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1009.9946914706472</c:v>
+                  <c:v>1074.4084535176355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1005.4394881244056</c:v>
+                  <c:v>1011.5210056978408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1091.3181780105506</c:v>
+                  <c:v>1013.4013283405393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1074.4279118324962</c:v>
+                  <c:v>1095.5992059654532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1085.4856664114241</c:v>
+                  <c:v>1131.7492053350861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>994.45603072791096</c:v>
+                  <c:v>1120.0907975468817</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>992.04031347502109</c:v>
+                  <c:v>1159.4586484128022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1041.9721100416975</c:v>
+                  <c:v>1098.6478136619733</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1022.2025935876112</c:v>
+                  <c:v>1026.6558248859917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1019.3239462355024</c:v>
+                  <c:v>1081.2685672351242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>953.05337950017713</c:v>
+                  <c:v>1035.2535771248934</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1025.9638568458072</c:v>
+                  <c:v>1053.4229295859191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,61 +2814,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1615.3405094882012</c:v>
+                  <c:v>1756.4088201403545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1750.357208003373</c:v>
+                  <c:v>1531.332360125012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413.2088404025433</c:v>
+                  <c:v>1431.9019991227321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1373.419847225143</c:v>
+                  <c:v>1370.2736592230797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1565.8803108667755</c:v>
+                  <c:v>1417.8504182144854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1348.027590988373</c:v>
+                  <c:v>1228.8175502124093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1383.4247532681716</c:v>
+                  <c:v>1324.7851080524983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1308.0442975512008</c:v>
+                  <c:v>1231.3226871390423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1276.6591855298311</c:v>
+                  <c:v>1235.8622582035205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1113.9253910716045</c:v>
+                  <c:v>1306.9175399631656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1268.8556370022536</c:v>
+                  <c:v>1029.1664991939551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1247.147176552704</c:v>
+                  <c:v>1215.6432457992012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1043.7254496775265</c:v>
+                  <c:v>1166.8920710995214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>928.53385516797516</c:v>
+                  <c:v>1160.5872892530426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>926.96602151265529</c:v>
+                  <c:v>1126.4671022545961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1106.9956170917944</c:v>
+                  <c:v>857.03447234128805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1045.3401533499309</c:v>
+                  <c:v>1056.9578081263958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>989.71058195471517</c:v>
+                  <c:v>900.47125086085657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>778.83658807934432</c:v>
+                  <c:v>868.24425102597786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,61 +2979,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1709.0078593881383</c:v>
+                  <c:v>1657.7893150846289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1662.5132218162721</c:v>
+                  <c:v>1564.0466531019313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1543.173000314983</c:v>
+                  <c:v>1557.1880256798936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1515.7547640237678</c:v>
+                  <c:v>1512.819783254308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1399.1273986416068</c:v>
+                  <c:v>1401.5637653023268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1352.0047416687057</c:v>
+                  <c:v>1348.549995767054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1336.6844523988368</c:v>
+                  <c:v>1372.9004383803303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1320.1314980096392</c:v>
+                  <c:v>1324.1436799768301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1242.5026676312727</c:v>
+                  <c:v>1222.3807141410298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1228.4552995724462</c:v>
+                  <c:v>1214.2447572587953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1109.3911208665841</c:v>
+                  <c:v>1182.9773662056889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1082.7553266639661</c:v>
+                  <c:v>1125.0972915437919</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1120.081487785897</c:v>
+                  <c:v>1123.2562122164616</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1039.8707816645408</c:v>
+                  <c:v>1007.7099857622326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1057.0537072191476</c:v>
+                  <c:v>1014.4004400022989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>938.57317016748095</c:v>
+                  <c:v>1003.6599345816012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>932.18880259380171</c:v>
+                  <c:v>911.36961754292236</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>895.52472984879751</c:v>
+                  <c:v>939.00238846951947</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>915.23874216764318</c:v>
+                  <c:v>903.08715940078434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,61 +3144,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2020.5512855231018</c:v>
+                  <c:v>1921.5649046406595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1944.7623076684531</c:v>
+                  <c:v>1701.8053245673295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1870.4704236916987</c:v>
+                  <c:v>1828.4520410610119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.949381916862</c:v>
+                  <c:v>1912.8683912666424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1764.2133470351191</c:v>
+                  <c:v>1810.8457734947997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1696.244835942819</c:v>
+                  <c:v>1882.2843948550233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1768.9790124586216</c:v>
+                  <c:v>1771.3969893375356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1829.6931361870732</c:v>
+                  <c:v>1798.212900924204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1874.3594576896583</c:v>
+                  <c:v>1662.5606792115636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1787.6121560751449</c:v>
+                  <c:v>1987.8753857358406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1851.3058746726379</c:v>
+                  <c:v>1796.7318070426431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1719.293053266817</c:v>
+                  <c:v>1729.9959166163799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1820.9833234335003</c:v>
+                  <c:v>1999.012781912709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1683.8248969010103</c:v>
+                  <c:v>1919.4604236319385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1903.5158039864584</c:v>
+                  <c:v>1860.5295381651526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1895.1895217319072</c:v>
+                  <c:v>1746.9745117337607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1805.9413216988667</c:v>
+                  <c:v>1764.9466015112514</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1703.2647363619508</c:v>
+                  <c:v>1776.6219759878149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1783.2267435035469</c:v>
+                  <c:v>1709.9292568817104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,61 +3591,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3659.7914222937652</c:v>
+                  <c:v>3530.2886026479869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3470.3359882112222</c:v>
+                  <c:v>3550.2866092924692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3399.8906379207992</c:v>
+                  <c:v>3638.2552464281348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3603.9701337309607</c:v>
+                  <c:v>3480.4066155921537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.1958451714413</c:v>
+                  <c:v>3406.9352539533811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3590.0177171823339</c:v>
+                  <c:v>3539.3497771270463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3668.6397151371448</c:v>
+                  <c:v>3559.48145944934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4082.9400631949748</c:v>
+                  <c:v>4234.6286410295888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4126.4730174230908</c:v>
+                  <c:v>4001.739132011638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4169.0368002420892</c:v>
+                  <c:v>4071.3839939962691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4015.7011163647626</c:v>
+                  <c:v>4033.7901604102226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3911.4129175821176</c:v>
+                  <c:v>3995.0217641215859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4040.3480494934229</c:v>
+                  <c:v>3912.2933642437501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4433.3613754090966</c:v>
+                  <c:v>4321.429446121454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4480.2362150898525</c:v>
+                  <c:v>4373.3847310680221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4576.2969260519703</c:v>
+                  <c:v>4377.3454809906134</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4478.7816768551957</c:v>
+                  <c:v>4375.2528553501024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4239.1932346544063</c:v>
+                  <c:v>4512.7122409331214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4478.3548821519826</c:v>
+                  <c:v>4517.946840240138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,61 +3756,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1106.6173831867818</c:v>
+                  <c:v>1177.2997064714755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1130.1795999743729</c:v>
+                  <c:v>1016.6087105414033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962.98470572191991</c:v>
+                  <c:v>1076.8594062506304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1157.6623646284568</c:v>
+                  <c:v>1095.5552036775946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103.9080775607122</c:v>
+                  <c:v>1050.530850611919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1166.1583616862151</c:v>
+                  <c:v>1229.5455699121746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1078.6130560028114</c:v>
+                  <c:v>1018.8200151308645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1035.2208207525487</c:v>
+                  <c:v>1089.8649857207301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042.3721810359177</c:v>
+                  <c:v>1059.7198793333973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1001.3504821264002</c:v>
+                  <c:v>1017.9797691205766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>950.4383388281467</c:v>
+                  <c:v>1062.5705392109958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1287.7525242854774</c:v>
+                  <c:v>1088.5320552096357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1260.5629745464989</c:v>
+                  <c:v>1193.7802814878978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>990.7499034819507</c:v>
+                  <c:v>950.94595652362261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1049.908955238006</c:v>
+                  <c:v>1010.6132745721038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1015.6885151946844</c:v>
+                  <c:v>997.34581104154802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1069.5636155806567</c:v>
+                  <c:v>1045.4796030868208</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1076.1859430860957</c:v>
+                  <c:v>1269.713448497655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1029.6596125040451</c:v>
+                  <c:v>1180.9918214098093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,61 +3921,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1524.7972443073536</c:v>
+                  <c:v>1569.3119102659978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1474.6148907594995</c:v>
+                  <c:v>1729.4480082419109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1618.8794980113107</c:v>
+                  <c:v>1641.7276923275131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1590.7514431050354</c:v>
+                  <c:v>1698.2959540462055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1644.8039775383261</c:v>
+                  <c:v>1649.9742233987843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1595.621934043528</c:v>
+                  <c:v>1693.3130402936381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1665.5367298266769</c:v>
+                  <c:v>1572.5209251750971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1265.3277016881366</c:v>
+                  <c:v>1260.2678876936718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1553.0417597021885</c:v>
+                  <c:v>1042.8871248139296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1446.1511998607425</c:v>
+                  <c:v>1258.1610975381491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1085.1400012926845</c:v>
+                  <c:v>1331.7708090749536</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1145.6735720255504</c:v>
+                  <c:v>1339.2468556129309</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1119.4630474324417</c:v>
+                  <c:v>1114.6711946156406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>925.08587234806544</c:v>
+                  <c:v>937.94084502535145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>823.55885582525457</c:v>
+                  <c:v>906.58996111167221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>978.59460887058458</c:v>
+                  <c:v>789.34385034671777</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>996.56727982278767</c:v>
+                  <c:v>988.26629550033113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1125.3552152583629</c:v>
+                  <c:v>1017.6617849849383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>847.31392558223956</c:v>
+                  <c:v>1031.2602856929766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,61 +4086,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1927.2916386128054</c:v>
+                  <c:v>1753.7935932309181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1944.6086129661969</c:v>
+                  <c:v>1943.0145128968254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1799.2583384668292</c:v>
+                  <c:v>1786.510476112232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1739.3383690271273</c:v>
+                  <c:v>1825.9119724954849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2002.7199842369746</c:v>
+                  <c:v>1896.8078077197679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1846.310645160022</c:v>
+                  <c:v>1812.0212304551321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1842.3873525819479</c:v>
+                  <c:v>1910.2823933435243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1813.5289465382109</c:v>
+                  <c:v>1792.1752181276136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1952.2445677893761</c:v>
+                  <c:v>1792.876034351312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1810.9442030003795</c:v>
+                  <c:v>1702.7447904744129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1866.3867698536278</c:v>
+                  <c:v>1938.0628953519756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1840.6329625301257</c:v>
+                  <c:v>2107.9188209967842</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1897.9754342165866</c:v>
+                  <c:v>1999.8036393375912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1747.11197069833</c:v>
+                  <c:v>1818.8612158555622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1619.8168044116981</c:v>
+                  <c:v>1640.3131931174175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1780.0327143694337</c:v>
+                  <c:v>1885.8369093599149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1708.9021694072144</c:v>
+                  <c:v>1932.4345847071106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1838.4717778804954</c:v>
+                  <c:v>1753.527339093469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1638.4731027071061</c:v>
+                  <c:v>1694.3297571066835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,61 +4772,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3659.7914222937652</c:v>
+                  <c:v>3530.2886026479869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3470.3359882112222</c:v>
+                  <c:v>3550.2866092924692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3399.8906379207992</c:v>
+                  <c:v>3638.2552464281348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3603.9701337309607</c:v>
+                  <c:v>3480.4066155921537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.1958451714413</c:v>
+                  <c:v>3406.9352539533811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3590.0177171823339</c:v>
+                  <c:v>3539.3497771270463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3668.6397151371448</c:v>
+                  <c:v>3559.48145944934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4082.9400631949748</c:v>
+                  <c:v>4234.6286410295888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4126.4730174230908</c:v>
+                  <c:v>4001.739132011638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4169.0368002420892</c:v>
+                  <c:v>4071.3839939962691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4015.7011163647626</c:v>
+                  <c:v>4033.7901604102226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3911.4129175821176</c:v>
+                  <c:v>3995.0217641215859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4040.3480494934229</c:v>
+                  <c:v>3912.2933642437501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4433.3613754090966</c:v>
+                  <c:v>4321.429446121454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4480.2362150898525</c:v>
+                  <c:v>4373.3847310680221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4576.2969260519703</c:v>
+                  <c:v>4377.3454809906134</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4478.7816768551957</c:v>
+                  <c:v>4375.2528553501024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4239.1932346544063</c:v>
+                  <c:v>4512.7122409331214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4478.3548821519826</c:v>
+                  <c:v>4517.946840240138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4937,61 +4937,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3458.5007941031354</c:v>
+                  <c:v>3670.5980665946299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3368.0166846189522</c:v>
+                  <c:v>3587.8748436588417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3602.2852636361986</c:v>
+                  <c:v>3608.1119715176774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3420.936605784158</c:v>
+                  <c:v>3578.8950934856507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3541.848564497649</c:v>
+                  <c:v>3424.068366643141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3735.1460165228059</c:v>
+                  <c:v>3567.9850802031538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4099.74968214006</c:v>
+                  <c:v>4046.0091003883526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4068.0689930882104</c:v>
+                  <c:v>3971.7635780960859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3974.1951224527375</c:v>
+                  <c:v>4154.3433819660759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3928.5456569809621</c:v>
+                  <c:v>4361.6324656854094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3924.7758011637002</c:v>
+                  <c:v>3817.0761545790269</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3823.4579214895398</c:v>
+                  <c:v>3998.2967635343307</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3780.7996839321363</c:v>
+                  <c:v>3803.5879194054228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4511.9420258668579</c:v>
+                  <c:v>4439.9890703077317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4624.8111562591257</c:v>
+                  <c:v>4618.9676423311175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4583.868057477237</c:v>
+                  <c:v>4331.2709449665117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4483.9714452494145</c:v>
+                  <c:v>4109.975375089256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4318.6849777377402</c:v>
+                  <c:v>4343.4395979225583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4381.4788467254266</c:v>
+                  <c:v>4690.3566546397487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,61 +5102,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3192.0182444624079</c:v>
+                  <c:v>3680.2921961696034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3364.8784174221973</c:v>
+                  <c:v>3369.8753272514368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3473.2232190689497</c:v>
+                  <c:v>3570.347495354456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3790.9646295283414</c:v>
+                  <c:v>3402.8773020176804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3350.4969479267747</c:v>
+                  <c:v>3579.1927548337635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3433.9048737739986</c:v>
+                  <c:v>3662.482216140751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4134.2609509009408</c:v>
+                  <c:v>4216.7171790015145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4171.5009677537073</c:v>
+                  <c:v>4020.6276642932971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4169.5967643057893</c:v>
+                  <c:v>4013.0129937943666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4359.1054858871275</c:v>
+                  <c:v>3980.9934465782426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3937.7054380606628</c:v>
+                  <c:v>4177.8294057114263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3902.5316287482115</c:v>
+                  <c:v>4165.3137010280498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3949.8432378170023</c:v>
+                  <c:v>3757.733011019096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4794.1613084266519</c:v>
+                  <c:v>4561.2405038167326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4328.1550741432202</c:v>
+                  <c:v>4640.0158851385268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4711.9647523056192</c:v>
+                  <c:v>4786.0019900990937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4391.5800083345803</c:v>
+                  <c:v>4432.4744567061489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4604.07253218194</c:v>
+                  <c:v>4345.5038038553585</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4633.1606630524011</c:v>
+                  <c:v>4268.9796176888158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,61 +5267,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1106.6173831867818</c:v>
+                  <c:v>1177.2997064714755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1130.1795999743729</c:v>
+                  <c:v>1016.6087105414033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962.98470572191991</c:v>
+                  <c:v>1076.8594062506304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1157.6623646284568</c:v>
+                  <c:v>1095.5552036775946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103.9080775607122</c:v>
+                  <c:v>1050.530850611919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1166.1583616862151</c:v>
+                  <c:v>1229.5455699121746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1078.6130560028114</c:v>
+                  <c:v>1018.8200151308645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1035.2208207525487</c:v>
+                  <c:v>1089.8649857207301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042.3721810359177</c:v>
+                  <c:v>1059.7198793333973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1001.3504821264002</c:v>
+                  <c:v>1017.9797691205766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>950.4383388281467</c:v>
+                  <c:v>1062.5705392109958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1287.7525242854774</c:v>
+                  <c:v>1088.5320552096357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1260.5629745464989</c:v>
+                  <c:v>1193.7802814878978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>990.7499034819507</c:v>
+                  <c:v>950.94595652362261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1049.908955238006</c:v>
+                  <c:v>1010.6132745721038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1015.6885151946844</c:v>
+                  <c:v>997.34581104154802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1069.5636155806567</c:v>
+                  <c:v>1045.4796030868208</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1076.1859430860957</c:v>
+                  <c:v>1269.713448497655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1029.6596125040451</c:v>
+                  <c:v>1180.9918214098093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5432,61 +5432,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1524.7972443073536</c:v>
+                  <c:v>1569.3119102659978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1474.6148907594995</c:v>
+                  <c:v>1729.4480082419109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1618.8794980113107</c:v>
+                  <c:v>1641.7276923275131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1590.7514431050354</c:v>
+                  <c:v>1698.2959540462055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1644.8039775383261</c:v>
+                  <c:v>1649.9742233987843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1595.621934043528</c:v>
+                  <c:v>1693.3130402936381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1665.5367298266769</c:v>
+                  <c:v>1572.5209251750971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1265.3277016881366</c:v>
+                  <c:v>1260.2678876936718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1553.0417597021885</c:v>
+                  <c:v>1042.8871248139296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1446.1511998607425</c:v>
+                  <c:v>1258.1610975381491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1085.1400012926845</c:v>
+                  <c:v>1331.7708090749536</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1145.6735720255504</c:v>
+                  <c:v>1339.2468556129309</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1119.4630474324417</c:v>
+                  <c:v>1114.6711946156406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>925.08587234806544</c:v>
+                  <c:v>937.94084502535145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>823.55885582525457</c:v>
+                  <c:v>906.58996111167221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>978.59460887058458</c:v>
+                  <c:v>789.34385034671777</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>996.56727982278767</c:v>
+                  <c:v>988.26629550033113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1125.3552152583629</c:v>
+                  <c:v>1017.6617849849383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>847.31392558223956</c:v>
+                  <c:v>1031.2602856929766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,61 +5597,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1561.8370057550151</c:v>
+                  <c:v>1416.5377370203444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1517.5266973206708</c:v>
+                  <c:v>1493.799967602597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1581.1010701537682</c:v>
+                  <c:v>1395.9314635106205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1700.5239747465996</c:v>
+                  <c:v>1553.4618184346532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1499.266506584702</c:v>
+                  <c:v>1679.8014747452901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1692.0676303459975</c:v>
+                  <c:v>1597.5170662574837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1063.6873384815781</c:v>
+                  <c:v>1324.5976970409658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1263.5698130536271</c:v>
+                  <c:v>1415.5137239126523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1561.0821377231023</c:v>
+                  <c:v>1201.5486469238056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1439.9718937706234</c:v>
+                  <c:v>1145.7646611183832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.8476189919925</c:v>
+                  <c:v>1405.9854560592562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1651.0962763354594</c:v>
+                  <c:v>1205.0020034971408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>974.44294330803086</c:v>
+                  <c:v>1148.3303303946245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1155.0604527766809</c:v>
+                  <c:v>700.54445345677516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1032.3535053632972</c:v>
+                  <c:v>980.52734182724464</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>868.36914325309692</c:v>
+                  <c:v>721.97258930622388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1061.0909537895316</c:v>
+                  <c:v>964.20468106333828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>939.5949030797583</c:v>
+                  <c:v>842.70019851786583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>881.84023453697068</c:v>
+                  <c:v>859.88370296009543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,61 +5762,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1927.2916386128054</c:v>
+                  <c:v>1753.7935932309181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1944.6086129661969</c:v>
+                  <c:v>1943.0145128968254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1799.2583384668292</c:v>
+                  <c:v>1786.510476112232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1739.3383690271273</c:v>
+                  <c:v>1825.9119724954849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2002.7199842369746</c:v>
+                  <c:v>1896.8078077197679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1846.310645160022</c:v>
+                  <c:v>1812.0212304551321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1842.3873525819479</c:v>
+                  <c:v>1910.2823933435243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1813.5289465382109</c:v>
+                  <c:v>1792.1752181276136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1952.2445677893761</c:v>
+                  <c:v>1792.876034351312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1810.9442030003795</c:v>
+                  <c:v>1702.7447904744129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1866.3867698536278</c:v>
+                  <c:v>1938.0628953519756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1840.6329625301257</c:v>
+                  <c:v>2107.9188209967842</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1897.9754342165866</c:v>
+                  <c:v>1999.8036393375912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1747.11197069833</c:v>
+                  <c:v>1818.8612158555622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1619.8168044116981</c:v>
+                  <c:v>1640.3131931174175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1780.0327143694337</c:v>
+                  <c:v>1885.8369093599149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1708.9021694072144</c:v>
+                  <c:v>1932.4345847071106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1838.4717778804954</c:v>
+                  <c:v>1753.527339093469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1638.4731027071061</c:v>
+                  <c:v>1694.3297571066835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,6 +6125,7 @@
         <c:axId val="613512352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9623,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE2544E-4949-4918-8355-8A562EAD0F7A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10068,495 +10069,495 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f ca="1">'design-values'!A2+RAND()*0.01</f>
-        <v>1.0544402052376616</v>
+        <v>1.0571902089786094</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">10000+RAND()*10</f>
-        <v>10008.520575121134</v>
+        <v>10009.799845870712</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">'design-values'!C2+NORMINV(RAND(),0,100)</f>
-        <v>3322.1772259276322</v>
+        <v>3579.3739866128653</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">'design-values'!D2+(RAND()*200-100)</f>
-        <v>1082.354411963001</v>
+        <v>1118.997323450154</v>
       </c>
       <c r="E2" s="4">
         <f ca="1">'design-values'!E2+(RAND()*300-150)</f>
-        <v>1615.3405094882012</v>
+        <v>1756.4088201403545</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">'design-values'!F2+NORMINV(RAND(),0,100)</f>
-        <v>2020.5512855231018</v>
+        <v>1921.5649046406595</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f ca="1">'design-values'!A3+RAND()*0.01</f>
-        <v>1.1019696341209633</v>
+        <v>1.1083808875645038</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B20" ca="1" si="0">10000+RAND()*10</f>
-        <v>10000.57164124303</v>
+        <v>10008.571044119493</v>
       </c>
       <c r="C3" s="4">
         <f ca="1">'design-values'!C3+NORMINV(RAND(),0,200)</f>
-        <v>3331.0254086383188</v>
+        <v>3758.7640752655329</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">'design-values'!D3+(RAND()*200-100)</f>
-        <v>1143.4375676983104</v>
+        <v>1154.0276571388654</v>
       </c>
       <c r="E3" s="4">
         <f ca="1">'design-values'!E3+(RAND()*300-150)</f>
-        <v>1750.357208003373</v>
+        <v>1531.332360125012</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">'design-values'!F3+NORMINV(RAND(),0,100)</f>
-        <v>1944.7623076684531</v>
+        <v>1701.8053245673295</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f ca="1">'design-values'!A4+RAND()*0.01</f>
-        <v>1.1580390360172585</v>
+        <v>1.1597251336567553</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10002.222253765314</v>
+        <v>10001.959305641938</v>
       </c>
       <c r="C4" s="4">
         <f ca="1">'design-values'!C4+NORMINV(RAND(),0,200)</f>
-        <v>3469.3752097709707</v>
+        <v>3335.8511734323515</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">'design-values'!D4+(RAND()*200-100)</f>
-        <v>1024.1279657045218</v>
+        <v>997.18408563514765</v>
       </c>
       <c r="E4" s="4">
         <f ca="1">'design-values'!E4+(RAND()*300-150)</f>
-        <v>1413.2088404025433</v>
+        <v>1431.9019991227321</v>
       </c>
       <c r="F4" s="4">
         <f ca="1">'design-values'!F4+NORMINV(RAND(),0,100)</f>
-        <v>1870.4704236916987</v>
+        <v>1828.4520410610119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f ca="1">'design-values'!A5+RAND()*0.01</f>
-        <v>1.2070522759649751</v>
+        <v>1.2093323440558059</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.485866005843</v>
+        <v>10001.71970769737</v>
       </c>
       <c r="C5" s="4">
         <f ca="1">'design-values'!C5+NORMINV(RAND(),0,200)</f>
-        <v>3392.3333336202572</v>
+        <v>3435.4265669415845</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">'design-values'!D5+(RAND()*200-100)</f>
-        <v>1071.8971318104009</v>
+        <v>1078.3131257666851</v>
       </c>
       <c r="E5" s="4">
         <f ca="1">'design-values'!E5+(RAND()*300-150)</f>
-        <v>1373.419847225143</v>
+        <v>1370.2736592230797</v>
       </c>
       <c r="F5" s="4">
         <f ca="1">'design-values'!F5+NORMINV(RAND(),0,100)</f>
-        <v>1805.949381916862</v>
+        <v>1912.8683912666424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f ca="1">'design-values'!A6+RAND()*0.01</f>
-        <v>1.253512050280446</v>
+        <v>1.2572121088192627</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10004.047207908081</v>
+        <v>10007.817842255388</v>
       </c>
       <c r="C6" s="4">
         <f ca="1">'design-values'!C6+NORMINV(RAND(),0,200)</f>
-        <v>3817.3651396598548</v>
+        <v>4122.3892311615</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">'design-values'!D6+(RAND()*200-100)</f>
-        <v>1133.5813873746354</v>
+        <v>1112.0684924848242</v>
       </c>
       <c r="E6" s="4">
         <f ca="1">'design-values'!E6+(RAND()*300-150)</f>
-        <v>1565.8803108667755</v>
+        <v>1417.8504182144854</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">'design-values'!F6+NORMINV(RAND(),0,100)</f>
-        <v>1764.2133470351191</v>
+        <v>1810.8457734947997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f ca="1">'design-values'!A7+RAND()*0.01</f>
-        <v>1.3019523352806841</v>
+        <v>1.3093315132919989</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10006.300792027192</v>
+        <v>10008.161407436013</v>
       </c>
       <c r="C7" s="4">
         <f ca="1">'design-values'!C7+NORMINV(RAND(),0,200)</f>
-        <v>4277.8724347502639</v>
+        <v>3718.0554554381361</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">'design-values'!D7+(RAND()*200-100)</f>
-        <v>1135.5232442331037</v>
+        <v>1091.6848815991777</v>
       </c>
       <c r="E7" s="4">
         <f ca="1">'design-values'!E7+(RAND()*300-150)</f>
-        <v>1348.027590988373</v>
+        <v>1228.8175502124093</v>
       </c>
       <c r="F7" s="4">
         <f ca="1">'design-values'!F7+NORMINV(RAND(),0,100)</f>
-        <v>1696.244835942819</v>
+        <v>1882.2843948550233</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f ca="1">'design-values'!A8+RAND()*0.01</f>
-        <v>1.3505701555188221</v>
+        <v>1.3590775792971943</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10002.880850173244</v>
+        <v>10001.298794449811</v>
       </c>
       <c r="C8" s="4">
         <f ca="1">'design-values'!C8+NORMINV(RAND(),0,200)</f>
-        <v>4216.8386775299232</v>
+        <v>3747.1462833955752</v>
       </c>
       <c r="D8" s="4">
         <f ca="1">'design-values'!D8+(RAND()*200-100)</f>
-        <v>1064.3078977536354</v>
+        <v>1079.1129332881985</v>
       </c>
       <c r="E8" s="4">
         <f ca="1">'design-values'!E8+(RAND()*300-150)</f>
-        <v>1383.4247532681716</v>
+        <v>1324.7851080524983</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">'design-values'!F8+NORMINV(RAND(),0,100)</f>
-        <v>1768.9790124586216</v>
+        <v>1771.3969893375356</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f ca="1">'design-values'!A9+RAND()*0.01</f>
-        <v>1.4011709485486836</v>
+        <v>1.401924522690237</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10008.248233143901</v>
+        <v>10007.670360885608</v>
       </c>
       <c r="C9" s="4">
         <f ca="1">'design-values'!C9+NORMINV(RAND(),0,200)</f>
-        <v>3969.3561540024994</v>
+        <v>3899.2352656979779</v>
       </c>
       <c r="D9" s="4">
         <f ca="1">'design-values'!D9+(RAND()*200-100)</f>
-        <v>1009.9946914706472</v>
+        <v>1074.4084535176355</v>
       </c>
       <c r="E9" s="4">
         <f ca="1">'design-values'!E9+(RAND()*300-150)</f>
-        <v>1308.0442975512008</v>
+        <v>1231.3226871390423</v>
       </c>
       <c r="F9" s="4">
         <f ca="1">'design-values'!F9+NORMINV(RAND(),0,100)</f>
-        <v>1829.6931361870732</v>
+        <v>1798.212900924204</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f ca="1">'design-values'!A10+RAND()*0.01</f>
-        <v>1.4546672468842172</v>
+        <v>1.4575930031989033</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.012153210957</v>
+        <v>10008.774552222558</v>
       </c>
       <c r="C10" s="4">
         <f ca="1">'design-values'!C10+NORMINV(RAND(),0,200)</f>
-        <v>4198.0031049664149</v>
+        <v>3998.5346722248432</v>
       </c>
       <c r="D10" s="4">
         <f ca="1">'design-values'!D10+(RAND()*200-100)</f>
-        <v>1005.4394881244056</v>
+        <v>1011.5210056978408</v>
       </c>
       <c r="E10" s="4">
         <f ca="1">'design-values'!E10+(RAND()*300-150)</f>
-        <v>1276.6591855298311</v>
+        <v>1235.8622582035205</v>
       </c>
       <c r="F10" s="4">
         <f ca="1">'design-values'!F10+NORMINV(RAND(),0,100)</f>
-        <v>1874.3594576896583</v>
+        <v>1662.5606792115636</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f ca="1">'design-values'!A11+RAND()*0.01</f>
-        <v>1.5036721009472747</v>
+        <v>1.5058167556392896</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10003.995327751412</v>
+        <v>10009.424723635593</v>
       </c>
       <c r="C11" s="4">
         <f ca="1">'design-values'!C11+NORMINV(RAND(),0,200)</f>
-        <v>4143.3219596972194</v>
+        <v>4032.8513640933625</v>
       </c>
       <c r="D11" s="4">
         <f ca="1">'design-values'!D11+(RAND()*200-100)</f>
-        <v>1091.3181780105506</v>
+        <v>1013.4013283405393</v>
       </c>
       <c r="E11" s="4">
         <f ca="1">'design-values'!E11+(RAND()*300-150)</f>
-        <v>1113.9253910716045</v>
+        <v>1306.9175399631656</v>
       </c>
       <c r="F11" s="4">
         <f ca="1">'design-values'!F11+NORMINV(RAND(),0,100)</f>
-        <v>1787.6121560751449</v>
+        <v>1987.8753857358406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f ca="1">'design-values'!A12+RAND()*0.01</f>
-        <v>1.5519876856996895</v>
+        <v>1.5590748461413337</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10007.821525355876</v>
+        <v>10001.599581313016</v>
       </c>
       <c r="C12" s="4">
         <f ca="1">'design-values'!C12+NORMINV(RAND(),0,200)</f>
-        <v>4209.7248874505904</v>
+        <v>4202.3782428492095</v>
       </c>
       <c r="D12" s="4">
         <f ca="1">'design-values'!D12+(RAND()*200-100)</f>
-        <v>1074.4279118324962</v>
+        <v>1095.5992059654532</v>
       </c>
       <c r="E12" s="4">
         <f ca="1">'design-values'!E12+(RAND()*300-150)</f>
-        <v>1268.8556370022536</v>
+        <v>1029.1664991939551</v>
       </c>
       <c r="F12" s="4">
         <f ca="1">'design-values'!F12+NORMINV(RAND(),0,100)</f>
-        <v>1851.3058746726379</v>
+        <v>1796.7318070426431</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f ca="1">'design-values'!A13+RAND()*0.01</f>
-        <v>1.6093498086728029</v>
+        <v>1.6082964096718932</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10004.455131600211</v>
+        <v>10001.990492754665</v>
       </c>
       <c r="C13" s="4">
         <f ca="1">'design-values'!C13+NORMINV(RAND(),0,200)</f>
-        <v>4071.57170444747</v>
+        <v>4120.4996882703626</v>
       </c>
       <c r="D13" s="4">
         <f ca="1">'design-values'!D13+(RAND()*200-100)</f>
-        <v>1085.4856664114241</v>
+        <v>1131.7492053350861</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">'design-values'!E13+(RAND()*300-150)</f>
-        <v>1247.147176552704</v>
+        <v>1215.6432457992012</v>
       </c>
       <c r="F13" s="4">
         <f ca="1">'design-values'!F13+NORMINV(RAND(),0,100)</f>
-        <v>1719.293053266817</v>
+        <v>1729.9959166163799</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f ca="1">'design-values'!A14+RAND()*0.01</f>
-        <v>1.6523699485715404</v>
+        <v>1.6510800579363214</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.458042252943</v>
+        <v>10006.650744561925</v>
       </c>
       <c r="C14" s="4">
         <f ca="1">'design-values'!C14+NORMINV(RAND(),0,200)</f>
-        <v>4442.4502898185719</v>
+        <v>4375.6524830465496</v>
       </c>
       <c r="D14" s="4">
         <f ca="1">'design-values'!D14+(RAND()*200-100)</f>
-        <v>994.45603072791096</v>
+        <v>1120.0907975468817</v>
       </c>
       <c r="E14" s="4">
         <f ca="1">'design-values'!E14+(RAND()*300-150)</f>
-        <v>1043.7254496775265</v>
+        <v>1166.8920710995214</v>
       </c>
       <c r="F14" s="4">
         <f ca="1">'design-values'!F14+NORMINV(RAND(),0,100)</f>
-        <v>1820.9833234335003</v>
+        <v>1999.012781912709</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f ca="1">'design-values'!A15+RAND()*0.01</f>
-        <v>1.7004706959506171</v>
+        <v>1.7099234994126153</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10006.652195739161</v>
+        <v>10001.749601689646</v>
       </c>
       <c r="C15" s="4">
         <f ca="1">'design-values'!C15+NORMINV(RAND(),0,200)</f>
-        <v>4289.2110160443317</v>
+        <v>4407.3847478586986</v>
       </c>
       <c r="D15" s="4">
         <f ca="1">'design-values'!D15+(RAND()*200-100)</f>
-        <v>992.04031347502109</v>
+        <v>1159.4586484128022</v>
       </c>
       <c r="E15" s="4">
         <f ca="1">'design-values'!E15+(RAND()*300-150)</f>
-        <v>928.53385516797516</v>
+        <v>1160.5872892530426</v>
       </c>
       <c r="F15" s="4">
         <f ca="1">'design-values'!F15+NORMINV(RAND(),0,100)</f>
-        <v>1683.8248969010103</v>
+        <v>1919.4604236319385</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f ca="1">'design-values'!A16+RAND()*0.01</f>
-        <v>1.750185076621805</v>
+        <v>1.7565566282062535</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10000.09932248521</v>
+        <v>10003.801375816547</v>
       </c>
       <c r="C16" s="4">
         <f ca="1">'design-values'!C16+NORMINV(RAND(),0,200)</f>
-        <v>4341.5484578840933</v>
+        <v>4493.8574580386112</v>
       </c>
       <c r="D16" s="4">
         <f ca="1">'design-values'!D16+(RAND()*200-100)</f>
-        <v>1041.9721100416975</v>
+        <v>1098.6478136619733</v>
       </c>
       <c r="E16" s="4">
         <f ca="1">'design-values'!E16+(RAND()*300-150)</f>
-        <v>926.96602151265529</v>
+        <v>1126.4671022545961</v>
       </c>
       <c r="F16" s="4">
         <f ca="1">'design-values'!F16+NORMINV(RAND(),0,100)</f>
-        <v>1903.5158039864584</v>
+        <v>1860.5295381651526</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f ca="1">'design-values'!A17+RAND()*0.01</f>
-        <v>1.800180059323613</v>
+        <v>1.8031676025889536</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10002.349692077381</v>
+        <v>10007.246995241654</v>
       </c>
       <c r="C17" s="4">
         <f ca="1">'design-values'!C17+NORMINV(RAND(),0,200)</f>
-        <v>4313.7556178495142</v>
+        <v>4486.208431966802</v>
       </c>
       <c r="D17" s="4">
         <f ca="1">'design-values'!D17+(RAND()*200-100)</f>
-        <v>1022.2025935876112</v>
+        <v>1026.6558248859917</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">'design-values'!E17+(RAND()*300-150)</f>
-        <v>1106.9956170917944</v>
+        <v>857.03447234128805</v>
       </c>
       <c r="F17" s="4">
         <f ca="1">'design-values'!F17+NORMINV(RAND(),0,100)</f>
-        <v>1895.1895217319072</v>
+        <v>1746.9745117337607</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f ca="1">'design-values'!A18+RAND()*0.01</f>
-        <v>1.8579944644076267</v>
+        <v>1.8521292983435773</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10000.256007581649</v>
+        <v>10000.378322279837</v>
       </c>
       <c r="C18" s="4">
         <f ca="1">'design-values'!C18+NORMINV(RAND(),0,200)</f>
-        <v>4625.8962452289461</v>
+        <v>4469.4726604248644</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">'design-values'!D18+(RAND()*200-100)</f>
-        <v>1019.3239462355024</v>
+        <v>1081.2685672351242</v>
       </c>
       <c r="E18" s="4">
         <f ca="1">'design-values'!E18+(RAND()*300-150)</f>
-        <v>1045.3401533499309</v>
+        <v>1056.9578081263958</v>
       </c>
       <c r="F18" s="4">
         <f ca="1">'design-values'!F18+NORMINV(RAND(),0,100)</f>
-        <v>1805.9413216988667</v>
+        <v>1764.9466015112514</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f ca="1">'design-values'!A19+RAND()*0.01</f>
-        <v>1.9042629010751571</v>
+        <v>1.9098704617576747</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10009.061346402126</v>
+        <v>10004.602985759791</v>
       </c>
       <c r="C19" s="4">
         <f ca="1">'design-values'!C19+NORMINV(RAND(),0,200)</f>
-        <v>4506.8961622618226</v>
+        <v>4593.9135054642356</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">'design-values'!D19+(RAND()*200-100)</f>
-        <v>953.05337950017713</v>
+        <v>1035.2535771248934</v>
       </c>
       <c r="E19" s="4">
         <f ca="1">'design-values'!E19+(RAND()*300-150)</f>
-        <v>989.71058195471517</v>
+        <v>900.47125086085657</v>
       </c>
       <c r="F19" s="4">
         <f ca="1">'design-values'!F19+NORMINV(RAND(),0,100)</f>
-        <v>1703.2647363619508</v>
+        <v>1776.6219759878149</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f ca="1">'design-values'!A20+RAND()*0.01</f>
-        <v>1.9514421255603338</v>
+        <v>1.9528684865920864</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10003.365562065464</v>
+        <v>10003.911342908727</v>
       </c>
       <c r="C20" s="4">
         <f ca="1">'design-values'!C20+NORMINV(RAND(),0,200)</f>
-        <v>4580.2629924589783</v>
+        <v>4657.2404247086088</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">'design-values'!D20+(RAND()*200-100)</f>
-        <v>1025.9638568458072</v>
+        <v>1053.4229295859191</v>
       </c>
       <c r="E20" s="4">
         <f ca="1">'design-values'!E20+(RAND()*300-150)</f>
-        <v>778.83658807934432</v>
+        <v>868.24425102597786</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">'design-values'!F20+NORMINV(RAND(),0,100)</f>
-        <v>1783.2267435035469</v>
+        <v>1709.9292568817104</v>
       </c>
     </row>
   </sheetData>
@@ -10613,31 +10614,31 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">'with-noise'!C2</f>
-        <v>3322.1772259276322</v>
+        <v>3579.3739866128653</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">'design-values'!$C2+NORMINV(RAND(),0,150)</f>
-        <v>3668.2105487003091</v>
+        <v>3434.2987147162034</v>
       </c>
       <c r="E2" s="4">
         <f ca="1">'design-values'!$C2+NORMINV(RAND(),0,200)</f>
-        <v>3729.3065892973236</v>
+        <v>3684.7851083721466</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">'with-noise'!D2</f>
-        <v>1082.354411963001</v>
+        <v>1118.997323450154</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">'with-noise'!E2</f>
-        <v>1615.3405094882012</v>
+        <v>1756.4088201403545</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">'design-values'!$E2+(RAND()*100-50)</f>
-        <v>1709.0078593881383</v>
+        <v>1657.7893150846289</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">'with-noise'!F2</f>
-        <v>2020.5512855231018</v>
+        <v>1921.5649046406595</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10649,31 +10650,31 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,100)</f>
-        <v>3601.303272457244</v>
+        <v>3519.8668797244777</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,150)</f>
-        <v>3809.4730834625316</v>
+        <v>3556.767485711769</v>
       </c>
       <c r="E3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,200)</f>
-        <v>3893.4499281630328</v>
+        <v>3457.6374486609616</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">'with-noise'!D3</f>
-        <v>1143.4375676983104</v>
+        <v>1154.0276571388654</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">'with-noise'!E3</f>
-        <v>1750.357208003373</v>
+        <v>1531.332360125012</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">'design-values'!$E3+(RAND()*100-50)</f>
-        <v>1662.5132218162721</v>
+        <v>1564.0466531019313</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">'with-noise'!F3</f>
-        <v>1944.7623076684531</v>
+        <v>1701.8053245673295</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10685,31 +10686,31 @@
       </c>
       <c r="C4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,100)</f>
-        <v>3710.7889385554745</v>
+        <v>3801.1838906107155</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,150)</f>
-        <v>3695.1117091535443</v>
+        <v>3640.4871341803437</v>
       </c>
       <c r="E4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,200)</f>
-        <v>3472.0349130154473</v>
+        <v>3977.621658556387</v>
       </c>
       <c r="F4" s="4">
         <f ca="1">'with-noise'!D4</f>
-        <v>1024.1279657045218</v>
+        <v>997.18408563514765</v>
       </c>
       <c r="G4" s="4">
         <f ca="1">'with-noise'!E4</f>
-        <v>1413.2088404025433</v>
+        <v>1431.9019991227321</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">'design-values'!$E4+(RAND()*100-50)</f>
-        <v>1543.173000314983</v>
+        <v>1557.1880256798936</v>
       </c>
       <c r="I4" s="4">
         <f ca="1">'with-noise'!F4</f>
-        <v>1870.4704236916987</v>
+        <v>1828.4520410610119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10721,31 +10722,31 @@
       </c>
       <c r="C5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,100)</f>
-        <v>3909.3577425270746</v>
+        <v>3566.3423970174986</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,150)</f>
-        <v>3617.8580244436776</v>
+        <v>3718.7487086610718</v>
       </c>
       <c r="E5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,200)</f>
-        <v>3450.8249467603227</v>
+        <v>3881.2043938245115</v>
       </c>
       <c r="F5" s="4">
         <f ca="1">'with-noise'!D5</f>
-        <v>1071.8971318104009</v>
+        <v>1078.3131257666851</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">'with-noise'!E5</f>
-        <v>1373.419847225143</v>
+        <v>1370.2736592230797</v>
       </c>
       <c r="H5" s="4">
         <f ca="1">'design-values'!$E5+(RAND()*100-50)</f>
-        <v>1515.7547640237678</v>
+        <v>1512.819783254308</v>
       </c>
       <c r="I5" s="4">
         <f ca="1">'with-noise'!F5</f>
-        <v>1805.949381916862</v>
+        <v>1912.8683912666424</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10757,31 +10758,31 @@
       </c>
       <c r="C6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,100)</f>
-        <v>3817.3503675070915</v>
+        <v>3879.953286367966</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,150)</f>
-        <v>4185.5458846487581</v>
+        <v>3700.3894236275369</v>
       </c>
       <c r="E6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,200)</f>
-        <v>3766.5469572212205</v>
+        <v>3563.4999783211847</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">'with-noise'!D6</f>
-        <v>1133.5813873746354</v>
+        <v>1112.0684924848242</v>
       </c>
       <c r="G6" s="4">
         <f ca="1">'with-noise'!E6</f>
-        <v>1565.8803108667755</v>
+        <v>1417.8504182144854</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">'design-values'!$E6+(RAND()*100-50)</f>
-        <v>1399.1273986416068</v>
+        <v>1401.5637653023268</v>
       </c>
       <c r="I6" s="4">
         <f ca="1">'with-noise'!F6</f>
-        <v>1764.2133470351191</v>
+        <v>1810.8457734947997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10793,31 +10794,31 @@
       </c>
       <c r="C7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,100)</f>
-        <v>3847.3766926967</v>
+        <v>3652.9527982786558</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,150)</f>
-        <v>3652.9707488504773</v>
+        <v>4182.253599815368</v>
       </c>
       <c r="E7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,200)</f>
-        <v>3955.9518794913301</v>
+        <v>3576.4523686911025</v>
       </c>
       <c r="F7" s="4">
         <f ca="1">'with-noise'!D7</f>
-        <v>1135.5232442331037</v>
+        <v>1091.6848815991777</v>
       </c>
       <c r="G7" s="4">
         <f ca="1">'with-noise'!E7</f>
-        <v>1348.027590988373</v>
+        <v>1228.8175502124093</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">'design-values'!$E7+(RAND()*100-50)</f>
-        <v>1352.0047416687057</v>
+        <v>1348.549995767054</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">'with-noise'!F7</f>
-        <v>1696.244835942819</v>
+        <v>1882.2843948550233</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10829,31 +10830,31 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,100)</f>
-        <v>3976.3222021358361</v>
+        <v>3661.8729246267135</v>
       </c>
       <c r="D8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,150)</f>
-        <v>3786.1492087922902</v>
+        <v>3697.1913870467611</v>
       </c>
       <c r="E8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,200)</f>
-        <v>3925.1605392113415</v>
+        <v>3864.2768592871125</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">'with-noise'!D8</f>
-        <v>1064.3078977536354</v>
+        <v>1079.1129332881985</v>
       </c>
       <c r="G8" s="4">
         <f ca="1">'with-noise'!E8</f>
-        <v>1383.4247532681716</v>
+        <v>1324.7851080524983</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">'design-values'!$E8+(RAND()*100-50)</f>
-        <v>1336.6844523988368</v>
+        <v>1372.9004383803303</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">'with-noise'!F8</f>
-        <v>1768.9790124586216</v>
+        <v>1771.3969893375356</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10865,31 +10866,31 @@
       </c>
       <c r="C9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,100)</f>
-        <v>3932.4695681822304</v>
+        <v>4172.9141849826847</v>
       </c>
       <c r="D9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,150)</f>
-        <v>3906.0579149000137</v>
+        <v>3972.5857159822717</v>
       </c>
       <c r="E9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,200)</f>
-        <v>3854.506458822892</v>
+        <v>3729.2633521460971</v>
       </c>
       <c r="F9" s="4">
         <f ca="1">'with-noise'!D9</f>
-        <v>1009.9946914706472</v>
+        <v>1074.4084535176355</v>
       </c>
       <c r="G9" s="4">
         <f ca="1">'with-noise'!E9</f>
-        <v>1308.0442975512008</v>
+        <v>1231.3226871390423</v>
       </c>
       <c r="H9" s="4">
         <f ca="1">'design-values'!$E9+(RAND()*100-50)</f>
-        <v>1320.1314980096392</v>
+        <v>1324.1436799768301</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">'with-noise'!F9</f>
-        <v>1829.6931361870732</v>
+        <v>1798.212900924204</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10901,31 +10902,31 @@
       </c>
       <c r="C10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,100)</f>
-        <v>3880.5464051643667</v>
+        <v>4057.1995576635709</v>
       </c>
       <c r="D10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,150)</f>
-        <v>4109.9792836134093</v>
+        <v>3912.73988345005</v>
       </c>
       <c r="E10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,200)</f>
-        <v>4305.9729605072152</v>
+        <v>4588.7793180282151</v>
       </c>
       <c r="F10" s="4">
         <f ca="1">'with-noise'!D10</f>
-        <v>1005.4394881244056</v>
+        <v>1011.5210056978408</v>
       </c>
       <c r="G10" s="4">
         <f ca="1">'with-noise'!E10</f>
-        <v>1276.6591855298311</v>
+        <v>1235.8622582035205</v>
       </c>
       <c r="H10" s="4">
         <f ca="1">'design-values'!$E10+(RAND()*100-50)</f>
-        <v>1242.5026676312727</v>
+        <v>1222.3807141410298</v>
       </c>
       <c r="I10" s="4">
         <f ca="1">'with-noise'!F10</f>
-        <v>1874.3594576896583</v>
+        <v>1662.5606792115636</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10937,31 +10938,31 @@
       </c>
       <c r="C11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,100)</f>
-        <v>4160.3124472654172</v>
+        <v>3940.6238074776734</v>
       </c>
       <c r="D11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,150)</f>
-        <v>3962.4876368542332</v>
+        <v>4006.605234965396</v>
       </c>
       <c r="E11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,200)</f>
-        <v>4023.6551937024633</v>
+        <v>4210.1608468893046</v>
       </c>
       <c r="F11" s="4">
         <f ca="1">'with-noise'!D11</f>
-        <v>1091.3181780105506</v>
+        <v>1013.4013283405393</v>
       </c>
       <c r="G11" s="4">
         <f ca="1">'with-noise'!E11</f>
-        <v>1113.9253910716045</v>
+        <v>1306.9175399631656</v>
       </c>
       <c r="H11" s="4">
         <f ca="1">'design-values'!$E11+(RAND()*100-50)</f>
-        <v>1228.4552995724462</v>
+        <v>1214.2447572587953</v>
       </c>
       <c r="I11" s="4">
         <f ca="1">'with-noise'!F11</f>
-        <v>1787.6121560751449</v>
+        <v>1987.8753857358406</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10973,31 +10974,31 @@
       </c>
       <c r="C12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,100)</f>
-        <v>4137.7549636686472</v>
+        <v>4292.4806449976013</v>
       </c>
       <c r="D12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,150)</f>
-        <v>4131.4842897369408</v>
+        <v>4239.9033976473784</v>
       </c>
       <c r="E12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,200)</f>
-        <v>4061.3399945094266</v>
+        <v>4092.3160091988698</v>
       </c>
       <c r="F12" s="4">
         <f ca="1">'with-noise'!D12</f>
-        <v>1074.4279118324962</v>
+        <v>1095.5992059654532</v>
       </c>
       <c r="G12" s="4">
         <f ca="1">'with-noise'!E12</f>
-        <v>1268.8556370022536</v>
+        <v>1029.1664991939551</v>
       </c>
       <c r="H12" s="4">
         <f ca="1">'design-values'!$E12+(RAND()*100-50)</f>
-        <v>1109.3911208665841</v>
+        <v>1182.9773662056889</v>
       </c>
       <c r="I12" s="4">
         <f ca="1">'with-noise'!F12</f>
-        <v>1851.3058746726379</v>
+        <v>1796.7318070426431</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -11009,31 +11010,31 @@
       </c>
       <c r="C13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,100)</f>
-        <v>4219.2184143694431</v>
+        <v>4254.6885684928247</v>
       </c>
       <c r="D13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,150)</f>
-        <v>4211.7847211477265</v>
+        <v>4201.0506620127417</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,200)</f>
-        <v>4225.6512912409889</v>
+        <v>3854.5066627631713</v>
       </c>
       <c r="F13" s="4">
         <f ca="1">'with-noise'!D13</f>
-        <v>1085.4856664114241</v>
+        <v>1131.7492053350861</v>
       </c>
       <c r="G13" s="4">
         <f ca="1">'with-noise'!E13</f>
-        <v>1247.147176552704</v>
+        <v>1215.6432457992012</v>
       </c>
       <c r="H13" s="4">
         <f ca="1">'design-values'!$E13+(RAND()*100-50)</f>
-        <v>1082.7553266639661</v>
+        <v>1125.0972915437919</v>
       </c>
       <c r="I13" s="4">
         <f ca="1">'with-noise'!F13</f>
-        <v>1719.293053266817</v>
+        <v>1729.9959166163799</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -11045,31 +11046,31 @@
       </c>
       <c r="C14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,100)</f>
-        <v>4179.624846414833</v>
+        <v>4247.5441458770565</v>
       </c>
       <c r="D14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,150)</f>
-        <v>3973.6470296308689</v>
+        <v>4172.5566875656477</v>
       </c>
       <c r="E14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,200)</f>
-        <v>3990.1965516709488</v>
+        <v>4397.9052224782545</v>
       </c>
       <c r="F14" s="4">
         <f ca="1">'with-noise'!D14</f>
-        <v>994.45603072791096</v>
+        <v>1120.0907975468817</v>
       </c>
       <c r="G14" s="4">
         <f ca="1">'with-noise'!E14</f>
-        <v>1043.7254496775265</v>
+        <v>1166.8920710995214</v>
       </c>
       <c r="H14" s="4">
         <f ca="1">'design-values'!$E14+(RAND()*100-50)</f>
-        <v>1120.081487785897</v>
+        <v>1123.2562122164616</v>
       </c>
       <c r="I14" s="4">
         <f ca="1">'with-noise'!F14</f>
-        <v>1820.9833234335003</v>
+        <v>1999.012781912709</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -11081,31 +11082,31 @@
       </c>
       <c r="C15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,100)</f>
-        <v>4260.9168053376789</v>
+        <v>4373.8007926058672</v>
       </c>
       <c r="D15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,150)</f>
-        <v>4045.9833230293511</v>
+        <v>4430.8719613354597</v>
       </c>
       <c r="E15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,200)</f>
-        <v>4452.6903751953523</v>
+        <v>4210.5548173285588</v>
       </c>
       <c r="F15" s="4">
         <f ca="1">'with-noise'!D15</f>
-        <v>992.04031347502109</v>
+        <v>1159.4586484128022</v>
       </c>
       <c r="G15" s="4">
         <f ca="1">'with-noise'!E15</f>
-        <v>928.53385516797516</v>
+        <v>1160.5872892530426</v>
       </c>
       <c r="H15" s="4">
         <f ca="1">'design-values'!$E15+(RAND()*100-50)</f>
-        <v>1039.8707816645408</v>
+        <v>1007.7099857622326</v>
       </c>
       <c r="I15" s="4">
         <f ca="1">'with-noise'!F15</f>
-        <v>1683.8248969010103</v>
+        <v>1919.4604236319385</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -11117,31 +11118,31 @@
       </c>
       <c r="C16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,100)</f>
-        <v>4276.6784238836317</v>
+        <v>4490.9232842778147</v>
       </c>
       <c r="D16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,150)</f>
-        <v>4318.3800651019901</v>
+        <v>4456.0337463869546</v>
       </c>
       <c r="E16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,200)</f>
-        <v>4626.3465254500661</v>
+        <v>4194.9770610276828</v>
       </c>
       <c r="F16" s="4">
         <f ca="1">'with-noise'!D16</f>
-        <v>1041.9721100416975</v>
+        <v>1098.6478136619733</v>
       </c>
       <c r="G16" s="4">
         <f ca="1">'with-noise'!E16</f>
-        <v>926.96602151265529</v>
+        <v>1126.4671022545961</v>
       </c>
       <c r="H16" s="4">
         <f ca="1">'design-values'!$E16+(RAND()*100-50)</f>
-        <v>1057.0537072191476</v>
+        <v>1014.4004400022989</v>
       </c>
       <c r="I16" s="4">
         <f ca="1">'with-noise'!F16</f>
-        <v>1903.5158039864584</v>
+        <v>1860.5295381651526</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -11153,31 +11154,31 @@
       </c>
       <c r="C17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,100)</f>
-        <v>4360.3413741706408</v>
+        <v>4320.2976401702581</v>
       </c>
       <c r="D17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,150)</f>
-        <v>4364.5789764563706</v>
+        <v>4219.4072498255355</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,200)</f>
-        <v>4593.0888527672432</v>
+        <v>4287.981186175838</v>
       </c>
       <c r="F17" s="4">
         <f ca="1">'with-noise'!D17</f>
-        <v>1022.2025935876112</v>
+        <v>1026.6558248859917</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">'with-noise'!E17</f>
-        <v>1106.9956170917944</v>
+        <v>857.03447234128805</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">'design-values'!$E17+(RAND()*100-50)</f>
-        <v>938.57317016748095</v>
+        <v>1003.6599345816012</v>
       </c>
       <c r="I17" s="4">
         <f ca="1">'with-noise'!F17</f>
-        <v>1895.1895217319072</v>
+        <v>1746.9745117337607</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -11189,31 +11190,31 @@
       </c>
       <c r="C18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,100)</f>
-        <v>4338.0879333300909</v>
+        <v>4426.8766718409552</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,150)</f>
-        <v>4587.1248949733108</v>
+        <v>4534.1546640882752</v>
       </c>
       <c r="E18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,200)</f>
-        <v>4317.9734447334422</v>
+        <v>4104.5943631574855</v>
       </c>
       <c r="F18" s="4">
         <f ca="1">'with-noise'!D18</f>
-        <v>1019.3239462355024</v>
+        <v>1081.2685672351242</v>
       </c>
       <c r="G18" s="4">
         <f ca="1">'with-noise'!E18</f>
-        <v>1045.3401533499309</v>
+        <v>1056.9578081263958</v>
       </c>
       <c r="H18" s="4">
         <f ca="1">'design-values'!$E18+(RAND()*100-50)</f>
-        <v>932.18880259380171</v>
+        <v>911.36961754292236</v>
       </c>
       <c r="I18" s="4">
         <f ca="1">'with-noise'!F18</f>
-        <v>1805.9413216988667</v>
+        <v>1764.9466015112514</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -11225,31 +11226,31 @@
       </c>
       <c r="C19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,100)</f>
-        <v>4488.4861512700727</v>
+        <v>4517.4691793955617</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,150)</f>
-        <v>4402.1160707773552</v>
+        <v>4491.6709039868447</v>
       </c>
       <c r="E19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,200)</f>
-        <v>4580.5935327339348</v>
+        <v>4421.4589137096355</v>
       </c>
       <c r="F19" s="4">
         <f ca="1">'with-noise'!D19</f>
-        <v>953.05337950017713</v>
+        <v>1035.2535771248934</v>
       </c>
       <c r="G19" s="4">
         <f ca="1">'with-noise'!E19</f>
-        <v>989.71058195471517</v>
+        <v>900.47125086085657</v>
       </c>
       <c r="H19" s="4">
         <f ca="1">'design-values'!$E19+(RAND()*100-50)</f>
-        <v>895.52472984879751</v>
+        <v>939.00238846951947</v>
       </c>
       <c r="I19" s="4">
         <f ca="1">'with-noise'!F19</f>
-        <v>1703.2647363619508</v>
+        <v>1776.6219759878149</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -11261,31 +11262,31 @@
       </c>
       <c r="C20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,100)</f>
-        <v>4492.5992185346495</v>
+        <v>4591.7966595477747</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,150)</f>
-        <v>4745.9233960428583</v>
+        <v>4428.305847632033</v>
       </c>
       <c r="E20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,200)</f>
-        <v>4532.8712818013801</v>
+        <v>4499.5916767878043</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">'with-noise'!D20</f>
-        <v>1025.9638568458072</v>
+        <v>1053.4229295859191</v>
       </c>
       <c r="G20" s="4">
         <f ca="1">'with-noise'!E20</f>
-        <v>778.83658807934432</v>
+        <v>868.24425102597786</v>
       </c>
       <c r="H20" s="4">
         <f ca="1">'design-values'!$E20+(RAND()*100-50)</f>
-        <v>915.23874216764318</v>
+        <v>903.08715940078434</v>
       </c>
       <c r="I20" s="4">
         <f ca="1">'with-noise'!F20</f>
-        <v>1783.2267435035469</v>
+        <v>1709.9292568817104</v>
       </c>
     </row>
   </sheetData>
@@ -11349,19 +11350,19 @@
       </c>
       <c r="E2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3659.7914222937652</v>
+        <v>3530.2886026479869</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1106.6173831867818</v>
+        <v>1177.2997064714755</v>
       </c>
       <c r="G2" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1524.7972443073536</v>
+        <v>1569.3119102659978</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1927.2916386128054</v>
+        <v>1753.7935932309181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11380,19 +11381,19 @@
       </c>
       <c r="E3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3470.3359882112222</v>
+        <v>3550.2866092924692</v>
       </c>
       <c r="F3" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1130.1795999743729</v>
+        <v>1016.6087105414033</v>
       </c>
       <c r="G3" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1474.6148907594995</v>
+        <v>1729.4480082419109</v>
       </c>
       <c r="H3" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1944.6086129661969</v>
+        <v>1943.0145128968254</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11411,19 +11412,19 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3399.8906379207992</v>
+        <v>3638.2552464281348</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>962.98470572191991</v>
+        <v>1076.8594062506304</v>
       </c>
       <c r="G4" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1618.8794980113107</v>
+        <v>1641.7276923275131</v>
       </c>
       <c r="H4" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1799.2583384668292</v>
+        <v>1786.510476112232</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11442,19 +11443,19 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3603.9701337309607</v>
+        <v>3480.4066155921537</v>
       </c>
       <c r="F5" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1157.6623646284568</v>
+        <v>1095.5552036775946</v>
       </c>
       <c r="G5" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1590.7514431050354</v>
+        <v>1698.2959540462055</v>
       </c>
       <c r="H5" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1739.3383690271273</v>
+        <v>1825.9119724954849</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11473,19 +11474,19 @@
       </c>
       <c r="E6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3548.1958451714413</v>
+        <v>3406.9352539533811</v>
       </c>
       <c r="F6" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1103.9080775607122</v>
+        <v>1050.530850611919</v>
       </c>
       <c r="G6" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1644.8039775383261</v>
+        <v>1649.9742233987843</v>
       </c>
       <c r="H6" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>2002.7199842369746</v>
+        <v>1896.8078077197679</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11504,19 +11505,19 @@
       </c>
       <c r="E7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3590.0177171823339</v>
+        <v>3539.3497771270463</v>
       </c>
       <c r="F7" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1166.1583616862151</v>
+        <v>1229.5455699121746</v>
       </c>
       <c r="G7" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1595.621934043528</v>
+        <v>1693.3130402936381</v>
       </c>
       <c r="H7" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1846.310645160022</v>
+        <v>1812.0212304551321</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11535,19 +11536,19 @@
       </c>
       <c r="E8" s="8">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3668.6397151371448</v>
+        <v>3559.48145944934</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1078.6130560028114</v>
+        <v>1018.8200151308645</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1665.5367298266769</v>
+        <v>1572.5209251750971</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1842.3873525819479</v>
+        <v>1910.2823933435243</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11566,19 +11567,19 @@
       </c>
       <c r="E9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4082.9400631949748</v>
+        <v>4234.6286410295888</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1035.2208207525487</v>
+        <v>1089.8649857207301</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1265.3277016881366</v>
+        <v>1260.2678876936718</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1813.5289465382109</v>
+        <v>1792.1752181276136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11597,19 +11598,19 @@
       </c>
       <c r="E10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4126.4730174230908</v>
+        <v>4001.739132011638</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1042.3721810359177</v>
+        <v>1059.7198793333973</v>
       </c>
       <c r="G10" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1553.0417597021885</v>
+        <v>1042.8871248139296</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1952.2445677893761</v>
+        <v>1792.876034351312</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11628,19 +11629,19 @@
       </c>
       <c r="E11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4169.0368002420892</v>
+        <v>4071.3839939962691</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1001.3504821264002</v>
+        <v>1017.9797691205766</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1446.1511998607425</v>
+        <v>1258.1610975381491</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1810.9442030003795</v>
+        <v>1702.7447904744129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11659,19 +11660,19 @@
       </c>
       <c r="E12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4015.7011163647626</v>
+        <v>4033.7901604102226</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>950.4383388281467</v>
+        <v>1062.5705392109958</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1085.1400012926845</v>
+        <v>1331.7708090749536</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1866.3867698536278</v>
+        <v>1938.0628953519756</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,19 +11691,19 @@
       </c>
       <c r="E13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>3911.4129175821176</v>
+        <v>3995.0217641215859</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1287.7525242854774</v>
+        <v>1088.5320552096357</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1145.6735720255504</v>
+        <v>1339.2468556129309</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1840.6329625301257</v>
+        <v>2107.9188209967842</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11721,19 +11722,19 @@
       </c>
       <c r="E14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4040.3480494934229</v>
+        <v>3912.2933642437501</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1260.5629745464989</v>
+        <v>1193.7802814878978</v>
       </c>
       <c r="G14" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1119.4630474324417</v>
+        <v>1114.6711946156406</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1897.9754342165866</v>
+        <v>1999.8036393375912</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11752,19 +11753,19 @@
       </c>
       <c r="E15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4433.3613754090966</v>
+        <v>4321.429446121454</v>
       </c>
       <c r="F15" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>990.7499034819507</v>
+        <v>950.94595652362261</v>
       </c>
       <c r="G15" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>925.08587234806544</v>
+        <v>937.94084502535145</v>
       </c>
       <c r="H15" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1747.11197069833</v>
+        <v>1818.8612158555622</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11783,19 +11784,19 @@
       </c>
       <c r="E16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4480.2362150898525</v>
+        <v>4373.3847310680221</v>
       </c>
       <c r="F16" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1049.908955238006</v>
+        <v>1010.6132745721038</v>
       </c>
       <c r="G16" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>823.55885582525457</v>
+        <v>906.58996111167221</v>
       </c>
       <c r="H16" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1619.8168044116981</v>
+        <v>1640.3131931174175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11814,19 +11815,19 @@
       </c>
       <c r="E17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4576.2969260519703</v>
+        <v>4377.3454809906134</v>
       </c>
       <c r="F17" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1015.6885151946844</v>
+        <v>997.34581104154802</v>
       </c>
       <c r="G17" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>978.59460887058458</v>
+        <v>789.34385034671777</v>
       </c>
       <c r="H17" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1780.0327143694337</v>
+        <v>1885.8369093599149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11845,19 +11846,19 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4478.7816768551957</v>
+        <v>4375.2528553501024</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1069.5636155806567</v>
+        <v>1045.4796030868208</v>
       </c>
       <c r="G18" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>996.56727982278767</v>
+        <v>988.26629550033113</v>
       </c>
       <c r="H18" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1708.9021694072144</v>
+        <v>1932.4345847071106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11876,19 +11877,19 @@
       </c>
       <c r="E19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4239.1932346544063</v>
+        <v>4512.7122409331214</v>
       </c>
       <c r="F19" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1076.1859430860957</v>
+        <v>1269.713448497655</v>
       </c>
       <c r="G19" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>1125.3552152583629</v>
+        <v>1017.6617849849383</v>
       </c>
       <c r="H19" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1838.4717778804954</v>
+        <v>1753.527339093469</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11907,19 +11908,19 @@
       </c>
       <c r="E20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4478.3548821519826</v>
+        <v>4517.946840240138</v>
       </c>
       <c r="F20" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1029.6596125040451</v>
+        <v>1180.9918214098093</v>
       </c>
       <c r="G20" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>847.31392558223956</v>
+        <v>1031.2602856929766</v>
       </c>
       <c r="H20" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1638.4731027071061</v>
+        <v>1694.3297571066835</v>
       </c>
     </row>
   </sheetData>
@@ -11932,8 +11933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9FF94D-2E43-4370-9733-20F3F0192A22}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11992,31 +11993,31 @@
       </c>
       <c r="E2" s="7">
         <f ca="1">timeseries!E2</f>
-        <v>3659.7914222937652</v>
+        <v>3530.2886026479869</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3458.5007941031354</v>
+        <v>3670.5980665946299</v>
       </c>
       <c r="G2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3192.0182444624079</v>
+        <v>3680.2921961696034</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">timeseries!F2</f>
-        <v>1106.6173831867818</v>
+        <v>1177.2997064714755</v>
       </c>
       <c r="I2" s="7">
         <f ca="1">timeseries!G2</f>
-        <v>1524.7972443073536</v>
+        <v>1569.3119102659978</v>
       </c>
       <c r="J2" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1561.8370057550151</v>
+        <v>1416.5377370203444</v>
       </c>
       <c r="K2" s="7">
         <f ca="1">timeseries!H2</f>
-        <v>1927.2916386128054</v>
+        <v>1753.7935932309181</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12035,31 +12036,31 @@
       </c>
       <c r="E3" s="7">
         <f ca="1">timeseries!E3</f>
-        <v>3470.3359882112222</v>
+        <v>3550.2866092924692</v>
       </c>
       <c r="F3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3368.0166846189522</v>
+        <v>3587.8748436588417</v>
       </c>
       <c r="G3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3364.8784174221973</v>
+        <v>3369.8753272514368</v>
       </c>
       <c r="H3" s="7">
         <f ca="1">timeseries!F3</f>
-        <v>1130.1795999743729</v>
+        <v>1016.6087105414033</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">timeseries!G3</f>
-        <v>1474.6148907594995</v>
+        <v>1729.4480082419109</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1517.5266973206708</v>
+        <v>1493.799967602597</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">timeseries!H3</f>
-        <v>1944.6086129661969</v>
+        <v>1943.0145128968254</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12078,31 +12079,31 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">timeseries!E4</f>
-        <v>3399.8906379207992</v>
+        <v>3638.2552464281348</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3602.2852636361986</v>
+        <v>3608.1119715176774</v>
       </c>
       <c r="G4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3473.2232190689497</v>
+        <v>3570.347495354456</v>
       </c>
       <c r="H4" s="7">
         <f ca="1">timeseries!F4</f>
-        <v>962.98470572191991</v>
+        <v>1076.8594062506304</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">timeseries!G4</f>
-        <v>1618.8794980113107</v>
+        <v>1641.7276923275131</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1581.1010701537682</v>
+        <v>1395.9314635106205</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">timeseries!H4</f>
-        <v>1799.2583384668292</v>
+        <v>1786.510476112232</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12121,31 +12122,31 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">timeseries!E5</f>
-        <v>3603.9701337309607</v>
+        <v>3480.4066155921537</v>
       </c>
       <c r="F5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3420.936605784158</v>
+        <v>3578.8950934856507</v>
       </c>
       <c r="G5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3790.9646295283414</v>
+        <v>3402.8773020176804</v>
       </c>
       <c r="H5" s="7">
         <f ca="1">timeseries!F5</f>
-        <v>1157.6623646284568</v>
+        <v>1095.5552036775946</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">timeseries!G5</f>
-        <v>1590.7514431050354</v>
+        <v>1698.2959540462055</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1700.5239747465996</v>
+        <v>1553.4618184346532</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">timeseries!H5</f>
-        <v>1739.3383690271273</v>
+        <v>1825.9119724954849</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12164,31 +12165,31 @@
       </c>
       <c r="E6" s="7">
         <f ca="1">timeseries!E6</f>
-        <v>3548.1958451714413</v>
+        <v>3406.9352539533811</v>
       </c>
       <c r="F6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3541.848564497649</v>
+        <v>3424.068366643141</v>
       </c>
       <c r="G6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3350.4969479267747</v>
+        <v>3579.1927548337635</v>
       </c>
       <c r="H6" s="7">
         <f ca="1">timeseries!F6</f>
-        <v>1103.9080775607122</v>
+        <v>1050.530850611919</v>
       </c>
       <c r="I6" s="7">
         <f ca="1">timeseries!G6</f>
-        <v>1644.8039775383261</v>
+        <v>1649.9742233987843</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1499.266506584702</v>
+        <v>1679.8014747452901</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">timeseries!H6</f>
-        <v>2002.7199842369746</v>
+        <v>1896.8078077197679</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12207,31 +12208,31 @@
       </c>
       <c r="E7" s="7">
         <f ca="1">timeseries!E7</f>
-        <v>3590.0177171823339</v>
+        <v>3539.3497771270463</v>
       </c>
       <c r="F7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3735.1460165228059</v>
+        <v>3567.9850802031538</v>
       </c>
       <c r="G7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3433.9048737739986</v>
+        <v>3662.482216140751</v>
       </c>
       <c r="H7" s="7">
         <f ca="1">timeseries!F7</f>
-        <v>1166.1583616862151</v>
+        <v>1229.5455699121746</v>
       </c>
       <c r="I7" s="7">
         <f ca="1">timeseries!G7</f>
-        <v>1595.621934043528</v>
+        <v>1693.3130402936381</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1692.0676303459975</v>
+        <v>1597.5170662574837</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">timeseries!H7</f>
-        <v>1846.310645160022</v>
+        <v>1812.0212304551321</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12250,31 +12251,31 @@
       </c>
       <c r="E8" s="8">
         <f ca="1">timeseries!E8</f>
-        <v>3668.6397151371448</v>
+        <v>3559.48145944934</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>4099.74968214006</v>
+        <v>4046.0091003883526</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4134.2609509009408</v>
+        <v>4216.7171790015145</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">timeseries!F8</f>
-        <v>1078.6130560028114</v>
+        <v>1018.8200151308645</v>
       </c>
       <c r="I8" s="8">
         <f ca="1">timeseries!G8</f>
-        <v>1665.5367298266769</v>
+        <v>1572.5209251750971</v>
       </c>
       <c r="J8" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1063.6873384815781</v>
+        <v>1324.5976970409658</v>
       </c>
       <c r="K8" s="8">
         <f ca="1">timeseries!H8</f>
-        <v>1842.3873525819479</v>
+        <v>1910.2823933435243</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12293,31 +12294,31 @@
       </c>
       <c r="E9" s="8">
         <f ca="1">timeseries!E9</f>
-        <v>4082.9400631949748</v>
+        <v>4234.6286410295888</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>4068.0689930882104</v>
+        <v>3971.7635780960859</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4171.5009677537073</v>
+        <v>4020.6276642932971</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">timeseries!F9</f>
-        <v>1035.2208207525487</v>
+        <v>1089.8649857207301</v>
       </c>
       <c r="I9" s="8">
         <f ca="1">timeseries!G9</f>
-        <v>1265.3277016881366</v>
+        <v>1260.2678876936718</v>
       </c>
       <c r="J9" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1263.5698130536271</v>
+        <v>1415.5137239126523</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">timeseries!H9</f>
-        <v>1813.5289465382109</v>
+        <v>1792.1752181276136</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12336,31 +12337,31 @@
       </c>
       <c r="E10" s="8">
         <f ca="1">timeseries!E10</f>
-        <v>4126.4730174230908</v>
+        <v>4001.739132011638</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3974.1951224527375</v>
+        <v>4154.3433819660759</v>
       </c>
       <c r="G10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4169.5967643057893</v>
+        <v>4013.0129937943666</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">timeseries!F10</f>
-        <v>1042.3721810359177</v>
+        <v>1059.7198793333973</v>
       </c>
       <c r="I10" s="8">
         <f ca="1">timeseries!G10</f>
-        <v>1553.0417597021885</v>
+        <v>1042.8871248139296</v>
       </c>
       <c r="J10" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1561.0821377231023</v>
+        <v>1201.5486469238056</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">timeseries!H10</f>
-        <v>1952.2445677893761</v>
+        <v>1792.876034351312</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12379,31 +12380,31 @@
       </c>
       <c r="E11" s="8">
         <f ca="1">timeseries!E11</f>
-        <v>4169.0368002420892</v>
+        <v>4071.3839939962691</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3928.5456569809621</v>
+        <v>4361.6324656854094</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4359.1054858871275</v>
+        <v>3980.9934465782426</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">timeseries!F11</f>
-        <v>1001.3504821264002</v>
+        <v>1017.9797691205766</v>
       </c>
       <c r="I11" s="8">
         <f ca="1">timeseries!G11</f>
-        <v>1446.1511998607425</v>
+        <v>1258.1610975381491</v>
       </c>
       <c r="J11" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1439.9718937706234</v>
+        <v>1145.7646611183832</v>
       </c>
       <c r="K11" s="8">
         <f ca="1">timeseries!H11</f>
-        <v>1810.9442030003795</v>
+        <v>1702.7447904744129</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12422,31 +12423,31 @@
       </c>
       <c r="E12" s="8">
         <f ca="1">timeseries!E12</f>
-        <v>4015.7011163647626</v>
+        <v>4033.7901604102226</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3924.7758011637002</v>
+        <v>3817.0761545790269</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>3937.7054380606628</v>
+        <v>4177.8294057114263</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">timeseries!F12</f>
-        <v>950.4383388281467</v>
+        <v>1062.5705392109958</v>
       </c>
       <c r="I12" s="8">
         <f ca="1">timeseries!G12</f>
-        <v>1085.1400012926845</v>
+        <v>1331.7708090749536</v>
       </c>
       <c r="J12" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1100.8476189919925</v>
+        <v>1405.9854560592562</v>
       </c>
       <c r="K12" s="8">
         <f ca="1">timeseries!H12</f>
-        <v>1866.3867698536278</v>
+        <v>1938.0628953519756</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12465,31 +12466,31 @@
       </c>
       <c r="E13" s="8">
         <f ca="1">timeseries!E13</f>
-        <v>3911.4129175821176</v>
+        <v>3995.0217641215859</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3823.4579214895398</v>
+        <v>3998.2967635343307</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>3902.5316287482115</v>
+        <v>4165.3137010280498</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">timeseries!F13</f>
-        <v>1287.7525242854774</v>
+        <v>1088.5320552096357</v>
       </c>
       <c r="I13" s="8">
         <f ca="1">timeseries!G13</f>
-        <v>1145.6735720255504</v>
+        <v>1339.2468556129309</v>
       </c>
       <c r="J13" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1651.0962763354594</v>
+        <v>1205.0020034971408</v>
       </c>
       <c r="K13" s="8">
         <f ca="1">timeseries!H13</f>
-        <v>1840.6329625301257</v>
+        <v>2107.9188209967842</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12508,31 +12509,31 @@
       </c>
       <c r="E14" s="8">
         <f ca="1">timeseries!E14</f>
-        <v>4040.3480494934229</v>
+        <v>3912.2933642437501</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3780.7996839321363</v>
+        <v>3803.5879194054228</v>
       </c>
       <c r="G14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>3949.8432378170023</v>
+        <v>3757.733011019096</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">timeseries!F14</f>
-        <v>1260.5629745464989</v>
+        <v>1193.7802814878978</v>
       </c>
       <c r="I14" s="8">
         <f ca="1">timeseries!G14</f>
-        <v>1119.4630474324417</v>
+        <v>1114.6711946156406</v>
       </c>
       <c r="J14" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>974.44294330803086</v>
+        <v>1148.3303303946245</v>
       </c>
       <c r="K14" s="8">
         <f ca="1">timeseries!H14</f>
-        <v>1897.9754342165866</v>
+        <v>1999.8036393375912</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12551,31 +12552,31 @@
       </c>
       <c r="E15" s="9">
         <f ca="1">timeseries!E15</f>
-        <v>4433.3613754090966</v>
+        <v>4321.429446121454</v>
       </c>
       <c r="F15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4511.9420258668579</v>
+        <v>4439.9890703077317</v>
       </c>
       <c r="G15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4794.1613084266519</v>
+        <v>4561.2405038167326</v>
       </c>
       <c r="H15" s="9">
         <f ca="1">timeseries!F15</f>
-        <v>990.7499034819507</v>
+        <v>950.94595652362261</v>
       </c>
       <c r="I15" s="9">
         <f ca="1">timeseries!G15</f>
-        <v>925.08587234806544</v>
+        <v>937.94084502535145</v>
       </c>
       <c r="J15" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>1155.0604527766809</v>
+        <v>700.54445345677516</v>
       </c>
       <c r="K15" s="9">
         <f ca="1">timeseries!H15</f>
-        <v>1747.11197069833</v>
+        <v>1818.8612158555622</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12594,31 +12595,31 @@
       </c>
       <c r="E16" s="9">
         <f ca="1">timeseries!E16</f>
-        <v>4480.2362150898525</v>
+        <v>4373.3847310680221</v>
       </c>
       <c r="F16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4624.8111562591257</v>
+        <v>4618.9676423311175</v>
       </c>
       <c r="G16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4328.1550741432202</v>
+        <v>4640.0158851385268</v>
       </c>
       <c r="H16" s="9">
         <f ca="1">timeseries!F16</f>
-        <v>1049.908955238006</v>
+        <v>1010.6132745721038</v>
       </c>
       <c r="I16" s="9">
         <f ca="1">timeseries!G16</f>
-        <v>823.55885582525457</v>
+        <v>906.58996111167221</v>
       </c>
       <c r="J16" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>1032.3535053632972</v>
+        <v>980.52734182724464</v>
       </c>
       <c r="K16" s="9">
         <f ca="1">timeseries!H16</f>
-        <v>1619.8168044116981</v>
+        <v>1640.3131931174175</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -12637,31 +12638,31 @@
       </c>
       <c r="E17" s="9">
         <f ca="1">timeseries!E17</f>
-        <v>4576.2969260519703</v>
+        <v>4377.3454809906134</v>
       </c>
       <c r="F17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4583.868057477237</v>
+        <v>4331.2709449665117</v>
       </c>
       <c r="G17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4711.9647523056192</v>
+        <v>4786.0019900990937</v>
       </c>
       <c r="H17" s="9">
         <f ca="1">timeseries!F17</f>
-        <v>1015.6885151946844</v>
+        <v>997.34581104154802</v>
       </c>
       <c r="I17" s="9">
         <f ca="1">timeseries!G17</f>
-        <v>978.59460887058458</v>
+        <v>789.34385034671777</v>
       </c>
       <c r="J17" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>868.36914325309692</v>
+        <v>721.97258930622388</v>
       </c>
       <c r="K17" s="9">
         <f ca="1">timeseries!H17</f>
-        <v>1780.0327143694337</v>
+        <v>1885.8369093599149</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -12680,31 +12681,31 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">timeseries!E18</f>
-        <v>4478.7816768551957</v>
+        <v>4375.2528553501024</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4483.9714452494145</v>
+        <v>4109.975375089256</v>
       </c>
       <c r="G18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4391.5800083345803</v>
+        <v>4432.4744567061489</v>
       </c>
       <c r="H18" s="9">
         <f ca="1">timeseries!F18</f>
-        <v>1069.5636155806567</v>
+        <v>1045.4796030868208</v>
       </c>
       <c r="I18" s="9">
         <f ca="1">timeseries!G18</f>
-        <v>996.56727982278767</v>
+        <v>988.26629550033113</v>
       </c>
       <c r="J18" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>1061.0909537895316</v>
+        <v>964.20468106333828</v>
       </c>
       <c r="K18" s="9">
         <f ca="1">timeseries!H18</f>
-        <v>1708.9021694072144</v>
+        <v>1932.4345847071106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -12723,31 +12724,31 @@
       </c>
       <c r="E19" s="9">
         <f ca="1">timeseries!E19</f>
-        <v>4239.1932346544063</v>
+        <v>4512.7122409331214</v>
       </c>
       <c r="F19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4318.6849777377402</v>
+        <v>4343.4395979225583</v>
       </c>
       <c r="G19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4604.07253218194</v>
+        <v>4345.5038038553585</v>
       </c>
       <c r="H19" s="9">
         <f ca="1">timeseries!F19</f>
-        <v>1076.1859430860957</v>
+        <v>1269.713448497655</v>
       </c>
       <c r="I19" s="9">
         <f ca="1">timeseries!G19</f>
-        <v>1125.3552152583629</v>
+        <v>1017.6617849849383</v>
       </c>
       <c r="J19" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>939.5949030797583</v>
+        <v>842.70019851786583</v>
       </c>
       <c r="K19" s="9">
         <f ca="1">timeseries!H19</f>
-        <v>1838.4717778804954</v>
+        <v>1753.527339093469</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -12766,31 +12767,31 @@
       </c>
       <c r="E20" s="9">
         <f ca="1">timeseries!E20</f>
-        <v>4478.3548821519826</v>
+        <v>4517.946840240138</v>
       </c>
       <c r="F20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4381.4788467254266</v>
+        <v>4690.3566546397487</v>
       </c>
       <c r="G20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4633.1606630524011</v>
+        <v>4268.9796176888158</v>
       </c>
       <c r="H20" s="9">
         <f ca="1">timeseries!F20</f>
-        <v>1029.6596125040451</v>
+        <v>1180.9918214098093</v>
       </c>
       <c r="I20" s="9">
         <f ca="1">timeseries!G20</f>
-        <v>847.31392558223956</v>
+        <v>1031.2602856929766</v>
       </c>
       <c r="J20" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>881.84023453697068</v>
+        <v>859.88370296009543</v>
       </c>
       <c r="K20" s="9">
         <f ca="1">timeseries!H20</f>
-        <v>1638.4731027071061</v>
+        <v>1694.3297571066835</v>
       </c>
     </row>
   </sheetData>

--- a/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
+++ b/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kaklise\src\Pyomo\pyomo\pyomo\contrib\parmest\examples\reactor_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75AD1F6A-0151-499E-A6B2-C0DFA5AFA1F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F89182D1-6625-415B-A6B0-0B9B1BBCDEBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F4583B33-02F6-4597-8CFF-96E722889F82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{F4583B33-02F6-4597-8CFF-96E722889F82}"/>
   </bookViews>
   <sheets>
     <sheet name="design-values" sheetId="1" r:id="rId1"/>
@@ -1146,61 +1146,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0571902089786094</c:v>
+                  <c:v>1.0551112090396357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1083808875645038</c:v>
+                  <c:v>1.1061537577639022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1597251336567553</c:v>
+                  <c:v>1.1598602458772347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2093323440558059</c:v>
+                  <c:v>1.2020311739774667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2572121088192627</c:v>
+                  <c:v>1.25902761480098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3093315132919989</c:v>
+                  <c:v>1.3058880944404849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3590775792971943</c:v>
+                  <c:v>1.3540545476995742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.401924522690237</c:v>
+                  <c:v>1.4061954359382427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4575930031989033</c:v>
+                  <c:v>1.4535191117003106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5058167556392896</c:v>
+                  <c:v>1.5052025425537063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5590748461413337</c:v>
+                  <c:v>1.5544585502935984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6082964096718932</c:v>
+                  <c:v>1.6010333764534315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6510800579363214</c:v>
+                  <c:v>1.6526531168071461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7099234994126153</c:v>
+                  <c:v>1.7041724309171764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7565566282062535</c:v>
+                  <c:v>1.7513017230718211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8031676025889536</c:v>
+                  <c:v>1.8065259132171341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8521292983435773</c:v>
+                  <c:v>1.850702326589986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9098704617576747</c:v>
+                  <c:v>1.9075358893126482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9528684865920864</c:v>
+                  <c:v>1.9551753570651742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,61 +1212,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3579.3739866128653</c:v>
+                  <c:v>3516.7940520394077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3758.7640752655329</c:v>
+                  <c:v>3318.9403185616839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3335.8511734323515</c:v>
+                  <c:v>3790.1015891962934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3435.4265669415845</c:v>
+                  <c:v>3647.6472900520994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4122.3892311615</c:v>
+                  <c:v>3937.6759772824416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3718.0554554381361</c:v>
+                  <c:v>3744.354620973048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3747.1462833955752</c:v>
+                  <c:v>3881.7166438459585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3899.2352656979779</c:v>
+                  <c:v>3897.4931013690743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3998.5346722248432</c:v>
+                  <c:v>4131.131337007926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4032.8513640933625</c:v>
+                  <c:v>4159.1129843006838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4202.3782428492095</c:v>
+                  <c:v>4282.0800814142522</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4120.4996882703626</c:v>
+                  <c:v>4167.2885687603011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4375.6524830465496</c:v>
+                  <c:v>4052.0573734783607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4407.3847478586986</c:v>
+                  <c:v>4523.8333951141503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4493.8574580386112</c:v>
+                  <c:v>4721.6260161465398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4486.208431966802</c:v>
+                  <c:v>4204.5404859478713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4469.4726604248644</c:v>
+                  <c:v>4577.3556140476539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4593.9135054642356</c:v>
+                  <c:v>4475.2332459378586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4657.2404247086088</c:v>
+                  <c:v>4575.7466986280224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,61 +1311,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0571902089786094</c:v>
+                  <c:v>1.0551112090396357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1083808875645038</c:v>
+                  <c:v>1.1061537577639022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1597251336567553</c:v>
+                  <c:v>1.1598602458772347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2093323440558059</c:v>
+                  <c:v>1.2020311739774667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2572121088192627</c:v>
+                  <c:v>1.25902761480098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3093315132919989</c:v>
+                  <c:v>1.3058880944404849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3590775792971943</c:v>
+                  <c:v>1.3540545476995742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.401924522690237</c:v>
+                  <c:v>1.4061954359382427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4575930031989033</c:v>
+                  <c:v>1.4535191117003106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5058167556392896</c:v>
+                  <c:v>1.5052025425537063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5590748461413337</c:v>
+                  <c:v>1.5544585502935984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6082964096718932</c:v>
+                  <c:v>1.6010333764534315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6510800579363214</c:v>
+                  <c:v>1.6526531168071461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7099234994126153</c:v>
+                  <c:v>1.7041724309171764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7565566282062535</c:v>
+                  <c:v>1.7513017230718211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8031676025889536</c:v>
+                  <c:v>1.8065259132171341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8521292983435773</c:v>
+                  <c:v>1.850702326589986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9098704617576747</c:v>
+                  <c:v>1.9075358893126482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9528684865920864</c:v>
+                  <c:v>1.9551753570651742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,61 +1377,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1118.997323450154</c:v>
+                  <c:v>1070.9186819018421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1154.0276571388654</c:v>
+                  <c:v>1006.9447025661661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>997.18408563514765</c:v>
+                  <c:v>984.54962058572232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1078.3131257666851</c:v>
+                  <c:v>1114.4102464096568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1112.0684924848242</c:v>
+                  <c:v>982.73912828933658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1091.6848815991777</c:v>
+                  <c:v>1171.0865106392455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1079.1129332881985</c:v>
+                  <c:v>1093.1210486533178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1074.4084535176355</c:v>
+                  <c:v>1015.9363607246504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1011.5210056978408</c:v>
+                  <c:v>1096.1212459475655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1013.4013283405393</c:v>
+                  <c:v>1142.4382836168506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1095.5992059654532</c:v>
+                  <c:v>1022.788416033508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1131.7492053350861</c:v>
+                  <c:v>1127.266216841587</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1120.0907975468817</c:v>
+                  <c:v>1107.4379794401013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1159.4586484128022</c:v>
+                  <c:v>1145.823177104236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1098.6478136619733</c:v>
+                  <c:v>1112.85941825182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1026.6558248859917</c:v>
+                  <c:v>1058.2029271276936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1081.2685672351242</c:v>
+                  <c:v>1050.9437356753742</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1035.2535771248934</c:v>
+                  <c:v>1084.2956530416136</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1053.4229295859191</c:v>
+                  <c:v>992.6699607628866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,61 +1476,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0571902089786094</c:v>
+                  <c:v>1.0551112090396357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1083808875645038</c:v>
+                  <c:v>1.1061537577639022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1597251336567553</c:v>
+                  <c:v>1.1598602458772347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2093323440558059</c:v>
+                  <c:v>1.2020311739774667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2572121088192627</c:v>
+                  <c:v>1.25902761480098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3093315132919989</c:v>
+                  <c:v>1.3058880944404849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3590775792971943</c:v>
+                  <c:v>1.3540545476995742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.401924522690237</c:v>
+                  <c:v>1.4061954359382427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4575930031989033</c:v>
+                  <c:v>1.4535191117003106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5058167556392896</c:v>
+                  <c:v>1.5052025425537063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5590748461413337</c:v>
+                  <c:v>1.5544585502935984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6082964096718932</c:v>
+                  <c:v>1.6010333764534315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6510800579363214</c:v>
+                  <c:v>1.6526531168071461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7099234994126153</c:v>
+                  <c:v>1.7041724309171764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7565566282062535</c:v>
+                  <c:v>1.7513017230718211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8031676025889536</c:v>
+                  <c:v>1.8065259132171341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8521292983435773</c:v>
+                  <c:v>1.850702326589986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9098704617576747</c:v>
+                  <c:v>1.9075358893126482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9528684865920864</c:v>
+                  <c:v>1.9551753570651742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,61 +1542,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1756.4088201403545</c:v>
+                  <c:v>1761.838150288052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1531.332360125012</c:v>
+                  <c:v>1489.2089439809401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1431.9019991227321</c:v>
+                  <c:v>1540.5318978233456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1370.2736592230797</c:v>
+                  <c:v>1339.4408675123832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1417.8504182144854</c:v>
+                  <c:v>1325.1960096828966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1228.8175502124093</c:v>
+                  <c:v>1449.4536745826128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1324.7851080524983</c:v>
+                  <c:v>1202.4481034439586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1231.3226871390423</c:v>
+                  <c:v>1294.2475184098982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1235.8622582035205</c:v>
+                  <c:v>1202.2547140882739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1306.9175399631656</c:v>
+                  <c:v>1039.4571085296068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1029.1664991939551</c:v>
+                  <c:v>1050.2651326173257</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215.6432457992012</c:v>
+                  <c:v>1200.1198340289582</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1166.8920710995214</c:v>
+                  <c:v>966.2965546057153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1160.5872892530426</c:v>
+                  <c:v>917.51668190085582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1126.4671022545961</c:v>
+                  <c:v>1131.4078225535065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>857.03447234128805</c:v>
+                  <c:v>844.84825511140411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1056.9578081263958</c:v>
+                  <c:v>1020.8157328165084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900.47125086085657</c:v>
+                  <c:v>952.53079801185118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>868.24425102597786</c:v>
+                  <c:v>769.04632724745329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,61 +1641,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.0571902089786094</c:v>
+                  <c:v>1.0551112090396357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1083808875645038</c:v>
+                  <c:v>1.1061537577639022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1597251336567553</c:v>
+                  <c:v>1.1598602458772347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2093323440558059</c:v>
+                  <c:v>1.2020311739774667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2572121088192627</c:v>
+                  <c:v>1.25902761480098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3093315132919989</c:v>
+                  <c:v>1.3058880944404849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3590775792971943</c:v>
+                  <c:v>1.3540545476995742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.401924522690237</c:v>
+                  <c:v>1.4061954359382427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4575930031989033</c:v>
+                  <c:v>1.4535191117003106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5058167556392896</c:v>
+                  <c:v>1.5052025425537063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5590748461413337</c:v>
+                  <c:v>1.5544585502935984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6082964096718932</c:v>
+                  <c:v>1.6010333764534315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6510800579363214</c:v>
+                  <c:v>1.6526531168071461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7099234994126153</c:v>
+                  <c:v>1.7041724309171764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7565566282062535</c:v>
+                  <c:v>1.7513017230718211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8031676025889536</c:v>
+                  <c:v>1.8065259132171341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8521292983435773</c:v>
+                  <c:v>1.850702326589986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9098704617576747</c:v>
+                  <c:v>1.9075358893126482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9528684865920864</c:v>
+                  <c:v>1.9551753570651742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,61 +1707,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1921.5649046406595</c:v>
+                  <c:v>1830.3337329657784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1701.8053245673295</c:v>
+                  <c:v>1952.004850659833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1828.4520410610119</c:v>
+                  <c:v>1826.2497284894712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1912.8683912666424</c:v>
+                  <c:v>1921.0295740650874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1810.8457734947997</c:v>
+                  <c:v>1866.5828598665437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1882.2843948550233</c:v>
+                  <c:v>1714.5103099853477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1771.3969893375356</c:v>
+                  <c:v>1841.1699314363673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1798.212900924204</c:v>
+                  <c:v>1797.7072606880113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1662.5606792115636</c:v>
+                  <c:v>1736.2732140279095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1987.8753857358406</c:v>
+                  <c:v>1806.9765836993417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1796.7318070426431</c:v>
+                  <c:v>1874.4720404470038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1729.9959166163799</c:v>
+                  <c:v>1796.8730929240069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1999.012781912709</c:v>
+                  <c:v>2080.0379166960897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1919.4604236319385</c:v>
+                  <c:v>1892.0815844666572</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1860.5295381651526</c:v>
+                  <c:v>1720.3587767913889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1746.9745117337607</c:v>
+                  <c:v>1792.0520807702787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1764.9466015112514</c:v>
+                  <c:v>1764.6666479647756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1776.6219759878149</c:v>
+                  <c:v>1940.584038259515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1709.9292568817104</c:v>
+                  <c:v>1883.0153703810461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,61 +2154,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3579.3739866128653</c:v>
+                  <c:v>3516.7940520394077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3519.8668797244777</c:v>
+                  <c:v>3503.8075496271695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3801.1838906107155</c:v>
+                  <c:v>3561.73193894412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3566.3423970174986</c:v>
+                  <c:v>3721.1728236211338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3879.953286367966</c:v>
+                  <c:v>3826.8254422768405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3652.9527982786558</c:v>
+                  <c:v>3916.1560799130198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3661.8729246267135</c:v>
+                  <c:v>3866.3269923661528</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4172.9141849826847</c:v>
+                  <c:v>3913.0383762264869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4057.1995576635709</c:v>
+                  <c:v>3945.314589397371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3940.6238074776734</c:v>
+                  <c:v>4055.5412833366272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4292.4806449976013</c:v>
+                  <c:v>4124.0220100576789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4254.6885684928247</c:v>
+                  <c:v>4165.2319216135529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4247.5441458770565</c:v>
+                  <c:v>4509.9645749951724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4373.8007926058672</c:v>
+                  <c:v>4386.7744736245331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4490.9232842778147</c:v>
+                  <c:v>4321.727122302058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4320.2976401702581</c:v>
+                  <c:v>4513.9125904871398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4426.8766718409552</c:v>
+                  <c:v>4345.1017303549652</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4517.4691793955617</c:v>
+                  <c:v>4323.2017076759184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4591.7966595477747</c:v>
+                  <c:v>4387.3216206233064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,61 +2319,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3434.2987147162034</c:v>
+                  <c:v>3341.8276440799109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3556.767485711769</c:v>
+                  <c:v>3528.2970684621287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3640.4871341803437</c:v>
+                  <c:v>3324.4046942479281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3718.7487086610718</c:v>
+                  <c:v>3419.7925877477619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3700.3894236275369</c:v>
+                  <c:v>3615.0782647516503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4182.253599815368</c:v>
+                  <c:v>3888.4569003204001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3697.1913870467611</c:v>
+                  <c:v>3774.7711557928424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3972.5857159822717</c:v>
+                  <c:v>3841.6734976341445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3912.73988345005</c:v>
+                  <c:v>4082.2209939634272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4006.605234965396</c:v>
+                  <c:v>4045.5091604068384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4239.9033976473784</c:v>
+                  <c:v>4061.577585416871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4201.0506620127417</c:v>
+                  <c:v>4133.2274575123329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4172.5566875656477</c:v>
+                  <c:v>4154.665056505447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4430.8719613354597</c:v>
+                  <c:v>4190.2770536359076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4456.0337463869546</c:v>
+                  <c:v>4232.9665374176939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4219.4072498255355</c:v>
+                  <c:v>4351.7002336326495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4534.1546640882752</c:v>
+                  <c:v>4434.7803019399016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4491.6709039868447</c:v>
+                  <c:v>4480.6918038238646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4428.305847632033</c:v>
+                  <c:v>4325.8409870915411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,61 +2484,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3684.7851083721466</c:v>
+                  <c:v>3645.0007987008348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3457.6374486609616</c:v>
+                  <c:v>3546.7125527693674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3977.621658556387</c:v>
+                  <c:v>3569.0528335936965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3881.2043938245115</c:v>
+                  <c:v>3645.1373964741979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3563.4999783211847</c:v>
+                  <c:v>3906.6337805686144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3576.4523686911025</c:v>
+                  <c:v>3963.9286924218327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3864.2768592871125</c:v>
+                  <c:v>3732.8375496228687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3729.2633521460971</c:v>
+                  <c:v>3840.748328468334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4588.7793180282151</c:v>
+                  <c:v>4279.4699818492309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4210.1608468893046</c:v>
+                  <c:v>4015.511574877125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4092.3160091988698</c:v>
+                  <c:v>4013.1534693942867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3854.5066627631713</c:v>
+                  <c:v>4321.9723140208616</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4397.9052224782545</c:v>
+                  <c:v>4252.5275799559913</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4210.5548173285588</c:v>
+                  <c:v>4396.8443233469388</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4194.9770610276828</c:v>
+                  <c:v>4159.516610577849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4287.981186175838</c:v>
+                  <c:v>4370.4825730902412</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4104.5943631574855</c:v>
+                  <c:v>4471.3190023957732</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4421.4589137096355</c:v>
+                  <c:v>4613.1931681877631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4499.5916767878043</c:v>
+                  <c:v>4327.966084022979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,61 +2649,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1118.997323450154</c:v>
+                  <c:v>1070.9186819018421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1154.0276571388654</c:v>
+                  <c:v>1006.9447025661661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>997.18408563514765</c:v>
+                  <c:v>984.54962058572232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1078.3131257666851</c:v>
+                  <c:v>1114.4102464096568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1112.0684924848242</c:v>
+                  <c:v>982.73912828933658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1091.6848815991777</c:v>
+                  <c:v>1171.0865106392455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1079.1129332881985</c:v>
+                  <c:v>1093.1210486533178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1074.4084535176355</c:v>
+                  <c:v>1015.9363607246504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1011.5210056978408</c:v>
+                  <c:v>1096.1212459475655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1013.4013283405393</c:v>
+                  <c:v>1142.4382836168506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1095.5992059654532</c:v>
+                  <c:v>1022.788416033508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1131.7492053350861</c:v>
+                  <c:v>1127.266216841587</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1120.0907975468817</c:v>
+                  <c:v>1107.4379794401013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1159.4586484128022</c:v>
+                  <c:v>1145.823177104236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1098.6478136619733</c:v>
+                  <c:v>1112.85941825182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1026.6558248859917</c:v>
+                  <c:v>1058.2029271276936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1081.2685672351242</c:v>
+                  <c:v>1050.9437356753742</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1035.2535771248934</c:v>
+                  <c:v>1084.2956530416136</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1053.4229295859191</c:v>
+                  <c:v>992.6699607628866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,61 +2814,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1756.4088201403545</c:v>
+                  <c:v>1761.838150288052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1531.332360125012</c:v>
+                  <c:v>1489.2089439809401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1431.9019991227321</c:v>
+                  <c:v>1540.5318978233456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1370.2736592230797</c:v>
+                  <c:v>1339.4408675123832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1417.8504182144854</c:v>
+                  <c:v>1325.1960096828966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1228.8175502124093</c:v>
+                  <c:v>1449.4536745826128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1324.7851080524983</c:v>
+                  <c:v>1202.4481034439586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1231.3226871390423</c:v>
+                  <c:v>1294.2475184098982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1235.8622582035205</c:v>
+                  <c:v>1202.2547140882739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1306.9175399631656</c:v>
+                  <c:v>1039.4571085296068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1029.1664991939551</c:v>
+                  <c:v>1050.2651326173257</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215.6432457992012</c:v>
+                  <c:v>1200.1198340289582</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1166.8920710995214</c:v>
+                  <c:v>966.2965546057153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1160.5872892530426</c:v>
+                  <c:v>917.51668190085582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1126.4671022545961</c:v>
+                  <c:v>1131.4078225535065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>857.03447234128805</c:v>
+                  <c:v>844.84825511140411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1056.9578081263958</c:v>
+                  <c:v>1020.8157328165084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900.47125086085657</c:v>
+                  <c:v>952.53079801185118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>868.24425102597786</c:v>
+                  <c:v>769.04632724745329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,61 +2979,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1657.7893150846289</c:v>
+                  <c:v>1635.3132737404176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1564.0466531019313</c:v>
+                  <c:v>1637.3368460169702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1557.1880256798936</c:v>
+                  <c:v>1565.0284040693234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1512.819783254308</c:v>
+                  <c:v>1450.0019223213808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1401.5637653023268</c:v>
+                  <c:v>1425.0493772356699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1348.549995767054</c:v>
+                  <c:v>1417.3443881576522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1372.9004383803303</c:v>
+                  <c:v>1370.631645846215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1324.1436799768301</c:v>
+                  <c:v>1314.6182852239315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1222.3807141410298</c:v>
+                  <c:v>1262.0723364042085</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1214.2447572587953</c:v>
+                  <c:v>1160.467309567241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1182.9773662056889</c:v>
+                  <c:v>1189.8637102272098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1125.0972915437919</c:v>
+                  <c:v>1134.7658337792302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1123.2562122164616</c:v>
+                  <c:v>1083.2631026508225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1007.7099857622326</c:v>
+                  <c:v>1010.1934826778706</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1014.4004400022989</c:v>
+                  <c:v>1000.3008529101238</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1003.6599345816012</c:v>
+                  <c:v>1018.132301855183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>911.36961754292236</c:v>
+                  <c:v>935.85092807086153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>939.00238846951947</c:v>
+                  <c:v>874.91238516227475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>903.08715940078434</c:v>
+                  <c:v>906.36815402476418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,61 +3144,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1921.5649046406595</c:v>
+                  <c:v>1830.3337329657784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1701.8053245673295</c:v>
+                  <c:v>1952.004850659833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1828.4520410610119</c:v>
+                  <c:v>1826.2497284894712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1912.8683912666424</c:v>
+                  <c:v>1921.0295740650874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1810.8457734947997</c:v>
+                  <c:v>1866.5828598665437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1882.2843948550233</c:v>
+                  <c:v>1714.5103099853477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1771.3969893375356</c:v>
+                  <c:v>1841.1699314363673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1798.212900924204</c:v>
+                  <c:v>1797.7072606880113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1662.5606792115636</c:v>
+                  <c:v>1736.2732140279095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1987.8753857358406</c:v>
+                  <c:v>1806.9765836993417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1796.7318070426431</c:v>
+                  <c:v>1874.4720404470038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1729.9959166163799</c:v>
+                  <c:v>1796.8730929240069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1999.012781912709</c:v>
+                  <c:v>2080.0379166960897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1919.4604236319385</c:v>
+                  <c:v>1892.0815844666572</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1860.5295381651526</c:v>
+                  <c:v>1720.3587767913889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1746.9745117337607</c:v>
+                  <c:v>1792.0520807702787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1764.9466015112514</c:v>
+                  <c:v>1764.6666479647756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1776.6219759878149</c:v>
+                  <c:v>1940.584038259515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1709.9292568817104</c:v>
+                  <c:v>1883.0153703810461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,61 +3591,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3530.2886026479869</c:v>
+                  <c:v>3313.9143572710182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3550.2866092924692</c:v>
+                  <c:v>3645.3746565645379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3638.2552464281348</c:v>
+                  <c:v>3646.0962838421283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3480.4066155921537</c:v>
+                  <c:v>3534.0490986940636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3406.9352539533811</c:v>
+                  <c:v>3485.8985285144458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3539.3497771270463</c:v>
+                  <c:v>3563.5266631235409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3559.48145944934</c:v>
+                  <c:v>3399.9552590670651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4234.6286410295888</c:v>
+                  <c:v>3984.7071363002983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4001.739132011638</c:v>
+                  <c:v>4113.3930971830487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4071.3839939962691</c:v>
+                  <c:v>3884.3672961361385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4033.7901604102226</c:v>
+                  <c:v>4030.3544505782634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3995.0217641215859</c:v>
+                  <c:v>3966.2962133632545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3912.2933642437501</c:v>
+                  <c:v>3853.2777408599254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4321.429446121454</c:v>
+                  <c:v>4334.5136362396124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4373.3847310680221</c:v>
+                  <c:v>4469.9324662698482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4377.3454809906134</c:v>
+                  <c:v>4322.9336951106752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4375.2528553501024</c:v>
+                  <c:v>4386.9946751627667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4512.7122409331214</c:v>
+                  <c:v>4593.0583761551052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4517.946840240138</c:v>
+                  <c:v>4624.1689343096905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,61 +3756,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1177.2997064714755</c:v>
+                  <c:v>1009.7730055259779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1016.6087105414033</c:v>
+                  <c:v>1111.2888464407008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1076.8594062506304</c:v>
+                  <c:v>1067.5357429103915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1095.5552036775946</c:v>
+                  <c:v>936.23272837407126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.530850611919</c:v>
+                  <c:v>1115.2961976091992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1229.5455699121746</c:v>
+                  <c:v>1069.2387421668284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1018.8200151308645</c:v>
+                  <c:v>1249.6928395255013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1089.8649857207301</c:v>
+                  <c:v>1075.4109920123144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1059.7198793333973</c:v>
+                  <c:v>1038.3049359127363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017.9797691205766</c:v>
+                  <c:v>1161.6515373021043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1062.5705392109958</c:v>
+                  <c:v>1174.259786337971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1088.5320552096357</c:v>
+                  <c:v>973.15903667341638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1193.7802814878978</c:v>
+                  <c:v>1085.7589596718672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>950.94595652362261</c:v>
+                  <c:v>967.80918387861675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1010.6132745721038</c:v>
+                  <c:v>1092.3261474055789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>997.34581104154802</c:v>
+                  <c:v>976.1179039444313</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1045.4796030868208</c:v>
+                  <c:v>902.704927255661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1269.713448497655</c:v>
+                  <c:v>960.34032488893615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1180.9918214098093</c:v>
+                  <c:v>1027.3047793482599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,61 +3921,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1569.3119102659978</c:v>
+                  <c:v>1587.4213474091384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1729.4480082419109</c:v>
+                  <c:v>1602.5716855754133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1641.7276923275131</c:v>
+                  <c:v>1612.6524769663415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1698.2959540462055</c:v>
+                  <c:v>1711.1648550919235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1649.9742233987843</c:v>
+                  <c:v>1488.129825385874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1693.3130402936381</c:v>
+                  <c:v>1604.8395729147865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1572.5209251750971</c:v>
+                  <c:v>1671.5192308479498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1260.2678876936718</c:v>
+                  <c:v>1152.3065726007856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042.8871248139296</c:v>
+                  <c:v>1305.9075651069797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1258.1610975381491</c:v>
+                  <c:v>1269.4805470707149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1331.7708090749536</c:v>
+                  <c:v>1286.1421181100529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1339.2468556129309</c:v>
+                  <c:v>1292.414290638601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1114.6711946156406</c:v>
+                  <c:v>1397.9512100271393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>937.94084502535145</c:v>
+                  <c:v>881.88599445374007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>906.58996111167221</c:v>
+                  <c:v>895.45481005737076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>789.34385034671777</c:v>
+                  <c:v>885.77496167631944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>988.26629550033113</c:v>
+                  <c:v>1058.8424676086545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1017.6617849849383</c:v>
+                  <c:v>949.69103457505719</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1031.2602856929766</c:v>
+                  <c:v>1073.4125297902256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,61 +4086,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1753.7935932309181</c:v>
+                  <c:v>1918.9918826706157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1943.0145128968254</c:v>
+                  <c:v>2134.9415544481035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1786.510476112232</c:v>
+                  <c:v>1829.0523184618166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1825.9119724954849</c:v>
+                  <c:v>1851.2956828708068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1896.8078077197679</c:v>
+                  <c:v>1936.8317592466969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1812.0212304551321</c:v>
+                  <c:v>1817.8677336097483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1910.2823933435243</c:v>
+                  <c:v>1983.941844597512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1792.1752181276136</c:v>
+                  <c:v>1885.7669108719494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1792.876034351312</c:v>
+                  <c:v>1780.1520528758851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1702.7447904744129</c:v>
+                  <c:v>1807.2944890793328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1938.0628953519756</c:v>
+                  <c:v>1953.8307628732496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2107.9188209967842</c:v>
+                  <c:v>1849.2552059966633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1999.8036393375912</c:v>
+                  <c:v>1937.8389232225343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1818.8612158555622</c:v>
+                  <c:v>1723.2396585947288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1640.3131931174175</c:v>
+                  <c:v>1681.6480289362596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1885.8369093599149</c:v>
+                  <c:v>1648.5033720540234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1932.4345847071106</c:v>
+                  <c:v>1679.9529941179271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1753.527339093469</c:v>
+                  <c:v>1930.0503099461598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1694.3297571066835</c:v>
+                  <c:v>1733.4244301873341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,61 +4772,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3530.2886026479869</c:v>
+                  <c:v>3313.9143572710182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3550.2866092924692</c:v>
+                  <c:v>3645.3746565645379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3638.2552464281348</c:v>
+                  <c:v>3646.0962838421283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3480.4066155921537</c:v>
+                  <c:v>3534.0490986940636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3406.9352539533811</c:v>
+                  <c:v>3485.8985285144458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3539.3497771270463</c:v>
+                  <c:v>3563.5266631235409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3559.48145944934</c:v>
+                  <c:v>3399.9552590670651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4234.6286410295888</c:v>
+                  <c:v>3984.7071363002983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4001.739132011638</c:v>
+                  <c:v>4113.3930971830487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4071.3839939962691</c:v>
+                  <c:v>3884.3672961361385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4033.7901604102226</c:v>
+                  <c:v>4030.3544505782634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3995.0217641215859</c:v>
+                  <c:v>3966.2962133632545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3912.2933642437501</c:v>
+                  <c:v>3853.2777408599254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4321.429446121454</c:v>
+                  <c:v>4334.5136362396124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4373.3847310680221</c:v>
+                  <c:v>4469.9324662698482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4377.3454809906134</c:v>
+                  <c:v>4322.9336951106752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4375.2528553501024</c:v>
+                  <c:v>4386.9946751627667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4512.7122409331214</c:v>
+                  <c:v>4593.0583761551052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4517.946840240138</c:v>
+                  <c:v>4624.1689343096905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4937,61 +4937,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3670.5980665946299</c:v>
+                  <c:v>3548.4204317412286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3587.8748436588417</c:v>
+                  <c:v>3661.0584364391621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3608.1119715176774</c:v>
+                  <c:v>3606.0930612827128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3578.8950934856507</c:v>
+                  <c:v>3438.4830308550263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3424.068366643141</c:v>
+                  <c:v>3564.3730613698026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3567.9850802031538</c:v>
+                  <c:v>3540.34741488193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4046.0091003883526</c:v>
+                  <c:v>4226.4095621258139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3971.7635780960859</c:v>
+                  <c:v>3980.0014527428311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4154.3433819660759</c:v>
+                  <c:v>4333.0325702377522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4361.6324656854094</c:v>
+                  <c:v>3952.7766554587224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3817.0761545790269</c:v>
+                  <c:v>3981.4248517901228</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3998.2967635343307</c:v>
+                  <c:v>4177.8376916301513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3803.5879194054228</c:v>
+                  <c:v>3937.7361816176854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4439.9890703077317</c:v>
+                  <c:v>4309.3669755480387</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4618.9676423311175</c:v>
+                  <c:v>4363.4193246836694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4331.2709449665117</c:v>
+                  <c:v>4693.7854130190362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4109.975375089256</c:v>
+                  <c:v>4614.6641570657703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4343.4395979225583</c:v>
+                  <c:v>4252.0397508949454</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4690.3566546397487</c:v>
+                  <c:v>4498.6262682259048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,61 +5102,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3680.2921961696034</c:v>
+                  <c:v>3525.9201942533014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3369.8753272514368</c:v>
+                  <c:v>3467.509415175602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3570.347495354456</c:v>
+                  <c:v>3365.1892681018417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3402.8773020176804</c:v>
+                  <c:v>3892.7808067628489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3579.1927548337635</c:v>
+                  <c:v>3250.7845246292518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3662.482216140751</c:v>
+                  <c:v>3522.269825655555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4216.7171790015145</c:v>
+                  <c:v>4072.8468942911504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4020.6276642932971</c:v>
+                  <c:v>3646.8854514436734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4013.0129937943666</c:v>
+                  <c:v>4029.6726848889034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3980.9934465782426</c:v>
+                  <c:v>4202.1893747223612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4177.8294057114263</c:v>
+                  <c:v>4301.3384454215184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4165.3137010280498</c:v>
+                  <c:v>4155.915679751578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3757.733011019096</c:v>
+                  <c:v>4091.7646343154406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4561.2405038167326</c:v>
+                  <c:v>4635.7136688990759</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4640.0158851385268</c:v>
+                  <c:v>4786.5061599292294</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4786.0019900990937</c:v>
+                  <c:v>4400.36416783802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4432.4744567061489</c:v>
+                  <c:v>4478.7581689439594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4345.5038038553585</c:v>
+                  <c:v>4313.1995109847503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4268.9796176888158</c:v>
+                  <c:v>4451.3764714170811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,61 +5267,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1177.2997064714755</c:v>
+                  <c:v>1009.7730055259779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1016.6087105414033</c:v>
+                  <c:v>1111.2888464407008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1076.8594062506304</c:v>
+                  <c:v>1067.5357429103915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1095.5552036775946</c:v>
+                  <c:v>936.23272837407126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.530850611919</c:v>
+                  <c:v>1115.2961976091992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1229.5455699121746</c:v>
+                  <c:v>1069.2387421668284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1018.8200151308645</c:v>
+                  <c:v>1249.6928395255013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1089.8649857207301</c:v>
+                  <c:v>1075.4109920123144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1059.7198793333973</c:v>
+                  <c:v>1038.3049359127363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017.9797691205766</c:v>
+                  <c:v>1161.6515373021043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1062.5705392109958</c:v>
+                  <c:v>1174.259786337971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1088.5320552096357</c:v>
+                  <c:v>973.15903667341638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1193.7802814878978</c:v>
+                  <c:v>1085.7589596718672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>950.94595652362261</c:v>
+                  <c:v>967.80918387861675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1010.6132745721038</c:v>
+                  <c:v>1092.3261474055789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>997.34581104154802</c:v>
+                  <c:v>976.1179039444313</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1045.4796030868208</c:v>
+                  <c:v>902.704927255661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1269.713448497655</c:v>
+                  <c:v>960.34032488893615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1180.9918214098093</c:v>
+                  <c:v>1027.3047793482599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5432,61 +5432,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1569.3119102659978</c:v>
+                  <c:v>1587.4213474091384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1729.4480082419109</c:v>
+                  <c:v>1602.5716855754133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1641.7276923275131</c:v>
+                  <c:v>1612.6524769663415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1698.2959540462055</c:v>
+                  <c:v>1711.1648550919235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1649.9742233987843</c:v>
+                  <c:v>1488.129825385874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1693.3130402936381</c:v>
+                  <c:v>1604.8395729147865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1572.5209251750971</c:v>
+                  <c:v>1671.5192308479498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1260.2678876936718</c:v>
+                  <c:v>1152.3065726007856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042.8871248139296</c:v>
+                  <c:v>1305.9075651069797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1258.1610975381491</c:v>
+                  <c:v>1269.4805470707149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1331.7708090749536</c:v>
+                  <c:v>1286.1421181100529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1339.2468556129309</c:v>
+                  <c:v>1292.414290638601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1114.6711946156406</c:v>
+                  <c:v>1397.9512100271393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>937.94084502535145</c:v>
+                  <c:v>881.88599445374007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>906.58996111167221</c:v>
+                  <c:v>895.45481005737076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>789.34385034671777</c:v>
+                  <c:v>885.77496167631944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>988.26629550033113</c:v>
+                  <c:v>1058.8424676086545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1017.6617849849383</c:v>
+                  <c:v>949.69103457505719</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1031.2602856929766</c:v>
+                  <c:v>1073.4125297902256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,61 +5597,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1416.5377370203444</c:v>
+                  <c:v>1706.6628181931198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1493.799967602597</c:v>
+                  <c:v>1687.1560570351276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1395.9314635106205</c:v>
+                  <c:v>1845.0110739492557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1553.4618184346532</c:v>
+                  <c:v>1563.7400034927803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1679.8014747452901</c:v>
+                  <c:v>1561.1344932480747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1597.5170662574837</c:v>
+                  <c:v>1631.9006373960569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1324.5976970409658</c:v>
+                  <c:v>1398.3760182209405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1415.5137239126523</c:v>
+                  <c:v>1280.5028714963116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1201.5486469238056</c:v>
+                  <c:v>1349.8134883878965</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1145.7646611183832</c:v>
+                  <c:v>930.26040199931708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1405.9854560592562</c:v>
+                  <c:v>1465.7024817673075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1205.0020034971408</c:v>
+                  <c:v>1213.1913121544424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1148.3303303946245</c:v>
+                  <c:v>1388.8813491734695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700.54445345677516</c:v>
+                  <c:v>1068.1980286158134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>980.52734182724464</c:v>
+                  <c:v>1225.3907763461248</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>721.97258930622388</c:v>
+                  <c:v>684.67266070387723</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>964.20468106333828</c:v>
+                  <c:v>1119.9915284930753</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>842.70019851786583</c:v>
+                  <c:v>1025.2848008941692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>859.88370296009543</c:v>
+                  <c:v>846.48375972704036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,61 +5762,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1753.7935932309181</c:v>
+                  <c:v>1918.9918826706157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1943.0145128968254</c:v>
+                  <c:v>2134.9415544481035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1786.510476112232</c:v>
+                  <c:v>1829.0523184618166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1825.9119724954849</c:v>
+                  <c:v>1851.2956828708068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1896.8078077197679</c:v>
+                  <c:v>1936.8317592466969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1812.0212304551321</c:v>
+                  <c:v>1817.8677336097483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1910.2823933435243</c:v>
+                  <c:v>1983.941844597512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1792.1752181276136</c:v>
+                  <c:v>1885.7669108719494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1792.876034351312</c:v>
+                  <c:v>1780.1520528758851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1702.7447904744129</c:v>
+                  <c:v>1807.2944890793328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1938.0628953519756</c:v>
+                  <c:v>1953.8307628732496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2107.9188209967842</c:v>
+                  <c:v>1849.2552059966633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1999.8036393375912</c:v>
+                  <c:v>1937.8389232225343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1818.8612158555622</c:v>
+                  <c:v>1723.2396585947288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1640.3131931174175</c:v>
+                  <c:v>1681.6480289362596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1885.8369093599149</c:v>
+                  <c:v>1648.5033720540234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1932.4345847071106</c:v>
+                  <c:v>1679.9529941179271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1753.527339093469</c:v>
+                  <c:v>1930.0503099461598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1694.3297571066835</c:v>
+                  <c:v>1733.4244301873341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9624,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE2544E-4949-4918-8355-8A562EAD0F7A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10040,8 +10040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BE66E2-E8A7-48F4-ACE0-6FF6D38B22BD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10069,495 +10069,495 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f ca="1">'design-values'!A2+RAND()*0.01</f>
-        <v>1.0571902089786094</v>
+        <v>1.0551112090396357</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">10000+RAND()*10</f>
-        <v>10009.799845870712</v>
+        <v>10001.980237593929</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">'design-values'!C2+NORMINV(RAND(),0,100)</f>
-        <v>3579.3739866128653</v>
+        <v>3516.7940520394077</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">'design-values'!D2+(RAND()*200-100)</f>
-        <v>1118.997323450154</v>
+        <v>1070.9186819018421</v>
       </c>
       <c r="E2" s="4">
         <f ca="1">'design-values'!E2+(RAND()*300-150)</f>
-        <v>1756.4088201403545</v>
+        <v>1761.838150288052</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">'design-values'!F2+NORMINV(RAND(),0,100)</f>
-        <v>1921.5649046406595</v>
+        <v>1830.3337329657784</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f ca="1">'design-values'!A3+RAND()*0.01</f>
-        <v>1.1083808875645038</v>
+        <v>1.1061537577639022</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B20" ca="1" si="0">10000+RAND()*10</f>
-        <v>10008.571044119493</v>
+        <v>10000.96801746345</v>
       </c>
       <c r="C3" s="4">
         <f ca="1">'design-values'!C3+NORMINV(RAND(),0,200)</f>
-        <v>3758.7640752655329</v>
+        <v>3318.9403185616839</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">'design-values'!D3+(RAND()*200-100)</f>
-        <v>1154.0276571388654</v>
+        <v>1006.9447025661661</v>
       </c>
       <c r="E3" s="4">
         <f ca="1">'design-values'!E3+(RAND()*300-150)</f>
-        <v>1531.332360125012</v>
+        <v>1489.2089439809401</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">'design-values'!F3+NORMINV(RAND(),0,100)</f>
-        <v>1701.8053245673295</v>
+        <v>1952.004850659833</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f ca="1">'design-values'!A4+RAND()*0.01</f>
-        <v>1.1597251336567553</v>
+        <v>1.1598602458772347</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.959305641938</v>
+        <v>10005.42410553421</v>
       </c>
       <c r="C4" s="4">
         <f ca="1">'design-values'!C4+NORMINV(RAND(),0,200)</f>
-        <v>3335.8511734323515</v>
+        <v>3790.1015891962934</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">'design-values'!D4+(RAND()*200-100)</f>
-        <v>997.18408563514765</v>
+        <v>984.54962058572232</v>
       </c>
       <c r="E4" s="4">
         <f ca="1">'design-values'!E4+(RAND()*300-150)</f>
-        <v>1431.9019991227321</v>
+        <v>1540.5318978233456</v>
       </c>
       <c r="F4" s="4">
         <f ca="1">'design-values'!F4+NORMINV(RAND(),0,100)</f>
-        <v>1828.4520410610119</v>
+        <v>1826.2497284894712</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f ca="1">'design-values'!A5+RAND()*0.01</f>
-        <v>1.2093323440558059</v>
+        <v>1.2020311739774667</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.71970769737</v>
+        <v>10009.877179548523</v>
       </c>
       <c r="C5" s="4">
         <f ca="1">'design-values'!C5+NORMINV(RAND(),0,200)</f>
-        <v>3435.4265669415845</v>
+        <v>3647.6472900520994</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">'design-values'!D5+(RAND()*200-100)</f>
-        <v>1078.3131257666851</v>
+        <v>1114.4102464096568</v>
       </c>
       <c r="E5" s="4">
         <f ca="1">'design-values'!E5+(RAND()*300-150)</f>
-        <v>1370.2736592230797</v>
+        <v>1339.4408675123832</v>
       </c>
       <c r="F5" s="4">
         <f ca="1">'design-values'!F5+NORMINV(RAND(),0,100)</f>
-        <v>1912.8683912666424</v>
+        <v>1921.0295740650874</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f ca="1">'design-values'!A6+RAND()*0.01</f>
-        <v>1.2572121088192627</v>
+        <v>1.25902761480098</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10007.817842255388</v>
+        <v>10008.10649636901</v>
       </c>
       <c r="C6" s="4">
         <f ca="1">'design-values'!C6+NORMINV(RAND(),0,200)</f>
-        <v>4122.3892311615</v>
+        <v>3937.6759772824416</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">'design-values'!D6+(RAND()*200-100)</f>
-        <v>1112.0684924848242</v>
+        <v>982.73912828933658</v>
       </c>
       <c r="E6" s="4">
         <f ca="1">'design-values'!E6+(RAND()*300-150)</f>
-        <v>1417.8504182144854</v>
+        <v>1325.1960096828966</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">'design-values'!F6+NORMINV(RAND(),0,100)</f>
-        <v>1810.8457734947997</v>
+        <v>1866.5828598665437</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f ca="1">'design-values'!A7+RAND()*0.01</f>
-        <v>1.3093315132919989</v>
+        <v>1.3058880944404849</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10008.161407436013</v>
+        <v>10000.429536391774</v>
       </c>
       <c r="C7" s="4">
         <f ca="1">'design-values'!C7+NORMINV(RAND(),0,200)</f>
-        <v>3718.0554554381361</v>
+        <v>3744.354620973048</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">'design-values'!D7+(RAND()*200-100)</f>
-        <v>1091.6848815991777</v>
+        <v>1171.0865106392455</v>
       </c>
       <c r="E7" s="4">
         <f ca="1">'design-values'!E7+(RAND()*300-150)</f>
-        <v>1228.8175502124093</v>
+        <v>1449.4536745826128</v>
       </c>
       <c r="F7" s="4">
         <f ca="1">'design-values'!F7+NORMINV(RAND(),0,100)</f>
-        <v>1882.2843948550233</v>
+        <v>1714.5103099853477</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f ca="1">'design-values'!A8+RAND()*0.01</f>
-        <v>1.3590775792971943</v>
+        <v>1.3540545476995742</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.298794449811</v>
+        <v>10008.883202834411</v>
       </c>
       <c r="C8" s="4">
         <f ca="1">'design-values'!C8+NORMINV(RAND(),0,200)</f>
-        <v>3747.1462833955752</v>
+        <v>3881.7166438459585</v>
       </c>
       <c r="D8" s="4">
         <f ca="1">'design-values'!D8+(RAND()*200-100)</f>
-        <v>1079.1129332881985</v>
+        <v>1093.1210486533178</v>
       </c>
       <c r="E8" s="4">
         <f ca="1">'design-values'!E8+(RAND()*300-150)</f>
-        <v>1324.7851080524983</v>
+        <v>1202.4481034439586</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">'design-values'!F8+NORMINV(RAND(),0,100)</f>
-        <v>1771.3969893375356</v>
+        <v>1841.1699314363673</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f ca="1">'design-values'!A9+RAND()*0.01</f>
-        <v>1.401924522690237</v>
+        <v>1.4061954359382427</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10007.670360885608</v>
+        <v>10009.779180426611</v>
       </c>
       <c r="C9" s="4">
         <f ca="1">'design-values'!C9+NORMINV(RAND(),0,200)</f>
-        <v>3899.2352656979779</v>
+        <v>3897.4931013690743</v>
       </c>
       <c r="D9" s="4">
         <f ca="1">'design-values'!D9+(RAND()*200-100)</f>
-        <v>1074.4084535176355</v>
+        <v>1015.9363607246504</v>
       </c>
       <c r="E9" s="4">
         <f ca="1">'design-values'!E9+(RAND()*300-150)</f>
-        <v>1231.3226871390423</v>
+        <v>1294.2475184098982</v>
       </c>
       <c r="F9" s="4">
         <f ca="1">'design-values'!F9+NORMINV(RAND(),0,100)</f>
-        <v>1798.212900924204</v>
+        <v>1797.7072606880113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f ca="1">'design-values'!A10+RAND()*0.01</f>
-        <v>1.4575930031989033</v>
+        <v>1.4535191117003106</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10008.774552222558</v>
+        <v>10007.662229205918</v>
       </c>
       <c r="C10" s="4">
         <f ca="1">'design-values'!C10+NORMINV(RAND(),0,200)</f>
-        <v>3998.5346722248432</v>
+        <v>4131.131337007926</v>
       </c>
       <c r="D10" s="4">
         <f ca="1">'design-values'!D10+(RAND()*200-100)</f>
-        <v>1011.5210056978408</v>
+        <v>1096.1212459475655</v>
       </c>
       <c r="E10" s="4">
         <f ca="1">'design-values'!E10+(RAND()*300-150)</f>
-        <v>1235.8622582035205</v>
+        <v>1202.2547140882739</v>
       </c>
       <c r="F10" s="4">
         <f ca="1">'design-values'!F10+NORMINV(RAND(),0,100)</f>
-        <v>1662.5606792115636</v>
+        <v>1736.2732140279095</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f ca="1">'design-values'!A11+RAND()*0.01</f>
-        <v>1.5058167556392896</v>
+        <v>1.5052025425537063</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10009.424723635593</v>
+        <v>10004.178062248646</v>
       </c>
       <c r="C11" s="4">
         <f ca="1">'design-values'!C11+NORMINV(RAND(),0,200)</f>
-        <v>4032.8513640933625</v>
+        <v>4159.1129843006838</v>
       </c>
       <c r="D11" s="4">
         <f ca="1">'design-values'!D11+(RAND()*200-100)</f>
-        <v>1013.4013283405393</v>
+        <v>1142.4382836168506</v>
       </c>
       <c r="E11" s="4">
         <f ca="1">'design-values'!E11+(RAND()*300-150)</f>
-        <v>1306.9175399631656</v>
+        <v>1039.4571085296068</v>
       </c>
       <c r="F11" s="4">
         <f ca="1">'design-values'!F11+NORMINV(RAND(),0,100)</f>
-        <v>1987.8753857358406</v>
+        <v>1806.9765836993417</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f ca="1">'design-values'!A12+RAND()*0.01</f>
-        <v>1.5590748461413337</v>
+        <v>1.5544585502935984</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.599581313016</v>
+        <v>10009.879253967438</v>
       </c>
       <c r="C12" s="4">
         <f ca="1">'design-values'!C12+NORMINV(RAND(),0,200)</f>
-        <v>4202.3782428492095</v>
+        <v>4282.0800814142522</v>
       </c>
       <c r="D12" s="4">
         <f ca="1">'design-values'!D12+(RAND()*200-100)</f>
-        <v>1095.5992059654532</v>
+        <v>1022.788416033508</v>
       </c>
       <c r="E12" s="4">
         <f ca="1">'design-values'!E12+(RAND()*300-150)</f>
-        <v>1029.1664991939551</v>
+        <v>1050.2651326173257</v>
       </c>
       <c r="F12" s="4">
         <f ca="1">'design-values'!F12+NORMINV(RAND(),0,100)</f>
-        <v>1796.7318070426431</v>
+        <v>1874.4720404470038</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f ca="1">'design-values'!A13+RAND()*0.01</f>
-        <v>1.6082964096718932</v>
+        <v>1.6010333764534315</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.990492754665</v>
+        <v>10002.572264178078</v>
       </c>
       <c r="C13" s="4">
         <f ca="1">'design-values'!C13+NORMINV(RAND(),0,200)</f>
-        <v>4120.4996882703626</v>
+        <v>4167.2885687603011</v>
       </c>
       <c r="D13" s="4">
         <f ca="1">'design-values'!D13+(RAND()*200-100)</f>
-        <v>1131.7492053350861</v>
+        <v>1127.266216841587</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">'design-values'!E13+(RAND()*300-150)</f>
-        <v>1215.6432457992012</v>
+        <v>1200.1198340289582</v>
       </c>
       <c r="F13" s="4">
         <f ca="1">'design-values'!F13+NORMINV(RAND(),0,100)</f>
-        <v>1729.9959166163799</v>
+        <v>1796.8730929240069</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f ca="1">'design-values'!A14+RAND()*0.01</f>
-        <v>1.6510800579363214</v>
+        <v>1.6526531168071461</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10006.650744561925</v>
+        <v>10000.186774087737</v>
       </c>
       <c r="C14" s="4">
         <f ca="1">'design-values'!C14+NORMINV(RAND(),0,200)</f>
-        <v>4375.6524830465496</v>
+        <v>4052.0573734783607</v>
       </c>
       <c r="D14" s="4">
         <f ca="1">'design-values'!D14+(RAND()*200-100)</f>
-        <v>1120.0907975468817</v>
+        <v>1107.4379794401013</v>
       </c>
       <c r="E14" s="4">
         <f ca="1">'design-values'!E14+(RAND()*300-150)</f>
-        <v>1166.8920710995214</v>
+        <v>966.2965546057153</v>
       </c>
       <c r="F14" s="4">
         <f ca="1">'design-values'!F14+NORMINV(RAND(),0,100)</f>
-        <v>1999.012781912709</v>
+        <v>2080.0379166960897</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f ca="1">'design-values'!A15+RAND()*0.01</f>
-        <v>1.7099234994126153</v>
+        <v>1.7041724309171764</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10001.749601689646</v>
+        <v>10004.459674792564</v>
       </c>
       <c r="C15" s="4">
         <f ca="1">'design-values'!C15+NORMINV(RAND(),0,200)</f>
-        <v>4407.3847478586986</v>
+        <v>4523.8333951141503</v>
       </c>
       <c r="D15" s="4">
         <f ca="1">'design-values'!D15+(RAND()*200-100)</f>
-        <v>1159.4586484128022</v>
+        <v>1145.823177104236</v>
       </c>
       <c r="E15" s="4">
         <f ca="1">'design-values'!E15+(RAND()*300-150)</f>
-        <v>1160.5872892530426</v>
+        <v>917.51668190085582</v>
       </c>
       <c r="F15" s="4">
         <f ca="1">'design-values'!F15+NORMINV(RAND(),0,100)</f>
-        <v>1919.4604236319385</v>
+        <v>1892.0815844666572</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f ca="1">'design-values'!A16+RAND()*0.01</f>
-        <v>1.7565566282062535</v>
+        <v>1.7513017230718211</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10003.801375816547</v>
+        <v>10001.959454048938</v>
       </c>
       <c r="C16" s="4">
         <f ca="1">'design-values'!C16+NORMINV(RAND(),0,200)</f>
-        <v>4493.8574580386112</v>
+        <v>4721.6260161465398</v>
       </c>
       <c r="D16" s="4">
         <f ca="1">'design-values'!D16+(RAND()*200-100)</f>
-        <v>1098.6478136619733</v>
+        <v>1112.85941825182</v>
       </c>
       <c r="E16" s="4">
         <f ca="1">'design-values'!E16+(RAND()*300-150)</f>
-        <v>1126.4671022545961</v>
+        <v>1131.4078225535065</v>
       </c>
       <c r="F16" s="4">
         <f ca="1">'design-values'!F16+NORMINV(RAND(),0,100)</f>
-        <v>1860.5295381651526</v>
+        <v>1720.3587767913889</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f ca="1">'design-values'!A17+RAND()*0.01</f>
-        <v>1.8031676025889536</v>
+        <v>1.8065259132171341</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10007.246995241654</v>
+        <v>10002.661163864588</v>
       </c>
       <c r="C17" s="4">
         <f ca="1">'design-values'!C17+NORMINV(RAND(),0,200)</f>
-        <v>4486.208431966802</v>
+        <v>4204.5404859478713</v>
       </c>
       <c r="D17" s="4">
         <f ca="1">'design-values'!D17+(RAND()*200-100)</f>
-        <v>1026.6558248859917</v>
+        <v>1058.2029271276936</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">'design-values'!E17+(RAND()*300-150)</f>
-        <v>857.03447234128805</v>
+        <v>844.84825511140411</v>
       </c>
       <c r="F17" s="4">
         <f ca="1">'design-values'!F17+NORMINV(RAND(),0,100)</f>
-        <v>1746.9745117337607</v>
+        <v>1792.0520807702787</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f ca="1">'design-values'!A18+RAND()*0.01</f>
-        <v>1.8521292983435773</v>
+        <v>1.850702326589986</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10000.378322279837</v>
+        <v>10009.357454467154</v>
       </c>
       <c r="C18" s="4">
         <f ca="1">'design-values'!C18+NORMINV(RAND(),0,200)</f>
-        <v>4469.4726604248644</v>
+        <v>4577.3556140476539</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">'design-values'!D18+(RAND()*200-100)</f>
-        <v>1081.2685672351242</v>
+        <v>1050.9437356753742</v>
       </c>
       <c r="E18" s="4">
         <f ca="1">'design-values'!E18+(RAND()*300-150)</f>
-        <v>1056.9578081263958</v>
+        <v>1020.8157328165084</v>
       </c>
       <c r="F18" s="4">
         <f ca="1">'design-values'!F18+NORMINV(RAND(),0,100)</f>
-        <v>1764.9466015112514</v>
+        <v>1764.6666479647756</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f ca="1">'design-values'!A19+RAND()*0.01</f>
-        <v>1.9098704617576747</v>
+        <v>1.9075358893126482</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10004.602985759791</v>
+        <v>10008.694924540936</v>
       </c>
       <c r="C19" s="4">
         <f ca="1">'design-values'!C19+NORMINV(RAND(),0,200)</f>
-        <v>4593.9135054642356</v>
+        <v>4475.2332459378586</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">'design-values'!D19+(RAND()*200-100)</f>
-        <v>1035.2535771248934</v>
+        <v>1084.2956530416136</v>
       </c>
       <c r="E19" s="4">
         <f ca="1">'design-values'!E19+(RAND()*300-150)</f>
-        <v>900.47125086085657</v>
+        <v>952.53079801185118</v>
       </c>
       <c r="F19" s="4">
         <f ca="1">'design-values'!F19+NORMINV(RAND(),0,100)</f>
-        <v>1776.6219759878149</v>
+        <v>1940.584038259515</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f ca="1">'design-values'!A20+RAND()*0.01</f>
-        <v>1.9528684865920864</v>
+        <v>1.9551753570651742</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10003.911342908727</v>
+        <v>10007.34652882485</v>
       </c>
       <c r="C20" s="4">
         <f ca="1">'design-values'!C20+NORMINV(RAND(),0,200)</f>
-        <v>4657.2404247086088</v>
+        <v>4575.7466986280224</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">'design-values'!D20+(RAND()*200-100)</f>
-        <v>1053.4229295859191</v>
+        <v>992.6699607628866</v>
       </c>
       <c r="E20" s="4">
         <f ca="1">'design-values'!E20+(RAND()*300-150)</f>
-        <v>868.24425102597786</v>
+        <v>769.04632724745329</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">'design-values'!F20+NORMINV(RAND(),0,100)</f>
-        <v>1709.9292568817104</v>
+        <v>1883.0153703810461</v>
       </c>
     </row>
   </sheetData>
@@ -10614,31 +10614,31 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">'with-noise'!C2</f>
-        <v>3579.3739866128653</v>
+        <v>3516.7940520394077</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">'design-values'!$C2+NORMINV(RAND(),0,150)</f>
-        <v>3434.2987147162034</v>
+        <v>3341.8276440799109</v>
       </c>
       <c r="E2" s="4">
         <f ca="1">'design-values'!$C2+NORMINV(RAND(),0,200)</f>
-        <v>3684.7851083721466</v>
+        <v>3645.0007987008348</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">'with-noise'!D2</f>
-        <v>1118.997323450154</v>
+        <v>1070.9186819018421</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">'with-noise'!E2</f>
-        <v>1756.4088201403545</v>
+        <v>1761.838150288052</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">'design-values'!$E2+(RAND()*100-50)</f>
-        <v>1657.7893150846289</v>
+        <v>1635.3132737404176</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">'with-noise'!F2</f>
-        <v>1921.5649046406595</v>
+        <v>1830.3337329657784</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10650,31 +10650,31 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,100)</f>
-        <v>3519.8668797244777</v>
+        <v>3503.8075496271695</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,150)</f>
-        <v>3556.767485711769</v>
+        <v>3528.2970684621287</v>
       </c>
       <c r="E3" s="4">
         <f ca="1">'design-values'!$C3+NORMINV(RAND(),0,200)</f>
-        <v>3457.6374486609616</v>
+        <v>3546.7125527693674</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">'with-noise'!D3</f>
-        <v>1154.0276571388654</v>
+        <v>1006.9447025661661</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">'with-noise'!E3</f>
-        <v>1531.332360125012</v>
+        <v>1489.2089439809401</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">'design-values'!$E3+(RAND()*100-50)</f>
-        <v>1564.0466531019313</v>
+        <v>1637.3368460169702</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">'with-noise'!F3</f>
-        <v>1701.8053245673295</v>
+        <v>1952.004850659833</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10686,31 +10686,31 @@
       </c>
       <c r="C4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,100)</f>
-        <v>3801.1838906107155</v>
+        <v>3561.73193894412</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,150)</f>
-        <v>3640.4871341803437</v>
+        <v>3324.4046942479281</v>
       </c>
       <c r="E4" s="4">
         <f ca="1">'design-values'!$C4+NORMINV(RAND(),0,200)</f>
-        <v>3977.621658556387</v>
+        <v>3569.0528335936965</v>
       </c>
       <c r="F4" s="4">
         <f ca="1">'with-noise'!D4</f>
-        <v>997.18408563514765</v>
+        <v>984.54962058572232</v>
       </c>
       <c r="G4" s="4">
         <f ca="1">'with-noise'!E4</f>
-        <v>1431.9019991227321</v>
+        <v>1540.5318978233456</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">'design-values'!$E4+(RAND()*100-50)</f>
-        <v>1557.1880256798936</v>
+        <v>1565.0284040693234</v>
       </c>
       <c r="I4" s="4">
         <f ca="1">'with-noise'!F4</f>
-        <v>1828.4520410610119</v>
+        <v>1826.2497284894712</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10722,31 +10722,31 @@
       </c>
       <c r="C5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,100)</f>
-        <v>3566.3423970174986</v>
+        <v>3721.1728236211338</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,150)</f>
-        <v>3718.7487086610718</v>
+        <v>3419.7925877477619</v>
       </c>
       <c r="E5" s="4">
         <f ca="1">'design-values'!$C5+NORMINV(RAND(),0,200)</f>
-        <v>3881.2043938245115</v>
+        <v>3645.1373964741979</v>
       </c>
       <c r="F5" s="4">
         <f ca="1">'with-noise'!D5</f>
-        <v>1078.3131257666851</v>
+        <v>1114.4102464096568</v>
       </c>
       <c r="G5" s="4">
         <f ca="1">'with-noise'!E5</f>
-        <v>1370.2736592230797</v>
+        <v>1339.4408675123832</v>
       </c>
       <c r="H5" s="4">
         <f ca="1">'design-values'!$E5+(RAND()*100-50)</f>
-        <v>1512.819783254308</v>
+        <v>1450.0019223213808</v>
       </c>
       <c r="I5" s="4">
         <f ca="1">'with-noise'!F5</f>
-        <v>1912.8683912666424</v>
+        <v>1921.0295740650874</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10758,31 +10758,31 @@
       </c>
       <c r="C6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,100)</f>
-        <v>3879.953286367966</v>
+        <v>3826.8254422768405</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,150)</f>
-        <v>3700.3894236275369</v>
+        <v>3615.0782647516503</v>
       </c>
       <c r="E6" s="4">
         <f ca="1">'design-values'!$C6+NORMINV(RAND(),0,200)</f>
-        <v>3563.4999783211847</v>
+        <v>3906.6337805686144</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">'with-noise'!D6</f>
-        <v>1112.0684924848242</v>
+        <v>982.73912828933658</v>
       </c>
       <c r="G6" s="4">
         <f ca="1">'with-noise'!E6</f>
-        <v>1417.8504182144854</v>
+        <v>1325.1960096828966</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">'design-values'!$E6+(RAND()*100-50)</f>
-        <v>1401.5637653023268</v>
+        <v>1425.0493772356699</v>
       </c>
       <c r="I6" s="4">
         <f ca="1">'with-noise'!F6</f>
-        <v>1810.8457734947997</v>
+        <v>1866.5828598665437</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10794,31 +10794,31 @@
       </c>
       <c r="C7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,100)</f>
-        <v>3652.9527982786558</v>
+        <v>3916.1560799130198</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,150)</f>
-        <v>4182.253599815368</v>
+        <v>3888.4569003204001</v>
       </c>
       <c r="E7" s="4">
         <f ca="1">'design-values'!$C7+NORMINV(RAND(),0,200)</f>
-        <v>3576.4523686911025</v>
+        <v>3963.9286924218327</v>
       </c>
       <c r="F7" s="4">
         <f ca="1">'with-noise'!D7</f>
-        <v>1091.6848815991777</v>
+        <v>1171.0865106392455</v>
       </c>
       <c r="G7" s="4">
         <f ca="1">'with-noise'!E7</f>
-        <v>1228.8175502124093</v>
+        <v>1449.4536745826128</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">'design-values'!$E7+(RAND()*100-50)</f>
-        <v>1348.549995767054</v>
+        <v>1417.3443881576522</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">'with-noise'!F7</f>
-        <v>1882.2843948550233</v>
+        <v>1714.5103099853477</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10830,31 +10830,31 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,100)</f>
-        <v>3661.8729246267135</v>
+        <v>3866.3269923661528</v>
       </c>
       <c r="D8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,150)</f>
-        <v>3697.1913870467611</v>
+        <v>3774.7711557928424</v>
       </c>
       <c r="E8" s="4">
         <f ca="1">'design-values'!$C8+NORMINV(RAND(),0,200)</f>
-        <v>3864.2768592871125</v>
+        <v>3732.8375496228687</v>
       </c>
       <c r="F8" s="4">
         <f ca="1">'with-noise'!D8</f>
-        <v>1079.1129332881985</v>
+        <v>1093.1210486533178</v>
       </c>
       <c r="G8" s="4">
         <f ca="1">'with-noise'!E8</f>
-        <v>1324.7851080524983</v>
+        <v>1202.4481034439586</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">'design-values'!$E8+(RAND()*100-50)</f>
-        <v>1372.9004383803303</v>
+        <v>1370.631645846215</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">'with-noise'!F8</f>
-        <v>1771.3969893375356</v>
+        <v>1841.1699314363673</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10866,31 +10866,31 @@
       </c>
       <c r="C9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,100)</f>
-        <v>4172.9141849826847</v>
+        <v>3913.0383762264869</v>
       </c>
       <c r="D9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,150)</f>
-        <v>3972.5857159822717</v>
+        <v>3841.6734976341445</v>
       </c>
       <c r="E9" s="4">
         <f ca="1">'design-values'!$C9+NORMINV(RAND(),0,200)</f>
-        <v>3729.2633521460971</v>
+        <v>3840.748328468334</v>
       </c>
       <c r="F9" s="4">
         <f ca="1">'with-noise'!D9</f>
-        <v>1074.4084535176355</v>
+        <v>1015.9363607246504</v>
       </c>
       <c r="G9" s="4">
         <f ca="1">'with-noise'!E9</f>
-        <v>1231.3226871390423</v>
+        <v>1294.2475184098982</v>
       </c>
       <c r="H9" s="4">
         <f ca="1">'design-values'!$E9+(RAND()*100-50)</f>
-        <v>1324.1436799768301</v>
+        <v>1314.6182852239315</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">'with-noise'!F9</f>
-        <v>1798.212900924204</v>
+        <v>1797.7072606880113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10902,31 +10902,31 @@
       </c>
       <c r="C10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,100)</f>
-        <v>4057.1995576635709</v>
+        <v>3945.314589397371</v>
       </c>
       <c r="D10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,150)</f>
-        <v>3912.73988345005</v>
+        <v>4082.2209939634272</v>
       </c>
       <c r="E10" s="4">
         <f ca="1">'design-values'!$C10+NORMINV(RAND(),0,200)</f>
-        <v>4588.7793180282151</v>
+        <v>4279.4699818492309</v>
       </c>
       <c r="F10" s="4">
         <f ca="1">'with-noise'!D10</f>
-        <v>1011.5210056978408</v>
+        <v>1096.1212459475655</v>
       </c>
       <c r="G10" s="4">
         <f ca="1">'with-noise'!E10</f>
-        <v>1235.8622582035205</v>
+        <v>1202.2547140882739</v>
       </c>
       <c r="H10" s="4">
         <f ca="1">'design-values'!$E10+(RAND()*100-50)</f>
-        <v>1222.3807141410298</v>
+        <v>1262.0723364042085</v>
       </c>
       <c r="I10" s="4">
         <f ca="1">'with-noise'!F10</f>
-        <v>1662.5606792115636</v>
+        <v>1736.2732140279095</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10938,31 +10938,31 @@
       </c>
       <c r="C11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,100)</f>
-        <v>3940.6238074776734</v>
+        <v>4055.5412833366272</v>
       </c>
       <c r="D11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,150)</f>
-        <v>4006.605234965396</v>
+        <v>4045.5091604068384</v>
       </c>
       <c r="E11" s="4">
         <f ca="1">'design-values'!$C11+NORMINV(RAND(),0,200)</f>
-        <v>4210.1608468893046</v>
+        <v>4015.511574877125</v>
       </c>
       <c r="F11" s="4">
         <f ca="1">'with-noise'!D11</f>
-        <v>1013.4013283405393</v>
+        <v>1142.4382836168506</v>
       </c>
       <c r="G11" s="4">
         <f ca="1">'with-noise'!E11</f>
-        <v>1306.9175399631656</v>
+        <v>1039.4571085296068</v>
       </c>
       <c r="H11" s="4">
         <f ca="1">'design-values'!$E11+(RAND()*100-50)</f>
-        <v>1214.2447572587953</v>
+        <v>1160.467309567241</v>
       </c>
       <c r="I11" s="4">
         <f ca="1">'with-noise'!F11</f>
-        <v>1987.8753857358406</v>
+        <v>1806.9765836993417</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10974,31 +10974,31 @@
       </c>
       <c r="C12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,100)</f>
-        <v>4292.4806449976013</v>
+        <v>4124.0220100576789</v>
       </c>
       <c r="D12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,150)</f>
-        <v>4239.9033976473784</v>
+        <v>4061.577585416871</v>
       </c>
       <c r="E12" s="4">
         <f ca="1">'design-values'!$C12+NORMINV(RAND(),0,200)</f>
-        <v>4092.3160091988698</v>
+        <v>4013.1534693942867</v>
       </c>
       <c r="F12" s="4">
         <f ca="1">'with-noise'!D12</f>
-        <v>1095.5992059654532</v>
+        <v>1022.788416033508</v>
       </c>
       <c r="G12" s="4">
         <f ca="1">'with-noise'!E12</f>
-        <v>1029.1664991939551</v>
+        <v>1050.2651326173257</v>
       </c>
       <c r="H12" s="4">
         <f ca="1">'design-values'!$E12+(RAND()*100-50)</f>
-        <v>1182.9773662056889</v>
+        <v>1189.8637102272098</v>
       </c>
       <c r="I12" s="4">
         <f ca="1">'with-noise'!F12</f>
-        <v>1796.7318070426431</v>
+        <v>1874.4720404470038</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -11010,31 +11010,31 @@
       </c>
       <c r="C13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,100)</f>
-        <v>4254.6885684928247</v>
+        <v>4165.2319216135529</v>
       </c>
       <c r="D13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,150)</f>
-        <v>4201.0506620127417</v>
+        <v>4133.2274575123329</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">'design-values'!$C13+NORMINV(RAND(),0,200)</f>
-        <v>3854.5066627631713</v>
+        <v>4321.9723140208616</v>
       </c>
       <c r="F13" s="4">
         <f ca="1">'with-noise'!D13</f>
-        <v>1131.7492053350861</v>
+        <v>1127.266216841587</v>
       </c>
       <c r="G13" s="4">
         <f ca="1">'with-noise'!E13</f>
-        <v>1215.6432457992012</v>
+        <v>1200.1198340289582</v>
       </c>
       <c r="H13" s="4">
         <f ca="1">'design-values'!$E13+(RAND()*100-50)</f>
-        <v>1125.0972915437919</v>
+        <v>1134.7658337792302</v>
       </c>
       <c r="I13" s="4">
         <f ca="1">'with-noise'!F13</f>
-        <v>1729.9959166163799</v>
+        <v>1796.8730929240069</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -11046,31 +11046,31 @@
       </c>
       <c r="C14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,100)</f>
-        <v>4247.5441458770565</v>
+        <v>4509.9645749951724</v>
       </c>
       <c r="D14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,150)</f>
-        <v>4172.5566875656477</v>
+        <v>4154.665056505447</v>
       </c>
       <c r="E14" s="4">
         <f ca="1">'design-values'!$C14+NORMINV(RAND(),0,200)</f>
-        <v>4397.9052224782545</v>
+        <v>4252.5275799559913</v>
       </c>
       <c r="F14" s="4">
         <f ca="1">'with-noise'!D14</f>
-        <v>1120.0907975468817</v>
+        <v>1107.4379794401013</v>
       </c>
       <c r="G14" s="4">
         <f ca="1">'with-noise'!E14</f>
-        <v>1166.8920710995214</v>
+        <v>966.2965546057153</v>
       </c>
       <c r="H14" s="4">
         <f ca="1">'design-values'!$E14+(RAND()*100-50)</f>
-        <v>1123.2562122164616</v>
+        <v>1083.2631026508225</v>
       </c>
       <c r="I14" s="4">
         <f ca="1">'with-noise'!F14</f>
-        <v>1999.012781912709</v>
+        <v>2080.0379166960897</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,31 +11082,31 @@
       </c>
       <c r="C15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,100)</f>
-        <v>4373.8007926058672</v>
+        <v>4386.7744736245331</v>
       </c>
       <c r="D15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,150)</f>
-        <v>4430.8719613354597</v>
+        <v>4190.2770536359076</v>
       </c>
       <c r="E15" s="4">
         <f ca="1">'design-values'!$C15+NORMINV(RAND(),0,200)</f>
-        <v>4210.5548173285588</v>
+        <v>4396.8443233469388</v>
       </c>
       <c r="F15" s="4">
         <f ca="1">'with-noise'!D15</f>
-        <v>1159.4586484128022</v>
+        <v>1145.823177104236</v>
       </c>
       <c r="G15" s="4">
         <f ca="1">'with-noise'!E15</f>
-        <v>1160.5872892530426</v>
+        <v>917.51668190085582</v>
       </c>
       <c r="H15" s="4">
         <f ca="1">'design-values'!$E15+(RAND()*100-50)</f>
-        <v>1007.7099857622326</v>
+        <v>1010.1934826778706</v>
       </c>
       <c r="I15" s="4">
         <f ca="1">'with-noise'!F15</f>
-        <v>1919.4604236319385</v>
+        <v>1892.0815844666572</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -11118,31 +11118,31 @@
       </c>
       <c r="C16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,100)</f>
-        <v>4490.9232842778147</v>
+        <v>4321.727122302058</v>
       </c>
       <c r="D16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,150)</f>
-        <v>4456.0337463869546</v>
+        <v>4232.9665374176939</v>
       </c>
       <c r="E16" s="4">
         <f ca="1">'design-values'!$C16+NORMINV(RAND(),0,200)</f>
-        <v>4194.9770610276828</v>
+        <v>4159.516610577849</v>
       </c>
       <c r="F16" s="4">
         <f ca="1">'with-noise'!D16</f>
-        <v>1098.6478136619733</v>
+        <v>1112.85941825182</v>
       </c>
       <c r="G16" s="4">
         <f ca="1">'with-noise'!E16</f>
-        <v>1126.4671022545961</v>
+        <v>1131.4078225535065</v>
       </c>
       <c r="H16" s="4">
         <f ca="1">'design-values'!$E16+(RAND()*100-50)</f>
-        <v>1014.4004400022989</v>
+        <v>1000.3008529101238</v>
       </c>
       <c r="I16" s="4">
         <f ca="1">'with-noise'!F16</f>
-        <v>1860.5295381651526</v>
+        <v>1720.3587767913889</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -11154,31 +11154,31 @@
       </c>
       <c r="C17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,100)</f>
-        <v>4320.2976401702581</v>
+        <v>4513.9125904871398</v>
       </c>
       <c r="D17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,150)</f>
-        <v>4219.4072498255355</v>
+        <v>4351.7002336326495</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">'design-values'!$C17+NORMINV(RAND(),0,200)</f>
-        <v>4287.981186175838</v>
+        <v>4370.4825730902412</v>
       </c>
       <c r="F17" s="4">
         <f ca="1">'with-noise'!D17</f>
-        <v>1026.6558248859917</v>
+        <v>1058.2029271276936</v>
       </c>
       <c r="G17" s="4">
         <f ca="1">'with-noise'!E17</f>
-        <v>857.03447234128805</v>
+        <v>844.84825511140411</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">'design-values'!$E17+(RAND()*100-50)</f>
-        <v>1003.6599345816012</v>
+        <v>1018.132301855183</v>
       </c>
       <c r="I17" s="4">
         <f ca="1">'with-noise'!F17</f>
-        <v>1746.9745117337607</v>
+        <v>1792.0520807702787</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -11190,31 +11190,31 @@
       </c>
       <c r="C18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,100)</f>
-        <v>4426.8766718409552</v>
+        <v>4345.1017303549652</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,150)</f>
-        <v>4534.1546640882752</v>
+        <v>4434.7803019399016</v>
       </c>
       <c r="E18" s="4">
         <f ca="1">'design-values'!$C18+NORMINV(RAND(),0,200)</f>
-        <v>4104.5943631574855</v>
+        <v>4471.3190023957732</v>
       </c>
       <c r="F18" s="4">
         <f ca="1">'with-noise'!D18</f>
-        <v>1081.2685672351242</v>
+        <v>1050.9437356753742</v>
       </c>
       <c r="G18" s="4">
         <f ca="1">'with-noise'!E18</f>
-        <v>1056.9578081263958</v>
+        <v>1020.8157328165084</v>
       </c>
       <c r="H18" s="4">
         <f ca="1">'design-values'!$E18+(RAND()*100-50)</f>
-        <v>911.36961754292236</v>
+        <v>935.85092807086153</v>
       </c>
       <c r="I18" s="4">
         <f ca="1">'with-noise'!F18</f>
-        <v>1764.9466015112514</v>
+        <v>1764.6666479647756</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -11226,31 +11226,31 @@
       </c>
       <c r="C19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,100)</f>
-        <v>4517.4691793955617</v>
+        <v>4323.2017076759184</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,150)</f>
-        <v>4491.6709039868447</v>
+        <v>4480.6918038238646</v>
       </c>
       <c r="E19" s="4">
         <f ca="1">'design-values'!$C19+NORMINV(RAND(),0,200)</f>
-        <v>4421.4589137096355</v>
+        <v>4613.1931681877631</v>
       </c>
       <c r="F19" s="4">
         <f ca="1">'with-noise'!D19</f>
-        <v>1035.2535771248934</v>
+        <v>1084.2956530416136</v>
       </c>
       <c r="G19" s="4">
         <f ca="1">'with-noise'!E19</f>
-        <v>900.47125086085657</v>
+        <v>952.53079801185118</v>
       </c>
       <c r="H19" s="4">
         <f ca="1">'design-values'!$E19+(RAND()*100-50)</f>
-        <v>939.00238846951947</v>
+        <v>874.91238516227475</v>
       </c>
       <c r="I19" s="4">
         <f ca="1">'with-noise'!F19</f>
-        <v>1776.6219759878149</v>
+        <v>1940.584038259515</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -11262,31 +11262,31 @@
       </c>
       <c r="C20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,100)</f>
-        <v>4591.7966595477747</v>
+        <v>4387.3216206233064</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,150)</f>
-        <v>4428.305847632033</v>
+        <v>4325.8409870915411</v>
       </c>
       <c r="E20" s="4">
         <f ca="1">'design-values'!$C20+NORMINV(RAND(),0,200)</f>
-        <v>4499.5916767878043</v>
+        <v>4327.966084022979</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">'with-noise'!D20</f>
-        <v>1053.4229295859191</v>
+        <v>992.6699607628866</v>
       </c>
       <c r="G20" s="4">
         <f ca="1">'with-noise'!E20</f>
-        <v>868.24425102597786</v>
+        <v>769.04632724745329</v>
       </c>
       <c r="H20" s="4">
         <f ca="1">'design-values'!$E20+(RAND()*100-50)</f>
-        <v>903.08715940078434</v>
+        <v>906.36815402476418</v>
       </c>
       <c r="I20" s="4">
         <f ca="1">'with-noise'!F20</f>
-        <v>1709.9292568817104</v>
+        <v>1883.0153703810461</v>
       </c>
     </row>
   </sheetData>
@@ -11300,7 +11300,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11350,19 +11350,19 @@
       </c>
       <c r="E2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3530.2886026479869</v>
+        <v>3313.9143572710182</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1177.2997064714755</v>
+        <v>1009.7730055259779</v>
       </c>
       <c r="G2" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1569.3119102659978</v>
+        <v>1587.4213474091384</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1753.7935932309181</v>
+        <v>1918.9918826706157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11381,19 +11381,19 @@
       </c>
       <c r="E3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3550.2866092924692</v>
+        <v>3645.3746565645379</v>
       </c>
       <c r="F3" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1016.6087105414033</v>
+        <v>1111.2888464407008</v>
       </c>
       <c r="G3" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1729.4480082419109</v>
+        <v>1602.5716855754133</v>
       </c>
       <c r="H3" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1943.0145128968254</v>
+        <v>2134.9415544481035</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11412,19 +11412,19 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3638.2552464281348</v>
+        <v>3646.0962838421283</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1076.8594062506304</v>
+        <v>1067.5357429103915</v>
       </c>
       <c r="G4" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1641.7276923275131</v>
+        <v>1612.6524769663415</v>
       </c>
       <c r="H4" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1786.510476112232</v>
+        <v>1829.0523184618166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11443,19 +11443,19 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3480.4066155921537</v>
+        <v>3534.0490986940636</v>
       </c>
       <c r="F5" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1095.5552036775946</v>
+        <v>936.23272837407126</v>
       </c>
       <c r="G5" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1698.2959540462055</v>
+        <v>1711.1648550919235</v>
       </c>
       <c r="H5" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1825.9119724954849</v>
+        <v>1851.2956828708068</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11474,19 +11474,19 @@
       </c>
       <c r="E6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3406.9352539533811</v>
+        <v>3485.8985285144458</v>
       </c>
       <c r="F6" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1050.530850611919</v>
+        <v>1115.2961976091992</v>
       </c>
       <c r="G6" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1649.9742233987843</v>
+        <v>1488.129825385874</v>
       </c>
       <c r="H6" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1896.8078077197679</v>
+        <v>1936.8317592466969</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11505,19 +11505,19 @@
       </c>
       <c r="E7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3539.3497771270463</v>
+        <v>3563.5266631235409</v>
       </c>
       <c r="F7" s="7">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1229.5455699121746</v>
+        <v>1069.2387421668284</v>
       </c>
       <c r="G7" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1693.3130402936381</v>
+        <v>1604.8395729147865</v>
       </c>
       <c r="H7" s="7">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1812.0212304551321</v>
+        <v>1817.8677336097483</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11536,19 +11536,19 @@
       </c>
       <c r="E8" s="8">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,100)</f>
-        <v>3559.48145944934</v>
+        <v>3399.9552590670651</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">'design-values'!D$3+NORMINV(RAND(),0,100)</f>
-        <v>1018.8200151308645</v>
+        <v>1249.6928395255013</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,100)</f>
-        <v>1572.5209251750971</v>
+        <v>1671.5192308479498</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">'design-values'!F$3+NORMINV(RAND(),0,100)</f>
-        <v>1910.2823933435243</v>
+        <v>1983.941844597512</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11567,19 +11567,19 @@
       </c>
       <c r="E9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4234.6286410295888</v>
+        <v>3984.7071363002983</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1089.8649857207301</v>
+        <v>1075.4109920123144</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1260.2678876936718</v>
+        <v>1152.3065726007856</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1792.1752181276136</v>
+        <v>1885.7669108719494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11598,19 +11598,19 @@
       </c>
       <c r="E10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4001.739132011638</v>
+        <v>4113.3930971830487</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1059.7198793333973</v>
+        <v>1038.3049359127363</v>
       </c>
       <c r="G10" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1042.8871248139296</v>
+        <v>1305.9075651069797</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1792.876034351312</v>
+        <v>1780.1520528758851</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11629,19 +11629,19 @@
       </c>
       <c r="E11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4071.3839939962691</v>
+        <v>3884.3672961361385</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1017.9797691205766</v>
+        <v>1161.6515373021043</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1258.1610975381491</v>
+        <v>1269.4805470707149</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1702.7447904744129</v>
+        <v>1807.2944890793328</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="E12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>4033.7901604102226</v>
+        <v>4030.3544505782634</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1062.5705392109958</v>
+        <v>1174.259786337971</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1331.7708090749536</v>
+        <v>1286.1421181100529</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1938.0628953519756</v>
+        <v>1953.8307628732496</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11691,19 +11691,19 @@
       </c>
       <c r="E13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>3995.0217641215859</v>
+        <v>3966.2962133632545</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1088.5320552096357</v>
+        <v>973.15903667341638</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1339.2468556129309</v>
+        <v>1292.414290638601</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>2107.9188209967842</v>
+        <v>1849.2552059966633</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11722,19 +11722,19 @@
       </c>
       <c r="E14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,100)</f>
-        <v>3912.2933642437501</v>
+        <v>3853.2777408599254</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">'design-values'!D$10+NORMINV(RAND(),0,100)</f>
-        <v>1193.7802814878978</v>
+        <v>1085.7589596718672</v>
       </c>
       <c r="G14" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,100)</f>
-        <v>1114.6711946156406</v>
+        <v>1397.9512100271393</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">'design-values'!F$10+NORMINV(RAND(),0,100)</f>
-        <v>1999.8036393375912</v>
+        <v>1937.8389232225343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,19 +11753,19 @@
       </c>
       <c r="E15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4321.429446121454</v>
+        <v>4334.5136362396124</v>
       </c>
       <c r="F15" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>950.94595652362261</v>
+        <v>967.80918387861675</v>
       </c>
       <c r="G15" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>937.94084502535145</v>
+        <v>881.88599445374007</v>
       </c>
       <c r="H15" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1818.8612158555622</v>
+        <v>1723.2396585947288</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11784,19 +11784,19 @@
       </c>
       <c r="E16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4373.3847310680221</v>
+        <v>4469.9324662698482</v>
       </c>
       <c r="F16" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1010.6132745721038</v>
+        <v>1092.3261474055789</v>
       </c>
       <c r="G16" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>906.58996111167221</v>
+        <v>895.45481005737076</v>
       </c>
       <c r="H16" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1640.3131931174175</v>
+        <v>1681.6480289362596</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11815,19 +11815,19 @@
       </c>
       <c r="E17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4377.3454809906134</v>
+        <v>4322.9336951106752</v>
       </c>
       <c r="F17" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>997.34581104154802</v>
+        <v>976.1179039444313</v>
       </c>
       <c r="G17" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>789.34385034671777</v>
+        <v>885.77496167631944</v>
       </c>
       <c r="H17" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1885.8369093599149</v>
+        <v>1648.5033720540234</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11846,19 +11846,19 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4375.2528553501024</v>
+        <v>4386.9946751627667</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1045.4796030868208</v>
+        <v>902.704927255661</v>
       </c>
       <c r="G18" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>988.26629550033113</v>
+        <v>1058.8424676086545</v>
       </c>
       <c r="H18" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1932.4345847071106</v>
+        <v>1679.9529941179271</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11877,19 +11877,19 @@
       </c>
       <c r="E19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4512.7122409331214</v>
+        <v>4593.0583761551052</v>
       </c>
       <c r="F19" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1269.713448497655</v>
+        <v>960.34032488893615</v>
       </c>
       <c r="G19" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>1017.6617849849383</v>
+        <v>949.69103457505719</v>
       </c>
       <c r="H19" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1753.527339093469</v>
+        <v>1930.0503099461598</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11908,19 +11908,19 @@
       </c>
       <c r="E20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,100)</f>
-        <v>4517.946840240138</v>
+        <v>4624.1689343096905</v>
       </c>
       <c r="F20" s="9">
         <f ca="1">'design-values'!D$18+NORMINV(RAND(),0,100)</f>
-        <v>1180.9918214098093</v>
+        <v>1027.3047793482599</v>
       </c>
       <c r="G20" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,100)</f>
-        <v>1031.2602856929766</v>
+        <v>1073.4125297902256</v>
       </c>
       <c r="H20" s="9">
         <f ca="1">'design-values'!F$18+NORMINV(RAND(),0,100)</f>
-        <v>1694.3297571066835</v>
+        <v>1733.4244301873341</v>
       </c>
     </row>
   </sheetData>
@@ -11993,31 +11993,31 @@
       </c>
       <c r="E2" s="7">
         <f ca="1">timeseries!E2</f>
-        <v>3530.2886026479869</v>
+        <v>3313.9143572710182</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3670.5980665946299</v>
+        <v>3548.4204317412286</v>
       </c>
       <c r="G2" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3680.2921961696034</v>
+        <v>3525.9201942533014</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">timeseries!F2</f>
-        <v>1177.2997064714755</v>
+        <v>1009.7730055259779</v>
       </c>
       <c r="I2" s="7">
         <f ca="1">timeseries!G2</f>
-        <v>1569.3119102659978</v>
+        <v>1587.4213474091384</v>
       </c>
       <c r="J2" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1416.5377370203444</v>
+        <v>1706.6628181931198</v>
       </c>
       <c r="K2" s="7">
         <f ca="1">timeseries!H2</f>
-        <v>1753.7935932309181</v>
+        <v>1918.9918826706157</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12036,31 +12036,31 @@
       </c>
       <c r="E3" s="7">
         <f ca="1">timeseries!E3</f>
-        <v>3550.2866092924692</v>
+        <v>3645.3746565645379</v>
       </c>
       <c r="F3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3587.8748436588417</v>
+        <v>3661.0584364391621</v>
       </c>
       <c r="G3" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3369.8753272514368</v>
+        <v>3467.509415175602</v>
       </c>
       <c r="H3" s="7">
         <f ca="1">timeseries!F3</f>
-        <v>1016.6087105414033</v>
+        <v>1111.2888464407008</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">timeseries!G3</f>
-        <v>1729.4480082419109</v>
+        <v>1602.5716855754133</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1493.799967602597</v>
+        <v>1687.1560570351276</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">timeseries!H3</f>
-        <v>1943.0145128968254</v>
+        <v>2134.9415544481035</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12079,31 +12079,31 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">timeseries!E4</f>
-        <v>3638.2552464281348</v>
+        <v>3646.0962838421283</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3608.1119715176774</v>
+        <v>3606.0930612827128</v>
       </c>
       <c r="G4" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3570.347495354456</v>
+        <v>3365.1892681018417</v>
       </c>
       <c r="H4" s="7">
         <f ca="1">timeseries!F4</f>
-        <v>1076.8594062506304</v>
+        <v>1067.5357429103915</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">timeseries!G4</f>
-        <v>1641.7276923275131</v>
+        <v>1612.6524769663415</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1395.9314635106205</v>
+        <v>1845.0110739492557</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">timeseries!H4</f>
-        <v>1786.510476112232</v>
+        <v>1829.0523184618166</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12122,31 +12122,31 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">timeseries!E5</f>
-        <v>3480.4066155921537</v>
+        <v>3534.0490986940636</v>
       </c>
       <c r="F5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3578.8950934856507</v>
+        <v>3438.4830308550263</v>
       </c>
       <c r="G5" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3402.8773020176804</v>
+        <v>3892.7808067628489</v>
       </c>
       <c r="H5" s="7">
         <f ca="1">timeseries!F5</f>
-        <v>1095.5552036775946</v>
+        <v>936.23272837407126</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">timeseries!G5</f>
-        <v>1698.2959540462055</v>
+        <v>1711.1648550919235</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1553.4618184346532</v>
+        <v>1563.7400034927803</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">timeseries!H5</f>
-        <v>1825.9119724954849</v>
+        <v>1851.2956828708068</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12165,31 +12165,31 @@
       </c>
       <c r="E6" s="7">
         <f ca="1">timeseries!E6</f>
-        <v>3406.9352539533811</v>
+        <v>3485.8985285144458</v>
       </c>
       <c r="F6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3424.068366643141</v>
+        <v>3564.3730613698026</v>
       </c>
       <c r="G6" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3579.1927548337635</v>
+        <v>3250.7845246292518</v>
       </c>
       <c r="H6" s="7">
         <f ca="1">timeseries!F6</f>
-        <v>1050.530850611919</v>
+        <v>1115.2961976091992</v>
       </c>
       <c r="I6" s="7">
         <f ca="1">timeseries!G6</f>
-        <v>1649.9742233987843</v>
+        <v>1488.129825385874</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1679.8014747452901</v>
+        <v>1561.1344932480747</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">timeseries!H6</f>
-        <v>1896.8078077197679</v>
+        <v>1936.8317592466969</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12208,31 +12208,31 @@
       </c>
       <c r="E7" s="7">
         <f ca="1">timeseries!E7</f>
-        <v>3539.3497771270463</v>
+        <v>3563.5266631235409</v>
       </c>
       <c r="F7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,150)</f>
-        <v>3567.9850802031538</v>
+        <v>3540.34741488193</v>
       </c>
       <c r="G7" s="7">
         <f ca="1">'design-values'!C$3+NORMINV(RAND(),0,200)</f>
-        <v>3662.482216140751</v>
+        <v>3522.269825655555</v>
       </c>
       <c r="H7" s="7">
         <f ca="1">timeseries!F7</f>
-        <v>1229.5455699121746</v>
+        <v>1069.2387421668284</v>
       </c>
       <c r="I7" s="7">
         <f ca="1">timeseries!G7</f>
-        <v>1693.3130402936381</v>
+        <v>1604.8395729147865</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">'design-values'!E$3+NORMINV(RAND(),0,150)</f>
-        <v>1597.5170662574837</v>
+        <v>1631.9006373960569</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">timeseries!H7</f>
-        <v>1812.0212304551321</v>
+        <v>1817.8677336097483</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12251,31 +12251,31 @@
       </c>
       <c r="E8" s="8">
         <f ca="1">timeseries!E8</f>
-        <v>3559.48145944934</v>
+        <v>3399.9552590670651</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>4046.0091003883526</v>
+        <v>4226.4095621258139</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4216.7171790015145</v>
+        <v>4072.8468942911504</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">timeseries!F8</f>
-        <v>1018.8200151308645</v>
+        <v>1249.6928395255013</v>
       </c>
       <c r="I8" s="8">
         <f ca="1">timeseries!G8</f>
-        <v>1572.5209251750971</v>
+        <v>1671.5192308479498</v>
       </c>
       <c r="J8" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1324.5976970409658</v>
+        <v>1398.3760182209405</v>
       </c>
       <c r="K8" s="8">
         <f ca="1">timeseries!H8</f>
-        <v>1910.2823933435243</v>
+        <v>1983.941844597512</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12294,31 +12294,31 @@
       </c>
       <c r="E9" s="8">
         <f ca="1">timeseries!E9</f>
-        <v>4234.6286410295888</v>
+        <v>3984.7071363002983</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3971.7635780960859</v>
+        <v>3980.0014527428311</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4020.6276642932971</v>
+        <v>3646.8854514436734</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">timeseries!F9</f>
-        <v>1089.8649857207301</v>
+        <v>1075.4109920123144</v>
       </c>
       <c r="I9" s="8">
         <f ca="1">timeseries!G9</f>
-        <v>1260.2678876936718</v>
+        <v>1152.3065726007856</v>
       </c>
       <c r="J9" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1415.5137239126523</v>
+        <v>1280.5028714963116</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">timeseries!H9</f>
-        <v>1792.1752181276136</v>
+        <v>1885.7669108719494</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12337,31 +12337,31 @@
       </c>
       <c r="E10" s="8">
         <f ca="1">timeseries!E10</f>
-        <v>4001.739132011638</v>
+        <v>4113.3930971830487</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>4154.3433819660759</v>
+        <v>4333.0325702377522</v>
       </c>
       <c r="G10" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4013.0129937943666</v>
+        <v>4029.6726848889034</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">timeseries!F10</f>
-        <v>1059.7198793333973</v>
+        <v>1038.3049359127363</v>
       </c>
       <c r="I10" s="8">
         <f ca="1">timeseries!G10</f>
-        <v>1042.8871248139296</v>
+        <v>1305.9075651069797</v>
       </c>
       <c r="J10" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1201.5486469238056</v>
+        <v>1349.8134883878965</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">timeseries!H10</f>
-        <v>1792.876034351312</v>
+        <v>1780.1520528758851</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12380,31 +12380,31 @@
       </c>
       <c r="E11" s="8">
         <f ca="1">timeseries!E11</f>
-        <v>4071.3839939962691</v>
+        <v>3884.3672961361385</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>4361.6324656854094</v>
+        <v>3952.7766554587224</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>3980.9934465782426</v>
+        <v>4202.1893747223612</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">timeseries!F11</f>
-        <v>1017.9797691205766</v>
+        <v>1161.6515373021043</v>
       </c>
       <c r="I11" s="8">
         <f ca="1">timeseries!G11</f>
-        <v>1258.1610975381491</v>
+        <v>1269.4805470707149</v>
       </c>
       <c r="J11" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1145.7646611183832</v>
+        <v>930.26040199931708</v>
       </c>
       <c r="K11" s="8">
         <f ca="1">timeseries!H11</f>
-        <v>1702.7447904744129</v>
+        <v>1807.2944890793328</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12423,31 +12423,31 @@
       </c>
       <c r="E12" s="8">
         <f ca="1">timeseries!E12</f>
-        <v>4033.7901604102226</v>
+        <v>4030.3544505782634</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3817.0761545790269</v>
+        <v>3981.4248517901228</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4177.8294057114263</v>
+        <v>4301.3384454215184</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">timeseries!F12</f>
-        <v>1062.5705392109958</v>
+        <v>1174.259786337971</v>
       </c>
       <c r="I12" s="8">
         <f ca="1">timeseries!G12</f>
-        <v>1331.7708090749536</v>
+        <v>1286.1421181100529</v>
       </c>
       <c r="J12" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1405.9854560592562</v>
+        <v>1465.7024817673075</v>
       </c>
       <c r="K12" s="8">
         <f ca="1">timeseries!H12</f>
-        <v>1938.0628953519756</v>
+        <v>1953.8307628732496</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12466,31 +12466,31 @@
       </c>
       <c r="E13" s="8">
         <f ca="1">timeseries!E13</f>
-        <v>3995.0217641215859</v>
+        <v>3966.2962133632545</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3998.2967635343307</v>
+        <v>4177.8376916301513</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>4165.3137010280498</v>
+        <v>4155.915679751578</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">timeseries!F13</f>
-        <v>1088.5320552096357</v>
+        <v>973.15903667341638</v>
       </c>
       <c r="I13" s="8">
         <f ca="1">timeseries!G13</f>
-        <v>1339.2468556129309</v>
+        <v>1292.414290638601</v>
       </c>
       <c r="J13" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1205.0020034971408</v>
+        <v>1213.1913121544424</v>
       </c>
       <c r="K13" s="8">
         <f ca="1">timeseries!H13</f>
-        <v>2107.9188209967842</v>
+        <v>1849.2552059966633</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12509,31 +12509,31 @@
       </c>
       <c r="E14" s="8">
         <f ca="1">timeseries!E14</f>
-        <v>3912.2933642437501</v>
+        <v>3853.2777408599254</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,150)</f>
-        <v>3803.5879194054228</v>
+        <v>3937.7361816176854</v>
       </c>
       <c r="G14" s="8">
         <f ca="1">'design-values'!C$10+NORMINV(RAND(),0,200)</f>
-        <v>3757.733011019096</v>
+        <v>4091.7646343154406</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">timeseries!F14</f>
-        <v>1193.7802814878978</v>
+        <v>1085.7589596718672</v>
       </c>
       <c r="I14" s="8">
         <f ca="1">timeseries!G14</f>
-        <v>1114.6711946156406</v>
+        <v>1397.9512100271393</v>
       </c>
       <c r="J14" s="8">
         <f ca="1">'design-values'!E$10+NORMINV(RAND(),0,150)</f>
-        <v>1148.3303303946245</v>
+        <v>1388.8813491734695</v>
       </c>
       <c r="K14" s="8">
         <f ca="1">timeseries!H14</f>
-        <v>1999.8036393375912</v>
+        <v>1937.8389232225343</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12552,31 +12552,31 @@
       </c>
       <c r="E15" s="9">
         <f ca="1">timeseries!E15</f>
-        <v>4321.429446121454</v>
+        <v>4334.5136362396124</v>
       </c>
       <c r="F15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4439.9890703077317</v>
+        <v>4309.3669755480387</v>
       </c>
       <c r="G15" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4561.2405038167326</v>
+        <v>4635.7136688990759</v>
       </c>
       <c r="H15" s="9">
         <f ca="1">timeseries!F15</f>
-        <v>950.94595652362261</v>
+        <v>967.80918387861675</v>
       </c>
       <c r="I15" s="9">
         <f ca="1">timeseries!G15</f>
-        <v>937.94084502535145</v>
+        <v>881.88599445374007</v>
       </c>
       <c r="J15" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>700.54445345677516</v>
+        <v>1068.1980286158134</v>
       </c>
       <c r="K15" s="9">
         <f ca="1">timeseries!H15</f>
-        <v>1818.8612158555622</v>
+        <v>1723.2396585947288</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12595,31 +12595,31 @@
       </c>
       <c r="E16" s="9">
         <f ca="1">timeseries!E16</f>
-        <v>4373.3847310680221</v>
+        <v>4469.9324662698482</v>
       </c>
       <c r="F16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4618.9676423311175</v>
+        <v>4363.4193246836694</v>
       </c>
       <c r="G16" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4640.0158851385268</v>
+        <v>4786.5061599292294</v>
       </c>
       <c r="H16" s="9">
         <f ca="1">timeseries!F16</f>
-        <v>1010.6132745721038</v>
+        <v>1092.3261474055789</v>
       </c>
       <c r="I16" s="9">
         <f ca="1">timeseries!G16</f>
-        <v>906.58996111167221</v>
+        <v>895.45481005737076</v>
       </c>
       <c r="J16" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>980.52734182724464</v>
+        <v>1225.3907763461248</v>
       </c>
       <c r="K16" s="9">
         <f ca="1">timeseries!H16</f>
-        <v>1640.3131931174175</v>
+        <v>1681.6480289362596</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -12638,31 +12638,31 @@
       </c>
       <c r="E17" s="9">
         <f ca="1">timeseries!E17</f>
-        <v>4377.3454809906134</v>
+        <v>4322.9336951106752</v>
       </c>
       <c r="F17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4331.2709449665117</v>
+        <v>4693.7854130190362</v>
       </c>
       <c r="G17" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4786.0019900990937</v>
+        <v>4400.36416783802</v>
       </c>
       <c r="H17" s="9">
         <f ca="1">timeseries!F17</f>
-        <v>997.34581104154802</v>
+        <v>976.1179039444313</v>
       </c>
       <c r="I17" s="9">
         <f ca="1">timeseries!G17</f>
-        <v>789.34385034671777</v>
+        <v>885.77496167631944</v>
       </c>
       <c r="J17" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>721.97258930622388</v>
+        <v>684.67266070387723</v>
       </c>
       <c r="K17" s="9">
         <f ca="1">timeseries!H17</f>
-        <v>1885.8369093599149</v>
+        <v>1648.5033720540234</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -12681,31 +12681,31 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">timeseries!E18</f>
-        <v>4375.2528553501024</v>
+        <v>4386.9946751627667</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4109.975375089256</v>
+        <v>4614.6641570657703</v>
       </c>
       <c r="G18" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4432.4744567061489</v>
+        <v>4478.7581689439594</v>
       </c>
       <c r="H18" s="9">
         <f ca="1">timeseries!F18</f>
-        <v>1045.4796030868208</v>
+        <v>902.704927255661</v>
       </c>
       <c r="I18" s="9">
         <f ca="1">timeseries!G18</f>
-        <v>988.26629550033113</v>
+        <v>1058.8424676086545</v>
       </c>
       <c r="J18" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>964.20468106333828</v>
+        <v>1119.9915284930753</v>
       </c>
       <c r="K18" s="9">
         <f ca="1">timeseries!H18</f>
-        <v>1932.4345847071106</v>
+        <v>1679.9529941179271</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -12724,31 +12724,31 @@
       </c>
       <c r="E19" s="9">
         <f ca="1">timeseries!E19</f>
-        <v>4512.7122409331214</v>
+        <v>4593.0583761551052</v>
       </c>
       <c r="F19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4343.4395979225583</v>
+        <v>4252.0397508949454</v>
       </c>
       <c r="G19" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4345.5038038553585</v>
+        <v>4313.1995109847503</v>
       </c>
       <c r="H19" s="9">
         <f ca="1">timeseries!F19</f>
-        <v>1269.713448497655</v>
+        <v>960.34032488893615</v>
       </c>
       <c r="I19" s="9">
         <f ca="1">timeseries!G19</f>
-        <v>1017.6617849849383</v>
+        <v>949.69103457505719</v>
       </c>
       <c r="J19" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>842.70019851786583</v>
+        <v>1025.2848008941692</v>
       </c>
       <c r="K19" s="9">
         <f ca="1">timeseries!H19</f>
-        <v>1753.527339093469</v>
+        <v>1930.0503099461598</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -12767,31 +12767,31 @@
       </c>
       <c r="E20" s="9">
         <f ca="1">timeseries!E20</f>
-        <v>4517.946840240138</v>
+        <v>4624.1689343096905</v>
       </c>
       <c r="F20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,150)</f>
-        <v>4690.3566546397487</v>
+        <v>4498.6262682259048</v>
       </c>
       <c r="G20" s="9">
         <f ca="1">'design-values'!C$18+NORMINV(RAND(),0,200)</f>
-        <v>4268.9796176888158</v>
+        <v>4451.3764714170811</v>
       </c>
       <c r="H20" s="9">
         <f ca="1">timeseries!F20</f>
-        <v>1180.9918214098093</v>
+        <v>1027.3047793482599</v>
       </c>
       <c r="I20" s="9">
         <f ca="1">timeseries!G20</f>
-        <v>1031.2602856929766</v>
+        <v>1073.4125297902256</v>
       </c>
       <c r="J20" s="9">
         <f ca="1">'design-values'!E$18+NORMINV(RAND(),0,150)</f>
-        <v>859.88370296009543</v>
+        <v>846.48375972704036</v>
       </c>
       <c r="K20" s="9">
         <f ca="1">timeseries!H20</f>
-        <v>1694.3297571066835</v>
+        <v>1733.4244301873341</v>
       </c>
     </row>
   </sheetData>

--- a/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
+++ b/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kaklise\src\Pyomo\pyomo\pyomo\contrib\parmest\examples\reactor_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F30624-0394-4632-94B9-7DAB20FF3076}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6CBE5415-4461-4190-BEAB-F042A3F7A6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{39CF39B4-2706-49C5-9F04-D4F3675D30AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{CFE57AA3-C983-4158-81A2-C8DF405551C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="with-noise" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,33 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>cd</t>
+    <t>sv</t>
   </si>
   <si>
-    <t>cc2</t>
+    <t>caf</t>
   </si>
   <si>
-    <t>cc1</t>
+    <t>ca</t>
   </si>
   <si>
     <t>cb</t>
   </si>
   <si>
-    <t>ca3</t>
+    <t>cc</t>
   </si>
   <si>
-    <t>ca2</t>
-  </si>
-  <si>
-    <t>ca1</t>
-  </si>
-  <si>
-    <t>caf</t>
-  </si>
-  <si>
-    <t>sv</t>
+    <t>cd</t>
   </si>
 </sst>
 </file>
@@ -90,8 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -135,11 +131,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'with-noise'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ca1</c:v>
+                  <c:v>ca</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -158,132 +154,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>'with-noise'!$A$2:$A$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.0596340158517379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1064596166323335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.1555462346703278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1.2098781300372743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>1.257216233637743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>1.3045024033132648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35</c:v>
+                  <c:v>1.3512772581281112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4</c:v>
+                  <c:v>1.4068657365319732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4502131182871114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>1.5006528174618241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5567435475403573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6</c:v>
+                  <c:v>1.603627764518339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>1.6587472646372148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7</c:v>
+                  <c:v>1.7004584802295071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7567463323688191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8</c:v>
+                  <c:v>1.8036864562110242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.85</c:v>
+                  <c:v>1.8540086179072734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9009072925013659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.95</c:v>
+                  <c:v>1.9575597198168904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>'with-noise'!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3364.424472211379</c:v>
+                  <c:v>3407.3997831966803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3567.2670733359728</c:v>
+                  <c:v>3631.5637653775821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3652.4146638406996</c:v>
+                  <c:v>3645.2630880224133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3605.4532568427703</c:v>
+                  <c:v>3536.1638119500449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3736.5683351341636</c:v>
+                  <c:v>3755.5941168263171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3914.6711310401815</c:v>
+                  <c:v>3598.304109404563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3786.3436080637239</c:v>
+                  <c:v>3938.9951438109993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4080.3242250001858</c:v>
+                  <c:v>4227.8520255981421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4057.2896366438049</c:v>
+                  <c:v>4163.1457831656098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3915.8316168425845</c:v>
+                  <c:v>3896.3378320215929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4201.5416414855281</c:v>
+                  <c:v>3801.609361491744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4275.1571881185773</c:v>
+                  <c:v>4128.3876589004021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4231.8746226158446</c:v>
+                  <c:v>4385.4135614422612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4365.5776591550048</c:v>
+                  <c:v>3960.754014734287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4239.8971592118005</c:v>
+                  <c:v>4180.8460224162145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4209.7639843362749</c:v>
+                  <c:v>4212.3125266150982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4671.3868362918265</c:v>
+                  <c:v>4200.1703410947912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4520.1999457252859</c:v>
+                  <c:v>4748.6150008843379</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4437.6109311209939</c:v>
+                  <c:v>4941.2788931107825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,7 +287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A300-47C0-AC1E-BB703CD7B296}"/>
+              <c16:uniqueId val="{00000000-CD84-4597-AC6B-63FC29FC4711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -300,337 +296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ca2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3363.1321085874201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3345.2101160547199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3784.87843603173</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3718.3270371682647</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3731.7705060559206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3751.560019801997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3969.4570336421393</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3721.2646493846805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4142.6554186626254</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3953.6784963322302</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4263.2951059311754</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4061.1482593443407</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4344.6780092358731</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4259.0795071853172</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4071.1495487149209</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4541.7694337532357</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4444.9411563993363</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4813.383879754474</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4511.8476397280547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A300-47C0-AC1E-BB703CD7B296}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ca3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3759.0994173648965</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3906.0000953656508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3301.3368174011562</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3678.5093060133786</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3854.718022194646</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3722.5060051409878</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3827.2481723134747</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4046.7017872436199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4512.1467680203123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4027.9656727791726</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4015.3444311291546</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3914.7845460167596</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4006.8159174743505</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4274.7061730345149</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4598.7433590915143</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4439.9890642159062</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4667.2273604520788</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4753.22096897356</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4405.3891895271363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A300-47C0-AC1E-BB703CD7B296}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'with-noise'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -653,132 +319,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>'with-noise'!$A$2:$A$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.0596340158517379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1064596166323335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.1555462346703278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1.2098781300372743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>1.257216233637743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>1.3045024033132648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35</c:v>
+                  <c:v>1.3512772581281112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4</c:v>
+                  <c:v>1.4068657365319732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4502131182871114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>1.5006528174618241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5567435475403573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6</c:v>
+                  <c:v>1.603627764518339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>1.6587472646372148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7</c:v>
+                  <c:v>1.7004584802295071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7567463323688191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8</c:v>
+                  <c:v>1.8036864562110242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.85</c:v>
+                  <c:v>1.8540086179072734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9009072925013659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.95</c:v>
+                  <c:v>1.9575597198168904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>'with-noise'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1086.9407710307528</c:v>
+                  <c:v>945.36920073676663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>990.77968330861745</c:v>
+                  <c:v>1247.1737815284853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1091.8684157255652</c:v>
+                  <c:v>971.44857073434378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1140.7228614021519</c:v>
+                  <c:v>1225.8837039662949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1032.7982094713875</c:v>
+                  <c:v>1263.8388840922598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1167.0184319644177</c:v>
+                  <c:v>1153.3775444780024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1160.787485358388</c:v>
+                  <c:v>971.39513262926812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1134.2073822256602</c:v>
+                  <c:v>986.29458189678303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1061.7858826211195</c:v>
+                  <c:v>972.51994491067217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028.3160568077285</c:v>
+                  <c:v>977.28179006104915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1031.1878546220285</c:v>
+                  <c:v>1040.6337531761835</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>989.59955494492897</c:v>
+                  <c:v>1198.6062214937594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1006.8672168727494</c:v>
+                  <c:v>1158.6736564932362</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>971.833508000189</c:v>
+                  <c:v>1194.9461068184405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1158.8409520494379</c:v>
+                  <c:v>1244.1576717736978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>991.23796013024798</c:v>
+                  <c:v>1240.6592103163543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1049.6467374909123</c:v>
+                  <c:v>1164.0263462877076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1093.7104183256822</c:v>
+                  <c:v>1037.8506158644479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1107.8825493585355</c:v>
+                  <c:v>1038.459878422057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,20 +452,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A300-47C0-AC1E-BB703CD7B296}"/>
+              <c16:uniqueId val="{00000001-CD84-4597-AC6B-63FC29FC4711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'with-noise'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cc1</c:v>
+                  <c:v>cc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -818,132 +484,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>'with-noise'!$A$2:$A$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.0596340158517379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1064596166323335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.1555462346703278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1.2098781300372743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>1.257216233637743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>1.3045024033132648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35</c:v>
+                  <c:v>1.3512772581281112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4</c:v>
+                  <c:v>1.4068657365319732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4502131182871114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>1.5006528174618241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5567435475403573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6</c:v>
+                  <c:v>1.603627764518339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>1.6587472646372148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7</c:v>
+                  <c:v>1.7004584802295071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7567463323688191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8</c:v>
+                  <c:v>1.8036864562110242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.85</c:v>
+                  <c:v>1.8540086179072734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9009072925013659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.95</c:v>
+                  <c:v>1.9575597198168904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$20</c:f>
+              <c:f>'with-noise'!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1662.7846655793478</c:v>
+                  <c:v>1717.1215406657902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1654.0999277131848</c:v>
+                  <c:v>1694.0651098445071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1624.1534217463054</c:v>
+                  <c:v>1552.2555355043428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1422.9827924816791</c:v>
+                  <c:v>1351.1057535846371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1409.1768348928076</c:v>
+                  <c:v>1562.332209589068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1268.00270324393</c:v>
+                  <c:v>1413.367131174198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1398.5843231017461</c:v>
+                  <c:v>1416.9111927306299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1354.5270610521945</c:v>
+                  <c:v>1188.6944344918684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1275.9803274441024</c:v>
+                  <c:v>1085.5989488614623</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1263.1751793743799</c:v>
+                  <c:v>1132.927815917378</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1080.9320442550261</c:v>
+                  <c:v>1157.6808538885316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1119.277408156652</c:v>
+                  <c:v>1150.0132317974912</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1108.74990570822</c:v>
+                  <c:v>970.00462261327675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1136.8787683437004</c:v>
+                  <c:v>1091.163248969375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>957.37194533560705</c:v>
+                  <c:v>1034.8367021170336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1034.7949546288521</c:v>
+                  <c:v>1010.3340884504669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>841.73035775447966</c:v>
+                  <c:v>931.53427774006082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1060.8802625133089</c:v>
+                  <c:v>1065.9387030184241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>883.09523529095929</c:v>
+                  <c:v>996.00224432072139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,181 +617,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A300-47C0-AC1E-BB703CD7B296}"/>
+              <c16:uniqueId val="{00000002-CD84-4597-AC6B-63FC29FC4711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cc2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1695.0921562182089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1536.6983028358727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1496.2315025084181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1549.7160089051204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1410.1055530349695</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1291.5696641652009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1276.7519435386532</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1221.0050406118967</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1212.0766369053604</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1167.7443791311923</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1236.5499505054622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1032.2321572676042</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1155.0792210503225</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>958.57506121064876</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1086.8077800438627</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>920.78179783745054</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850.71508264602357</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>898.48855797480155</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>921.87151196514981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A300-47C0-AC1E-BB703CD7B296}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>'with-noise'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1148,132 +649,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>'with-noise'!$A$2:$A$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.0596340158517379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1064596166323335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1.1555462346703278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1.2098781300372743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>1.257216233637743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>1.3045024033132648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35</c:v>
+                  <c:v>1.3512772581281112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4</c:v>
+                  <c:v>1.4068657365319732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4502131182871114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>1.5006528174618241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5567435475403573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6</c:v>
+                  <c:v>1.603627764518339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>1.6587472646372148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7</c:v>
+                  <c:v>1.7004584802295071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7567463323688191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8</c:v>
+                  <c:v>1.8036864562110242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.85</c:v>
+                  <c:v>1.8540086179072734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9009072925013659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.95</c:v>
+                  <c:v>1.9575597198168904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>'with-noise'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1867.6168448166964</c:v>
+                  <c:v>1931.910517729192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1765.394452921287</c:v>
+                  <c:v>1960.5572336284529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1996.390129561591</c:v>
+                  <c:v>1898.7513162891826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1690.0687331209706</c:v>
+                  <c:v>1757.0081269269131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1913.7570546135016</c:v>
+                  <c:v>1952.1953115153992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1791.2776923284011</c:v>
+                  <c:v>1903.3022478788475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1728.5280672383219</c:v>
+                  <c:v>1794.9327139665097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1887.8817738524072</c:v>
+                  <c:v>1821.5464754559896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1915.611400834857</c:v>
+                  <c:v>1908.7402660964913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1965.5710135420404</c:v>
+                  <c:v>2080.5478728081816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1812.8773282596039</c:v>
+                  <c:v>1779.9927631263567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1795.3923028617896</c:v>
+                  <c:v>1581.9243270271302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1864.8141307997303</c:v>
+                  <c:v>1629.8149453645949</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1562.017807142995</c:v>
+                  <c:v>1835.4580646219438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1936.3995618729336</c:v>
+                  <c:v>1739.4632517109003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1889.9771278156836</c:v>
+                  <c:v>1739.6238302653551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1808.7411134275151</c:v>
+                  <c:v>1783.6796502239558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1747.506379881374</c:v>
+                  <c:v>1685.5601491812718</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1708.4185502811542</c:v>
+                  <c:v>1855.6585095038029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A300-47C0-AC1E-BB703CD7B296}"/>
+              <c16:uniqueId val="{00000003-CD84-4597-AC6B-63FC29FC4711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1293,11 +794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="563178832"/>
-        <c:axId val="563172928"/>
+        <c:axId val="563148984"/>
+        <c:axId val="563153248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="563178832"/>
+        <c:axId val="563148984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1360,7 +861,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1397,12 +898,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563172928"/>
+        <c:crossAx val="563153248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563172928"/>
+        <c:axId val="563153248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1460,7 +961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563178832"/>
+        <c:crossAx val="563148984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,13 +1608,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2123,7 +1624,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17424DB3-05B6-4FCD-9D3B-2AD4191ECD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653CCB8B-DA11-4116-BCE4-8D308BCA9762}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,6 +1645,365 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="design-values"/>
+      <sheetName val="with-noise"/>
+      <sheetName val="multisensor"/>
+      <sheetName val="timeseries"/>
+      <sheetName val="multisensor-timeseries"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>ca</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>cb</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>cc</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>cd</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1.0544715903328989</v>
+          </cell>
+          <cell r="C2">
+            <v>3437.1676315976483</v>
+          </cell>
+          <cell r="D2">
+            <v>1051.5901665117512</v>
+          </cell>
+          <cell r="E2">
+            <v>1721.4306921437797</v>
+          </cell>
+          <cell r="F2">
+            <v>2017.9200988041305</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1.1092034090428124</v>
+          </cell>
+          <cell r="C3">
+            <v>3512.7002501958959</v>
+          </cell>
+          <cell r="D3">
+            <v>1081.2865924939294</v>
+          </cell>
+          <cell r="E3">
+            <v>1715.245917062422</v>
+          </cell>
+          <cell r="F3">
+            <v>1890.7568119850541</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1.158926589566962</v>
+          </cell>
+          <cell r="C4">
+            <v>3504.6305168063341</v>
+          </cell>
+          <cell r="D4">
+            <v>1088.3616301347349</v>
+          </cell>
+          <cell r="E4">
+            <v>1413.7528172308705</v>
+          </cell>
+          <cell r="F4">
+            <v>1742.1782784561503</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1.209294017307817</v>
+          </cell>
+          <cell r="C5">
+            <v>3635.242284984351</v>
+          </cell>
+          <cell r="D5">
+            <v>1065.6431994097877</v>
+          </cell>
+          <cell r="E5">
+            <v>1575.3949700409437</v>
+          </cell>
+          <cell r="F5">
+            <v>2009.4131168165134</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1.2506944987963411</v>
+          </cell>
+          <cell r="C6">
+            <v>3554.3974745752635</v>
+          </cell>
+          <cell r="D6">
+            <v>1054.6647427609696</v>
+          </cell>
+          <cell r="E6">
+            <v>1543.6101556115409</v>
+          </cell>
+          <cell r="F6">
+            <v>2006.0401132711906</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1.3095855432156553</v>
+          </cell>
+          <cell r="C7">
+            <v>3540.2571517920633</v>
+          </cell>
+          <cell r="D7">
+            <v>1008.3932411295133</v>
+          </cell>
+          <cell r="E7">
+            <v>1465.0867667759512</v>
+          </cell>
+          <cell r="F7">
+            <v>1657.0714287861886</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1.3577885841901425</v>
+          </cell>
+          <cell r="C8">
+            <v>3745.6151177435895</v>
+          </cell>
+          <cell r="D8">
+            <v>1022.0621836183745</v>
+          </cell>
+          <cell r="E8">
+            <v>1422.4693852005155</v>
+          </cell>
+          <cell r="F8">
+            <v>1860.1681410802219</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1.4042581588236853</v>
+          </cell>
+          <cell r="C9">
+            <v>3920.2491154693816</v>
+          </cell>
+          <cell r="D9">
+            <v>1169.067391530398</v>
+          </cell>
+          <cell r="E9">
+            <v>1294.0351514765703</v>
+          </cell>
+          <cell r="F9">
+            <v>1910.2390160592574</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1.4501084233822239</v>
+          </cell>
+          <cell r="C10">
+            <v>3771.7693636393515</v>
+          </cell>
+          <cell r="D10">
+            <v>1025.2812267343218</v>
+          </cell>
+          <cell r="E10">
+            <v>1268.8097650535342</v>
+          </cell>
+          <cell r="F10">
+            <v>1800.2461177829869</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1.5064670920362282</v>
+          </cell>
+          <cell r="C11">
+            <v>3897.2879016455977</v>
+          </cell>
+          <cell r="D11">
+            <v>1006.6403742589831</v>
+          </cell>
+          <cell r="E11">
+            <v>1074.0768374156364</v>
+          </cell>
+          <cell r="F11">
+            <v>1960.1855738063944</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1.5518630534945448</v>
+          </cell>
+          <cell r="C12">
+            <v>4137.7927657940863</v>
+          </cell>
+          <cell r="D12">
+            <v>1145.3512944691595</v>
+          </cell>
+          <cell r="E12">
+            <v>1130.0004522748652</v>
+          </cell>
+          <cell r="F12">
+            <v>1956.7406112287299</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1.6041478815736687</v>
+          </cell>
+          <cell r="C13">
+            <v>4111.1062829131588</v>
+          </cell>
+          <cell r="D13">
+            <v>1064.8211424198601</v>
+          </cell>
+          <cell r="E13">
+            <v>1212.5801269481658</v>
+          </cell>
+          <cell r="F13">
+            <v>1987.2174598960769</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1.652914262599573</v>
+          </cell>
+          <cell r="C14">
+            <v>4261.2096274152382</v>
+          </cell>
+          <cell r="D14">
+            <v>1006.6889472135045</v>
+          </cell>
+          <cell r="E14">
+            <v>1104.2314771841909</v>
+          </cell>
+          <cell r="F14">
+            <v>1631.3806714861867</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1.7099579383754122</v>
+          </cell>
+          <cell r="C15">
+            <v>4475.5680405142484</v>
+          </cell>
+          <cell r="D15">
+            <v>1058.7306927462</v>
+          </cell>
+          <cell r="E15">
+            <v>897.85248603648893</v>
+          </cell>
+          <cell r="F15">
+            <v>1820.3899149758977</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1.7519703490620298</v>
+          </cell>
+          <cell r="C16">
+            <v>4344.6483266899404</v>
+          </cell>
+          <cell r="D16">
+            <v>1118.995932944284</v>
+          </cell>
+          <cell r="E16">
+            <v>876.62387000091417</v>
+          </cell>
+          <cell r="F16">
+            <v>1899.5191222408857</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1.8020980900840025</v>
+          </cell>
+          <cell r="C17">
+            <v>4358.3759566439567</v>
+          </cell>
+          <cell r="D17">
+            <v>1150.8475577479012</v>
+          </cell>
+          <cell r="E17">
+            <v>853.08226632810943</v>
+          </cell>
+          <cell r="F17">
+            <v>1789.9363136223126</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1.8589685965642311</v>
+          </cell>
+          <cell r="C18">
+            <v>4419.7229825702243</v>
+          </cell>
+          <cell r="D18">
+            <v>1013.0757800628344</v>
+          </cell>
+          <cell r="E18">
+            <v>1082.5917592644228</v>
+          </cell>
+          <cell r="F18">
+            <v>1814.5523670185787</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1.9055576637599647</v>
+          </cell>
+          <cell r="C19">
+            <v>4497.6417273100797</v>
+          </cell>
+          <cell r="D19">
+            <v>1132.6002094495555</v>
+          </cell>
+          <cell r="E19">
+            <v>798.37220526763247</v>
+          </cell>
+          <cell r="F19">
+            <v>1820.351298016569</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1.9586209555856546</v>
+          </cell>
+          <cell r="C20">
+            <v>4765.7866420908204</v>
+          </cell>
+          <cell r="D20">
+            <v>1088.6828166233554</v>
+          </cell>
+          <cell r="E20">
+            <v>946.78394143495575</v>
+          </cell>
+          <cell r="F20">
+            <v>1634.7433441648791</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2442,593 +2302,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88096D7-A1A6-4AB9-BB18-2C540FFF0FA6}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804E0B0-E410-47D1-9D5B-424F07857621}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.05</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3364.424472211379</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3363.1321085874201</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3759.0994173648965</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1086.9407710307528</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1662.7846655793478</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1695.0921562182089</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1867.6168448166964</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1.0596340158517379</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10009.921946233595</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3407.3997831966803</v>
+      </c>
+      <c r="D2" s="3">
+        <v>945.36920073676663</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1717.1215406657902</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1931.910517729192</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3567.2670733359728</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3345.2101160547199</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3906.0000953656508</v>
-      </c>
-      <c r="F3" s="1">
-        <v>990.77968330861745</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1654.0999277131848</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1536.6983028358727</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1765.394452921287</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.1064596166323335</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10009.613907478146</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3631.5637653775821</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1247.1737815284853</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1694.0651098445071</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1960.5572336284529</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3652.4146638406996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3784.87843603173</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3301.3368174011562</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1091.8684157255652</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1624.1534217463054</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1496.2315025084181</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1996.390129561591</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.1555462346703278</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10009.944271111202</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3645.2630880224133</v>
+      </c>
+      <c r="D4" s="3">
+        <v>971.44857073434378</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1552.2555355043428</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1898.7513162891826</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.2</v>
-      </c>
-      <c r="B5">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3605.4532568427703</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3718.3270371682647</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3678.5093060133786</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1140.7228614021519</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1422.9827924816791</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1549.7160089051204</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1690.0687331209706</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.2098781300372743</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10002.469176304974</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3536.1638119500449</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1225.8837039662949</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1351.1057535846371</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1757.0081269269131</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.25</v>
-      </c>
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3736.5683351341636</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3731.7705060559206</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3854.718022194646</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1032.7982094713875</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1409.1768348928076</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1410.1055530349695</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1913.7570546135016</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.257216233637743</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10001.739949736913</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3755.5941168263171</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1263.8388840922598</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1562.332209589068</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1952.1953115153992</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.3</v>
-      </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3914.6711310401815</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3751.560019801997</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3722.5060051409878</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1167.0184319644177</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1268.00270324393</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1291.5696641652009</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1791.2776923284011</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.3045024033132648</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10007.485904886073</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3598.304109404563</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1153.3775444780024</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1413.367131174198</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1903.3022478788475</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.35</v>
-      </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3786.3436080637239</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3969.4570336421393</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3827.2481723134747</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1160.787485358388</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1398.5843231017461</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1276.7519435386532</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1728.5280672383219</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1.3512772581281112</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10007.485365287963</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3938.9951438109993</v>
+      </c>
+      <c r="D8" s="3">
+        <v>971.39513262926812</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1416.9111927306299</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1794.9327139665097</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.4</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4080.3242250001858</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3721.2646493846805</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4046.7017872436199</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1134.2073822256602</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1354.5270610521945</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1221.0050406118967</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1887.8817738524072</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1.4068657365319732</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10009.047202455315</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4227.8520255981421</v>
+      </c>
+      <c r="D9" s="3">
+        <v>986.29458189678303</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1188.6944344918684</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1821.5464754559896</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.45</v>
-      </c>
-      <c r="B10">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4057.2896366438049</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4142.6554186626254</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4512.1467680203123</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1061.7858826211195</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1275.9803274441024</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1212.0766369053604</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1915.611400834857</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1.4502131182871114</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10001.203135857751</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4163.1457831656098</v>
+      </c>
+      <c r="D10" s="3">
+        <v>972.51994491067217</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1085.5989488614623</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1908.7402660964913</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.5</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3915.8316168425845</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3953.6784963322302</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4027.9656727791726</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1028.3160568077285</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1263.1751793743799</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1167.7443791311923</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1965.5710135420404</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1.5006528174618241</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10001.600548857243</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3896.3378320215929</v>
+      </c>
+      <c r="D11" s="3">
+        <v>977.28179006104915</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1132.927815917378</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2080.5478728081816</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.55</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4201.5416414855281</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4263.2951059311754</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4015.3444311291546</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1031.1878546220285</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1080.9320442550261</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1236.5499505054622</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1812.8773282596039</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1.5567435475403573</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10003.724549774319</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3801.609361491744</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1040.6337531761835</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1157.6808538885316</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1779.9927631263567</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.6</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4275.1571881185773</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4061.1482593443407</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3914.7845460167596</v>
-      </c>
-      <c r="F13" s="1">
-        <v>989.59955494492897</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1119.277408156652</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1032.2321572676042</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1795.3923028617896</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1.603627764518339</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10007.726758762226</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4128.3876589004021</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1198.6062214937594</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1150.0132317974912</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1581.9243270271302</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.65</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4231.8746226158446</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4344.6780092358731</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4006.8159174743505</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1006.8672168727494</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1108.74990570822</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1155.0792210503225</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1864.8141307997303</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1.6587472646372148</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10002.26506198143</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4385.4135614422612</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1158.6736564932362</v>
+      </c>
+      <c r="E14" s="3">
+        <v>970.00462261327675</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1629.8149453645949</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.7</v>
-      </c>
-      <c r="B15">
-        <v>10000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4365.5776591550048</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4259.0795071853172</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4274.7061730345149</v>
-      </c>
-      <c r="F15" s="1">
-        <v>971.833508000189</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1136.8787683437004</v>
-      </c>
-      <c r="H15" s="1">
-        <v>958.57506121064876</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1562.017807142995</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1.7004584802295071</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10007.12215601669</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3960.754014734287</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1194.9461068184405</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1091.163248969375</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1835.4580646219438</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.75</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4239.8971592118005</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4071.1495487149209</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4598.7433590915143</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1158.8409520494379</v>
-      </c>
-      <c r="G16" s="1">
-        <v>957.37194533560705</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1086.8077800438627</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1936.3995618729336</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.7567463323688191</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10007.129845376392</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4180.8460224162145</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1244.1576717736978</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1034.8367021170336</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1739.4632517109003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.8</v>
-      </c>
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4209.7639843362749</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4541.7694337532357</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4439.9890642159062</v>
-      </c>
-      <c r="F17" s="1">
-        <v>991.23796013024798</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1034.7949546288521</v>
-      </c>
-      <c r="H17" s="1">
-        <v>920.78179783745054</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1889.9771278156836</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.8036864562110242</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10001.122906820541</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4212.3125266150982</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1240.6592103163543</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1010.3340884504669</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1739.6238302653551</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.85</v>
-      </c>
-      <c r="B18">
-        <v>10000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4671.3868362918265</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4444.9411563993363</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4667.2273604520788</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1049.6467374909123</v>
-      </c>
-      <c r="G18" s="1">
-        <v>841.73035775447966</v>
-      </c>
-      <c r="H18" s="1">
-        <v>850.71508264602357</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1808.7411134275151</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1.8540086179072734</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10003.827980274295</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4200.1703410947912</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1164.0263462877076</v>
+      </c>
+      <c r="E18" s="3">
+        <v>931.53427774006082</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1783.6796502239558</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.9</v>
-      </c>
-      <c r="B19">
-        <v>10000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4520.1999457252859</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4813.383879754474</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4753.22096897356</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1093.7104183256822</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1060.8802625133089</v>
-      </c>
-      <c r="H19" s="1">
-        <v>898.48855797480155</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1747.506379881374</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1.9009072925013659</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10009.09874923524</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4748.6150008843379</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1037.8506158644479</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1065.9387030184241</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1685.5601491812718</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.95</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4437.6109311209939</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4511.8476397280547</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4405.3891895271363</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1107.8825493585355</v>
-      </c>
-      <c r="G20" s="1">
-        <v>883.09523529095929</v>
-      </c>
-      <c r="H20" s="1">
-        <v>921.87151196514981</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1708.4185502811542</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1.9575597198168904</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10008.781474878793</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4941.2788931107825</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1038.459878422057</v>
+      </c>
+      <c r="E20" s="3">
+        <v>996.00224432072139</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1855.6585095038029</v>
       </c>
     </row>
   </sheetData>

--- a/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
+++ b/pyomo/contrib/parmest/examples/reactor_design/reactor_data.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kaklise\src\Pyomo\pyomo\pyomo\contrib\parmest\examples\reactor_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6CBE5415-4461-4190-BEAB-F042A3F7A6CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C7D657F-93BF-4BB5-B67F-2D74B2F20DC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{CFE57AA3-C983-4158-81A2-C8DF405551C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="with-noise" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -131,7 +128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'with-noise'!$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -154,7 +151,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'with-noise'!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -220,7 +217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'with-noise'!$C$2:$C$20</c:f>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -296,7 +293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'with-noise'!$D$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -319,7 +316,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'with-noise'!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -385,7 +382,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'with-noise'!$D$2:$D$20</c:f>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -461,7 +458,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'with-noise'!$E$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,7 +481,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'with-noise'!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -550,7 +547,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'with-noise'!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -626,7 +623,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'with-noise'!$F$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -649,7 +646,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'with-noise'!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -715,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'with-noise'!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1647,365 +1644,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="design-values"/>
-      <sheetName val="with-noise"/>
-      <sheetName val="multisensor"/>
-      <sheetName val="timeseries"/>
-      <sheetName val="multisensor-timeseries"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>ca</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cb</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>cc</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>cd</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1.0544715903328989</v>
-          </cell>
-          <cell r="C2">
-            <v>3437.1676315976483</v>
-          </cell>
-          <cell r="D2">
-            <v>1051.5901665117512</v>
-          </cell>
-          <cell r="E2">
-            <v>1721.4306921437797</v>
-          </cell>
-          <cell r="F2">
-            <v>2017.9200988041305</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1.1092034090428124</v>
-          </cell>
-          <cell r="C3">
-            <v>3512.7002501958959</v>
-          </cell>
-          <cell r="D3">
-            <v>1081.2865924939294</v>
-          </cell>
-          <cell r="E3">
-            <v>1715.245917062422</v>
-          </cell>
-          <cell r="F3">
-            <v>1890.7568119850541</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.158926589566962</v>
-          </cell>
-          <cell r="C4">
-            <v>3504.6305168063341</v>
-          </cell>
-          <cell r="D4">
-            <v>1088.3616301347349</v>
-          </cell>
-          <cell r="E4">
-            <v>1413.7528172308705</v>
-          </cell>
-          <cell r="F4">
-            <v>1742.1782784561503</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.209294017307817</v>
-          </cell>
-          <cell r="C5">
-            <v>3635.242284984351</v>
-          </cell>
-          <cell r="D5">
-            <v>1065.6431994097877</v>
-          </cell>
-          <cell r="E5">
-            <v>1575.3949700409437</v>
-          </cell>
-          <cell r="F5">
-            <v>2009.4131168165134</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.2506944987963411</v>
-          </cell>
-          <cell r="C6">
-            <v>3554.3974745752635</v>
-          </cell>
-          <cell r="D6">
-            <v>1054.6647427609696</v>
-          </cell>
-          <cell r="E6">
-            <v>1543.6101556115409</v>
-          </cell>
-          <cell r="F6">
-            <v>2006.0401132711906</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.3095855432156553</v>
-          </cell>
-          <cell r="C7">
-            <v>3540.2571517920633</v>
-          </cell>
-          <cell r="D7">
-            <v>1008.3932411295133</v>
-          </cell>
-          <cell r="E7">
-            <v>1465.0867667759512</v>
-          </cell>
-          <cell r="F7">
-            <v>1657.0714287861886</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.3577885841901425</v>
-          </cell>
-          <cell r="C8">
-            <v>3745.6151177435895</v>
-          </cell>
-          <cell r="D8">
-            <v>1022.0621836183745</v>
-          </cell>
-          <cell r="E8">
-            <v>1422.4693852005155</v>
-          </cell>
-          <cell r="F8">
-            <v>1860.1681410802219</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.4042581588236853</v>
-          </cell>
-          <cell r="C9">
-            <v>3920.2491154693816</v>
-          </cell>
-          <cell r="D9">
-            <v>1169.067391530398</v>
-          </cell>
-          <cell r="E9">
-            <v>1294.0351514765703</v>
-          </cell>
-          <cell r="F9">
-            <v>1910.2390160592574</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.4501084233822239</v>
-          </cell>
-          <cell r="C10">
-            <v>3771.7693636393515</v>
-          </cell>
-          <cell r="D10">
-            <v>1025.2812267343218</v>
-          </cell>
-          <cell r="E10">
-            <v>1268.8097650535342</v>
-          </cell>
-          <cell r="F10">
-            <v>1800.2461177829869</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.5064670920362282</v>
-          </cell>
-          <cell r="C11">
-            <v>3897.2879016455977</v>
-          </cell>
-          <cell r="D11">
-            <v>1006.6403742589831</v>
-          </cell>
-          <cell r="E11">
-            <v>1074.0768374156364</v>
-          </cell>
-          <cell r="F11">
-            <v>1960.1855738063944</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.5518630534945448</v>
-          </cell>
-          <cell r="C12">
-            <v>4137.7927657940863</v>
-          </cell>
-          <cell r="D12">
-            <v>1145.3512944691595</v>
-          </cell>
-          <cell r="E12">
-            <v>1130.0004522748652</v>
-          </cell>
-          <cell r="F12">
-            <v>1956.7406112287299</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1.6041478815736687</v>
-          </cell>
-          <cell r="C13">
-            <v>4111.1062829131588</v>
-          </cell>
-          <cell r="D13">
-            <v>1064.8211424198601</v>
-          </cell>
-          <cell r="E13">
-            <v>1212.5801269481658</v>
-          </cell>
-          <cell r="F13">
-            <v>1987.2174598960769</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1.652914262599573</v>
-          </cell>
-          <cell r="C14">
-            <v>4261.2096274152382</v>
-          </cell>
-          <cell r="D14">
-            <v>1006.6889472135045</v>
-          </cell>
-          <cell r="E14">
-            <v>1104.2314771841909</v>
-          </cell>
-          <cell r="F14">
-            <v>1631.3806714861867</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1.7099579383754122</v>
-          </cell>
-          <cell r="C15">
-            <v>4475.5680405142484</v>
-          </cell>
-          <cell r="D15">
-            <v>1058.7306927462</v>
-          </cell>
-          <cell r="E15">
-            <v>897.85248603648893</v>
-          </cell>
-          <cell r="F15">
-            <v>1820.3899149758977</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1.7519703490620298</v>
-          </cell>
-          <cell r="C16">
-            <v>4344.6483266899404</v>
-          </cell>
-          <cell r="D16">
-            <v>1118.995932944284</v>
-          </cell>
-          <cell r="E16">
-            <v>876.62387000091417</v>
-          </cell>
-          <cell r="F16">
-            <v>1899.5191222408857</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1.8020980900840025</v>
-          </cell>
-          <cell r="C17">
-            <v>4358.3759566439567</v>
-          </cell>
-          <cell r="D17">
-            <v>1150.8475577479012</v>
-          </cell>
-          <cell r="E17">
-            <v>853.08226632810943</v>
-          </cell>
-          <cell r="F17">
-            <v>1789.9363136223126</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1.8589685965642311</v>
-          </cell>
-          <cell r="C18">
-            <v>4419.7229825702243</v>
-          </cell>
-          <cell r="D18">
-            <v>1013.0757800628344</v>
-          </cell>
-          <cell r="E18">
-            <v>1082.5917592644228</v>
-          </cell>
-          <cell r="F18">
-            <v>1814.5523670185787</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1.9055576637599647</v>
-          </cell>
-          <cell r="C19">
-            <v>4497.6417273100797</v>
-          </cell>
-          <cell r="D19">
-            <v>1132.6002094495555</v>
-          </cell>
-          <cell r="E19">
-            <v>798.37220526763247</v>
-          </cell>
-          <cell r="F19">
-            <v>1820.351298016569</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1.9586209555856546</v>
-          </cell>
-          <cell r="C20">
-            <v>4765.7866420908204</v>
-          </cell>
-          <cell r="D20">
-            <v>1088.6828166233554</v>
-          </cell>
-          <cell r="E20">
-            <v>946.78394143495575</v>
-          </cell>
-          <cell r="F20">
-            <v>1634.7433441648791</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2305,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804E0B0-E410-47D1-9D5B-424F07857621}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
